--- a/output.xlsx
+++ b/output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z210"/>
+  <dimension ref="A1:Z208"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2108,7 +2108,11 @@
           <t>50 CENTRE ON THE LAKE</t>
         </is>
       </c>
-      <c r="O17" t="inlineStr"/>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>SUITE 200</t>
+        </is>
+      </c>
       <c r="P17" t="inlineStr">
         <is>
           <t>LAKE ST. LOUIS,</t>
@@ -2216,7 +2220,11 @@
           <t>50 CENTRE ON THE LAKE</t>
         </is>
       </c>
-      <c r="O18" t="inlineStr"/>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>SUITE 200</t>
+        </is>
+      </c>
       <c r="P18" t="inlineStr">
         <is>
           <t>LAKE ST. LOUIS,</t>
@@ -2677,7 +2685,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>SCOTT C</t>
+          <t>SCOTT C.</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -2714,45 +2722,17 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>09/22/2019</t>
-        </is>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>MCFARLAND-BUTLER CONNIE LYNNETT</t>
-        </is>
-      </c>
-      <c r="M24" t="inlineStr">
-        <is>
-          <t>Attorney for Applicant</t>
-        </is>
-      </c>
-      <c r="N24" t="inlineStr">
-        <is>
-          <t>923 N. U.S. HIGHWAY 67</t>
-        </is>
-      </c>
+          <t>08/22/2019</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr"/>
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="inlineStr"/>
       <c r="O24" t="inlineStr"/>
-      <c r="P24" t="inlineStr">
-        <is>
-          <t>FLORISSANT,</t>
-        </is>
-      </c>
-      <c r="Q24" t="inlineStr">
-        <is>
-          <t>MO</t>
-        </is>
-      </c>
-      <c r="R24" t="inlineStr">
-        <is>
-          <t>63031</t>
-        </is>
-      </c>
-      <c r="S24" t="inlineStr">
-        <is>
-          <t>(314) 838-2223</t>
-        </is>
-      </c>
+      <c r="P24" t="inlineStr"/>
+      <c r="Q24" t="inlineStr"/>
+      <c r="R24" t="inlineStr"/>
+      <c r="S24" t="inlineStr"/>
       <c r="T24" t="inlineStr">
         <is>
           <t>01/01/2021</t>
@@ -2794,7 +2774,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Applicant</t>
+          <t>Petitioner</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -2832,7 +2812,7 @@
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>Attorney for Applicant</t>
+          <t>Attorney for Petitioner</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
@@ -3862,7 +3842,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Applicant</t>
+          <t>Indep. Personal Representative</t>
         </is>
       </c>
       <c r="D36" t="inlineStr"/>
@@ -3884,7 +3864,7 @@
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>Attorney for Applicant</t>
+          <t>Atty for Personal Representatv</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
@@ -4664,7 +4644,7 @@
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>Attorney for Other Party</t>
+          <t>Applicant and Atty</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
@@ -4724,7 +4704,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>VON OEHSEN</t>
+          <t>VONOEHSEN</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -4774,7 +4754,7 @@
       </c>
       <c r="W46" t="inlineStr">
         <is>
-          <t>AUGUST EDWARD VON OEHSEN, DECEASED</t>
+          <t>AUGUST EDWARD VONOEHSEN, DECEASED</t>
         </is>
       </c>
       <c r="X46" t="inlineStr">
@@ -4802,7 +4782,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Petitioner</t>
+          <t>Indep. Personal Representative</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -4840,7 +4820,7 @@
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>Attorney for Petitioner</t>
+          <t>Atty for Personal Representatv</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
@@ -4886,7 +4866,7 @@
       </c>
       <c r="W47" t="inlineStr">
         <is>
-          <t>AUGUST EDWARD VON OEHSEN, DECEASED</t>
+          <t>AUGUST EDWARD VONOEHSEN, DECEASED</t>
         </is>
       </c>
       <c r="X47" t="inlineStr">
@@ -4966,7 +4946,7 @@
       </c>
       <c r="W48" t="inlineStr">
         <is>
-          <t>AUGUST EDWARD VON OEHSEN, DECEASED</t>
+          <t>AUGUST EDWARD VONOEHSEN, DECEASED</t>
         </is>
       </c>
       <c r="X48" t="inlineStr">
@@ -5046,7 +5026,7 @@
       </c>
       <c r="W49" t="inlineStr">
         <is>
-          <t>AUGUST EDWARD VON OEHSEN, DECEASED</t>
+          <t>AUGUST EDWARD VONOEHSEN, DECEASED</t>
         </is>
       </c>
       <c r="X49" t="inlineStr">
@@ -5126,7 +5106,7 @@
       </c>
       <c r="W50" t="inlineStr">
         <is>
-          <t>AUGUST EDWARD VON OEHSEN, DECEASED</t>
+          <t>AUGUST EDWARD VONOEHSEN, DECEASED</t>
         </is>
       </c>
       <c r="X50" t="inlineStr">
@@ -5206,7 +5186,7 @@
       </c>
       <c r="W51" t="inlineStr">
         <is>
-          <t>AUGUST EDWARD VON OEHSEN, DECEASED</t>
+          <t>AUGUST EDWARD VONOEHSEN, DECEASED</t>
         </is>
       </c>
       <c r="X51" t="inlineStr">
@@ -5286,7 +5266,7 @@
       </c>
       <c r="W52" t="inlineStr">
         <is>
-          <t>AUGUST EDWARD VON OEHSEN, DECEASED</t>
+          <t>AUGUST EDWARD VONOEHSEN, DECEASED</t>
         </is>
       </c>
       <c r="X52" t="inlineStr">
@@ -6150,7 +6130,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Applicant</t>
+          <t>Spouse</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -6188,7 +6168,7 @@
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>Attorney for Applicant</t>
+          <t>Atty for Spouse</t>
         </is>
       </c>
       <c r="N62" t="inlineStr">
@@ -7047,7 +7027,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>1 MID RIVERS MALL DRIVE</t>
+          <t>1 MID RIVERS MALL DR</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -7057,7 +7037,7 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>ST. PETERS,</t>
+          <t>SAINT PETERS,</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
@@ -8168,11 +8148,7 @@
           <t>63129</t>
         </is>
       </c>
-      <c r="S83" t="inlineStr">
-        <is>
-          <t>(314) 845-0342</t>
-        </is>
-      </c>
+      <c r="S83" t="inlineStr"/>
       <c r="T83" t="inlineStr">
         <is>
           <t>01/04/2021</t>
@@ -9217,7 +9193,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>JAMES BRIAN</t>
+          <t>JAMES B.</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -9260,7 +9236,7 @@
       </c>
       <c r="M95" t="inlineStr">
         <is>
-          <t>Attorney for Natural Father</t>
+          <t>Attorney for Petitioner</t>
         </is>
       </c>
       <c r="N95" t="inlineStr"/>
@@ -9309,7 +9285,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>PATRICIA JEAN</t>
+          <t>PATRICIA J.</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -9352,7 +9328,7 @@
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>Attorney for Natural Father</t>
+          <t>Attorney for Petitioner</t>
         </is>
       </c>
       <c r="N96" t="inlineStr"/>
@@ -9401,7 +9377,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>ANNE B</t>
+          <t>ANNE B.</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -9448,7 +9424,7 @@
       </c>
       <c r="M97" t="inlineStr">
         <is>
-          <t>Attorney for Applicant</t>
+          <t>Applicant and Atty</t>
         </is>
       </c>
       <c r="N97" t="inlineStr">
@@ -9494,7 +9470,7 @@
       </c>
       <c r="W97" t="inlineStr">
         <is>
-          <t>ANNE STEEN, DECEASED</t>
+          <t>ANNE B. STEEN, DECEASED</t>
         </is>
       </c>
       <c r="X97" t="inlineStr">
@@ -9512,12 +9488,12 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>SANDIFER</t>
+          <t>GAINES</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>CHRISTOPHER P</t>
+          <t>JASMINE</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -9527,17 +9503,13 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>10733 SUNSET OFFICE DRIVE</t>
-        </is>
-      </c>
-      <c r="E98" t="inlineStr">
-        <is>
-          <t>SUITE 425</t>
-        </is>
-      </c>
+          <t>1327 MIREMONT DRIVE</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr"/>
       <c r="F98" t="inlineStr">
         <is>
-          <t>ST. LOUIS,</t>
+          <t>MANCHESTER,</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
@@ -9547,19 +9519,19 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>63127</t>
+          <t>63011</t>
         </is>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr">
         <is>
-          <t>1994</t>
+          <t>1985</t>
         </is>
       </c>
       <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr">
         <is>
-          <t>SANDIFER CHRISTOPHER P.</t>
+          <t>BUCHHOLZ WILLIAM G. II</t>
         </is>
       </c>
       <c r="M98" t="inlineStr">
@@ -9569,17 +9541,13 @@
       </c>
       <c r="N98" t="inlineStr">
         <is>
-          <t>10733 SUNSET OFFICE DRIVE</t>
-        </is>
-      </c>
-      <c r="O98" t="inlineStr">
-        <is>
-          <t>SUITE 425</t>
-        </is>
-      </c>
+          <t>401 CHEZ PAREE</t>
+        </is>
+      </c>
+      <c r="O98" t="inlineStr"/>
       <c r="P98" t="inlineStr">
         <is>
-          <t>SAINT LOUIS,</t>
+          <t>HAZELWOOD,</t>
         </is>
       </c>
       <c r="Q98" t="inlineStr">
@@ -9589,12 +9557,12 @@
       </c>
       <c r="R98" t="inlineStr">
         <is>
-          <t>63127</t>
+          <t>63042</t>
         </is>
       </c>
       <c r="S98" t="inlineStr">
         <is>
-          <t>(314) 966-8077</t>
+          <t>(314) 863-7033</t>
         </is>
       </c>
       <c r="T98" t="inlineStr">
@@ -9605,17 +9573,17 @@
       <c r="U98" t="inlineStr"/>
       <c r="V98" t="inlineStr">
         <is>
-          <t>21SL-PR00028</t>
+          <t>21SL-PR00029</t>
         </is>
       </c>
       <c r="W98" t="inlineStr">
         <is>
-          <t>ANNE STEEN, DECEASED</t>
+          <t>CHASITTY J. MORGAN, MINOR</t>
         </is>
       </c>
       <c r="X98" t="inlineStr">
         <is>
-          <t>PR Will Admitted or Rejected</t>
+          <t>PR Guardianship - Adult</t>
         </is>
       </c>
       <c r="Y98" t="inlineStr">
@@ -9628,17 +9596,17 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>GAINES</t>
+          <t>MORGAN</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>JASMINE</t>
+          <t>CHASITTY J</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Applicant</t>
+          <t>Respondent</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -9665,46 +9633,18 @@
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr">
         <is>
-          <t>1985</t>
+          <t>2003</t>
         </is>
       </c>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>BUCHHOLZ WILLIAM G. II</t>
-        </is>
-      </c>
-      <c r="M99" t="inlineStr">
-        <is>
-          <t>Attorney for Applicant</t>
-        </is>
-      </c>
-      <c r="N99" t="inlineStr">
-        <is>
-          <t>401 CHEZ PAREE</t>
-        </is>
-      </c>
+      <c r="L99" t="inlineStr"/>
+      <c r="M99" t="inlineStr"/>
+      <c r="N99" t="inlineStr"/>
       <c r="O99" t="inlineStr"/>
-      <c r="P99" t="inlineStr">
-        <is>
-          <t>HAZELWOOD,</t>
-        </is>
-      </c>
-      <c r="Q99" t="inlineStr">
-        <is>
-          <t>MO</t>
-        </is>
-      </c>
-      <c r="R99" t="inlineStr">
-        <is>
-          <t>63042</t>
-        </is>
-      </c>
-      <c r="S99" t="inlineStr">
-        <is>
-          <t>(314) 863-7033</t>
-        </is>
-      </c>
+      <c r="P99" t="inlineStr"/>
+      <c r="Q99" t="inlineStr"/>
+      <c r="R99" t="inlineStr"/>
+      <c r="S99" t="inlineStr"/>
       <c r="T99" t="inlineStr">
         <is>
           <t>01/05/2021</t>
@@ -9736,28 +9676,28 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>MORGAN</t>
+          <t>ALSPACH</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>CHASITTY J</t>
+          <t>WILLIS MARTIN</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Respondent</t>
+          <t>Decedent</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>1327 MIREMONT DRIVE</t>
+          <t>12563 VILLAGE CIRCLE DRIVE</t>
         </is>
       </c>
       <c r="E100" t="inlineStr"/>
       <c r="F100" t="inlineStr">
         <is>
-          <t>MANCHESTER,</t>
+          <t>SAINT LOUIS,</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
@@ -9767,24 +9707,60 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>63011</t>
+          <t>63127</t>
         </is>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr">
         <is>
-          <t>2003</t>
-        </is>
-      </c>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="inlineStr"/>
-      <c r="N100" t="inlineStr"/>
-      <c r="O100" t="inlineStr"/>
-      <c r="P100" t="inlineStr"/>
-      <c r="Q100" t="inlineStr"/>
-      <c r="R100" t="inlineStr"/>
-      <c r="S100" t="inlineStr"/>
+          <t>1928</t>
+        </is>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>12/05/2020</t>
+        </is>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>BREIG-WARREN ELIZABETH</t>
+        </is>
+      </c>
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>Applicant and Atty</t>
+        </is>
+      </c>
+      <c r="N100" t="inlineStr">
+        <is>
+          <t>DILL, BAMVAKAIS AND OKEEFE PC</t>
+        </is>
+      </c>
+      <c r="O100" t="inlineStr">
+        <is>
+          <t>9939 GRAVOIS ROAD</t>
+        </is>
+      </c>
+      <c r="P100" t="inlineStr">
+        <is>
+          <t>ST LOUIS,</t>
+        </is>
+      </c>
+      <c r="Q100" t="inlineStr">
+        <is>
+          <t>MO</t>
+        </is>
+      </c>
+      <c r="R100" t="inlineStr">
+        <is>
+          <t>63123</t>
+        </is>
+      </c>
+      <c r="S100" t="inlineStr">
+        <is>
+          <t>(314) 631-0200</t>
+        </is>
+      </c>
       <c r="T100" t="inlineStr">
         <is>
           <t>01/05/2021</t>
@@ -9793,17 +9769,17 @@
       <c r="U100" t="inlineStr"/>
       <c r="V100" t="inlineStr">
         <is>
-          <t>21SL-PR00029</t>
+          <t>21SL-PR00031</t>
         </is>
       </c>
       <c r="W100" t="inlineStr">
         <is>
-          <t>CHASITTY J. MORGAN, MINOR</t>
+          <t>WILLIS MARTIN ALSPACH, DECEASED</t>
         </is>
       </c>
       <c r="X100" t="inlineStr">
         <is>
-          <t>PR Guardianship - Adult</t>
+          <t>PR Will Admitted or Rejected</t>
         </is>
       </c>
       <c r="Y100" t="inlineStr">
@@ -9816,22 +9792,22 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>ALSPACH</t>
+          <t>MOORE</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>WILLIS MARTIN</t>
+          <t>DEIDRE M</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Decedent</t>
+          <t>Applicant</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>12563 VILLAGE CIRCLE DRIVE</t>
+          <t>5929 ROMAINE PLACWE</t>
         </is>
       </c>
       <c r="E101" t="inlineStr"/>
@@ -9847,38 +9823,34 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>63127</t>
+          <t>63112</t>
         </is>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr">
         <is>
-          <t>1928</t>
-        </is>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>12/05/2020</t>
-        </is>
-      </c>
+          <t>1970</t>
+        </is>
+      </c>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr">
         <is>
-          <t>BREIG-WARREN ELIZABETH</t>
+          <t>SMITH DONNELL</t>
         </is>
       </c>
       <c r="M101" t="inlineStr">
         <is>
-          <t>Attorney for Other Party</t>
+          <t>Attorney for Applicant</t>
         </is>
       </c>
       <c r="N101" t="inlineStr">
         <is>
-          <t>DILL, BAMVAKAIS AND OKEEFE PC</t>
+          <t>6101 DELMAR BLVD</t>
         </is>
       </c>
       <c r="O101" t="inlineStr">
         <is>
-          <t>9939 GRAVOIS ROAD</t>
+          <t>SUITE A</t>
         </is>
       </c>
       <c r="P101" t="inlineStr">
@@ -9893,12 +9865,12 @@
       </c>
       <c r="R101" t="inlineStr">
         <is>
-          <t>63123</t>
+          <t>63112</t>
         </is>
       </c>
       <c r="S101" t="inlineStr">
         <is>
-          <t>(314) 631-0200</t>
+          <t>(314) 361-2500</t>
         </is>
       </c>
       <c r="T101" t="inlineStr">
@@ -9909,17 +9881,17 @@
       <c r="U101" t="inlineStr"/>
       <c r="V101" t="inlineStr">
         <is>
-          <t>21SL-PR00031</t>
+          <t>21SL-PR00033</t>
         </is>
       </c>
       <c r="W101" t="inlineStr">
         <is>
-          <t>WILLIS MARTIN ALSPACH, A/K/A, DECEASED</t>
+          <t>HATTIE MAE WESTBROOK, DECEASED</t>
         </is>
       </c>
       <c r="X101" t="inlineStr">
         <is>
-          <t>PR Will Admitted or Rejected</t>
+          <t>PR Small Est Affidavit w/o Wil</t>
         </is>
       </c>
       <c r="Y101" t="inlineStr">
@@ -9932,28 +9904,28 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>MOORE</t>
+          <t>WESTBROOK</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>DEIDRE M</t>
+          <t>HATTIE M</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Applicant</t>
+          <t>Decedent</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>5929 ROMAINE PLACWE</t>
+          <t>3705 CANDLEWYCK CLUB DRIVE D</t>
         </is>
       </c>
       <c r="E102" t="inlineStr"/>
       <c r="F102" t="inlineStr">
         <is>
-          <t>SAINT LOUIS,</t>
+          <t>FLORISSANT,</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
@@ -9963,16 +9935,20 @@
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>63112</t>
+          <t>63034</t>
         </is>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr">
         <is>
-          <t>1970</t>
-        </is>
-      </c>
-      <c r="K102" t="inlineStr"/>
+          <t>1941</t>
+        </is>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>06/07/2015</t>
+        </is>
+      </c>
       <c r="L102" t="inlineStr">
         <is>
           <t>SMITH DONNELL</t>
@@ -10044,91 +10020,55 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>WESTBROOK</t>
+          <t>RICHARD</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>HATTIE M</t>
+          <t>ANGELA M</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Decedent</t>
+          <t>Heir</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>3705 CANDLEWYCK CLUB DRIVE D</t>
+          <t>1200 BEVERLY STREET</t>
         </is>
       </c>
       <c r="E103" t="inlineStr"/>
       <c r="F103" t="inlineStr">
         <is>
-          <t>FLORISSANT,</t>
+          <t>ARDMORE,</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>MO</t>
+          <t>OK</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>63034</t>
+          <t>73401</t>
         </is>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr">
         <is>
-          <t>1941</t>
-        </is>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>06/07/2015</t>
-        </is>
-      </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>SMITH DONNELL</t>
-        </is>
-      </c>
-      <c r="M103" t="inlineStr">
-        <is>
-          <t>Attorney for Applicant</t>
-        </is>
-      </c>
-      <c r="N103" t="inlineStr">
-        <is>
-          <t>6101 DELMAR BLVD</t>
-        </is>
-      </c>
-      <c r="O103" t="inlineStr">
-        <is>
-          <t>SUITE A</t>
-        </is>
-      </c>
-      <c r="P103" t="inlineStr">
-        <is>
-          <t>ST LOUIS,</t>
-        </is>
-      </c>
-      <c r="Q103" t="inlineStr">
-        <is>
-          <t>MO</t>
-        </is>
-      </c>
-      <c r="R103" t="inlineStr">
-        <is>
-          <t>63112</t>
-        </is>
-      </c>
-      <c r="S103" t="inlineStr">
-        <is>
-          <t>(314) 361-2500</t>
-        </is>
-      </c>
+          <t>1961</t>
+        </is>
+      </c>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr"/>
+      <c r="M103" t="inlineStr"/>
+      <c r="N103" t="inlineStr"/>
+      <c r="O103" t="inlineStr"/>
+      <c r="P103" t="inlineStr"/>
+      <c r="Q103" t="inlineStr"/>
+      <c r="R103" t="inlineStr"/>
+      <c r="S103" t="inlineStr"/>
       <c r="T103" t="inlineStr">
         <is>
           <t>01/05/2021</t>
@@ -10160,12 +10100,12 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>RICHARD</t>
+          <t>MOORE</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>ANGELA M</t>
+          <t>DEIDRE M</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -10175,29 +10115,29 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>1200 BEVERLY STREET</t>
+          <t>5929 ROMAINE PLACWE</t>
         </is>
       </c>
       <c r="E104" t="inlineStr"/>
       <c r="F104" t="inlineStr">
         <is>
-          <t>ARDMORE,</t>
+          <t>SAINT LOUIS,</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>MO</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>73401</t>
+          <t>63112</t>
         </is>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr">
         <is>
-          <t>1961</t>
+          <t>1970</t>
         </is>
       </c>
       <c r="K104" t="inlineStr"/>
@@ -10240,12 +10180,12 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>MOORE</t>
+          <t>BROWN</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>DEIDRE M</t>
+          <t>KENNETH M SR</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -10255,7 +10195,7 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>5929 ROMAINE PLACWE</t>
+          <t>452 CHAPEL RIDGE, APT A</t>
         </is>
       </c>
       <c r="E105" t="inlineStr"/>
@@ -10271,13 +10211,13 @@
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>63112</t>
+          <t>63125</t>
         </is>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr">
         <is>
-          <t>1970</t>
+          <t>1965</t>
         </is>
       </c>
       <c r="K105" t="inlineStr"/>
@@ -10320,12 +10260,12 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>BROWN</t>
+          <t>WESTBROOK</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>KENNETH M SR</t>
+          <t>ORLANDO MARCELL</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -10335,13 +10275,13 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>452 CHAPEL RIDGE, APT A</t>
+          <t>3816 LAWLER DR</t>
         </is>
       </c>
       <c r="E106" t="inlineStr"/>
       <c r="F106" t="inlineStr">
         <is>
-          <t>SAINT LOUIS,</t>
+          <t>ST LOUIS,</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
@@ -10351,13 +10291,13 @@
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>63125</t>
+          <t>63121</t>
         </is>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr">
         <is>
-          <t>1965</t>
+          <t>1973</t>
         </is>
       </c>
       <c r="K106" t="inlineStr"/>
@@ -10400,28 +10340,28 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>WESTBROOK</t>
+          <t>KOCH</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>ORLANDO MARCELL</t>
+          <t>EDWARD H.</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Heir</t>
+          <t>Decedent</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>3816 LAWLER DR</t>
+          <t>1038 COUCH AVE.</t>
         </is>
       </c>
       <c r="E107" t="inlineStr"/>
       <c r="F107" t="inlineStr">
         <is>
-          <t>ST LOUIS,</t>
+          <t>KIRKWOOD,</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
@@ -10431,23 +10371,51 @@
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>63121</t>
+          <t>63122</t>
         </is>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr">
         <is>
-          <t>1973</t>
-        </is>
-      </c>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="inlineStr"/>
-      <c r="N107" t="inlineStr"/>
+          <t>1936</t>
+        </is>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>11/25/2020</t>
+        </is>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>STALEY LAURA L.</t>
+        </is>
+      </c>
+      <c r="M107" t="inlineStr">
+        <is>
+          <t>Attorney for Applicant</t>
+        </is>
+      </c>
+      <c r="N107" t="inlineStr">
+        <is>
+          <t>10 S. BROADWAY SU 2000</t>
+        </is>
+      </c>
       <c r="O107" t="inlineStr"/>
-      <c r="P107" t="inlineStr"/>
-      <c r="Q107" t="inlineStr"/>
-      <c r="R107" t="inlineStr"/>
+      <c r="P107" t="inlineStr">
+        <is>
+          <t>SAINT LOUIS,</t>
+        </is>
+      </c>
+      <c r="Q107" t="inlineStr">
+        <is>
+          <t>MO</t>
+        </is>
+      </c>
+      <c r="R107" t="inlineStr">
+        <is>
+          <t>63102</t>
+        </is>
+      </c>
       <c r="S107" t="inlineStr"/>
       <c r="T107" t="inlineStr">
         <is>
@@ -10457,17 +10425,17 @@
       <c r="U107" t="inlineStr"/>
       <c r="V107" t="inlineStr">
         <is>
-          <t>21SL-PR00033</t>
+          <t>21SL-PR00034</t>
         </is>
       </c>
       <c r="W107" t="inlineStr">
         <is>
-          <t>HATTIE MAE WESTBROOK, DECEASED</t>
+          <t>EDWARD H. KOCH, DECEASED</t>
         </is>
       </c>
       <c r="X107" t="inlineStr">
         <is>
-          <t>PR Small Est Affidavit w/o Wil</t>
+          <t>PR Will Admitted or Rejected</t>
         </is>
       </c>
       <c r="Y107" t="inlineStr">
@@ -10480,28 +10448,28 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>KOCH</t>
+          <t>HERMAN</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>EDWARD H.</t>
+          <t>KEITH A.</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Decedent</t>
+          <t>Applicant</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>1038 COUCH AVE.</t>
+          <t>10 S BROADWAY SUITE 2000</t>
         </is>
       </c>
       <c r="E108" t="inlineStr"/>
       <c r="F108" t="inlineStr">
         <is>
-          <t>KIRKWOOD,</t>
+          <t>ST LOUIS,</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
@@ -10511,20 +10479,16 @@
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>63122</t>
+          <t>63102</t>
         </is>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr">
         <is>
-          <t>1936</t>
-        </is>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>11/25/2020</t>
-        </is>
-      </c>
+          <t>1973</t>
+        </is>
+      </c>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="inlineStr">
         <is>
           <t>STALEY LAURA L.</t>
@@ -10588,28 +10552,28 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>HERMAN</t>
+          <t>RIGGS</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>KEITH A.</t>
+          <t>DOROTHY MAE</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Applicant</t>
+          <t>Decedent</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>10 S BROADWAY SUITE 2000</t>
+          <t>307 SOUTH WOODS MILL ROAD</t>
         </is>
       </c>
       <c r="E109" t="inlineStr"/>
       <c r="F109" t="inlineStr">
         <is>
-          <t>ST LOUIS,</t>
+          <t>CHESTERFIELD,</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
@@ -10619,19 +10583,23 @@
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>63102</t>
+          <t>63017</t>
         </is>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr">
         <is>
-          <t>1973</t>
-        </is>
-      </c>
-      <c r="K109" t="inlineStr"/>
+          <t>1916</t>
+        </is>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>05/30/2020</t>
+        </is>
+      </c>
       <c r="L109" t="inlineStr">
         <is>
-          <t>STALEY LAURA L.</t>
+          <t>BOYLE PATRICK O</t>
         </is>
       </c>
       <c r="M109" t="inlineStr">
@@ -10641,13 +10609,13 @@
       </c>
       <c r="N109" t="inlineStr">
         <is>
-          <t>10 S. BROADWAY SU 2000</t>
+          <t>755 RUE SAINT FRANCOIS</t>
         </is>
       </c>
       <c r="O109" t="inlineStr"/>
       <c r="P109" t="inlineStr">
         <is>
-          <t>SAINT LOUIS,</t>
+          <t>FLORISSANT,</t>
         </is>
       </c>
       <c r="Q109" t="inlineStr">
@@ -10657,10 +10625,14 @@
       </c>
       <c r="R109" t="inlineStr">
         <is>
-          <t>63102</t>
-        </is>
-      </c>
-      <c r="S109" t="inlineStr"/>
+          <t>63031</t>
+        </is>
+      </c>
+      <c r="S109" t="inlineStr">
+        <is>
+          <t>(314) 838-4500</t>
+        </is>
+      </c>
       <c r="T109" t="inlineStr">
         <is>
           <t>01/05/2021</t>
@@ -10669,12 +10641,12 @@
       <c r="U109" t="inlineStr"/>
       <c r="V109" t="inlineStr">
         <is>
-          <t>21SL-PR00034</t>
+          <t>21SL-PR00035</t>
         </is>
       </c>
       <c r="W109" t="inlineStr">
         <is>
-          <t>EDWARD H. KOCH, DECEASED</t>
+          <t>DOROTHY MAE RIGGS, DECEASED</t>
         </is>
       </c>
       <c r="X109" t="inlineStr">
@@ -10697,46 +10669,42 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>DOROTHY MAE</t>
+          <t>DONALD J. JR.</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Decedent</t>
+          <t>Applicant</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>307 SOUTH WOODS MILL ROAD</t>
+          <t>2902 BONANZA LANE</t>
         </is>
       </c>
       <c r="E110" t="inlineStr"/>
       <c r="F110" t="inlineStr">
         <is>
-          <t>CHESTERFIELD,</t>
+          <t>GARLAND,</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>MO</t>
+          <t>TX</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>63017</t>
+          <t>75042-4824</t>
         </is>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr">
         <is>
-          <t>1916</t>
-        </is>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>05/30/2020</t>
-        </is>
-      </c>
+          <t>1949</t>
+        </is>
+      </c>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="inlineStr">
         <is>
           <t>BOYLE PATRICK O</t>
@@ -10804,12 +10772,12 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>RIGGS</t>
+          <t>SCHMUCK</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>DONALD J. JR.</t>
+          <t>FREDERICK J.</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -10819,35 +10787,39 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>2902 BONANZA LANE</t>
-        </is>
-      </c>
-      <c r="E111" t="inlineStr"/>
+          <t>1955 DERHAKE ROAD</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>1955 DERHAKE ROAD</t>
+        </is>
+      </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>GARLAND,</t>
+          <t>FLORISSANT,</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>TX</t>
+          <t>MO</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>75042-4824</t>
+          <t>63033</t>
         </is>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr">
         <is>
-          <t>1949</t>
+          <t>1963</t>
         </is>
       </c>
       <c r="K111" t="inlineStr"/>
       <c r="L111" t="inlineStr">
         <is>
-          <t>BOYLE PATRICK O</t>
+          <t>OPEL KATHERINE LEE</t>
         </is>
       </c>
       <c r="M111" t="inlineStr">
@@ -10857,13 +10829,17 @@
       </c>
       <c r="N111" t="inlineStr">
         <is>
-          <t>755 RUE SAINT FRANCOIS</t>
-        </is>
-      </c>
-      <c r="O111" t="inlineStr"/>
+          <t>15TH FLOOR</t>
+        </is>
+      </c>
+      <c r="O111" t="inlineStr">
+        <is>
+          <t>600 WASHINGTON AVENUE</t>
+        </is>
+      </c>
       <c r="P111" t="inlineStr">
         <is>
-          <t>FLORISSANT,</t>
+          <t>ST. LOUIS,</t>
         </is>
       </c>
       <c r="Q111" t="inlineStr">
@@ -10873,12 +10849,12 @@
       </c>
       <c r="R111" t="inlineStr">
         <is>
-          <t>63031</t>
+          <t>63101-1313</t>
         </is>
       </c>
       <c r="S111" t="inlineStr">
         <is>
-          <t>(314) 838-4500</t>
+          <t>(314) 446-4209</t>
         </is>
       </c>
       <c r="T111" t="inlineStr">
@@ -10889,17 +10865,17 @@
       <c r="U111" t="inlineStr"/>
       <c r="V111" t="inlineStr">
         <is>
-          <t>21SL-PR00035</t>
+          <t>21SL-PR00036</t>
         </is>
       </c>
       <c r="W111" t="inlineStr">
         <is>
-          <t>DOROTHY MAE RIGGS, DECEASED</t>
+          <t>ADOLPH J. SCHMUCK, DECEASED</t>
         </is>
       </c>
       <c r="X111" t="inlineStr">
         <is>
-          <t>PR Will Admitted or Rejected</t>
+          <t>PR Independent without Will</t>
         </is>
       </c>
       <c r="Y111" t="inlineStr">
@@ -10917,7 +10893,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>FREDERICK J.</t>
+          <t>MONICA R.</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -10927,33 +10903,29 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>1955 DERHAKE ROAD</t>
-        </is>
-      </c>
-      <c r="E112" t="inlineStr">
-        <is>
-          <t>1955 DERHAKE ROAD</t>
-        </is>
-      </c>
+          <t>11848 AMELING ROAD</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr"/>
       <c r="F112" t="inlineStr">
         <is>
-          <t>FLORISSANT,</t>
+          <t>MARYLAND HEIGHTS,</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>MO</t>
+          <t>IL</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>63033</t>
+          <t>63043</t>
         </is>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr">
         <is>
-          <t>1963</t>
+          <t>1966</t>
         </is>
       </c>
       <c r="K112" t="inlineStr"/>
@@ -11028,12 +11000,12 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>SCHMUCK</t>
+          <t>YURGEC</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>MONICA R.</t>
+          <t>ERICA T.</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -11043,13 +11015,13 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>11848 AMELING ROAD</t>
+          <t>#2 PINE DRIVE</t>
         </is>
       </c>
       <c r="E113" t="inlineStr"/>
       <c r="F113" t="inlineStr">
         <is>
-          <t>MARYLAND HEIGHTS,</t>
+          <t>SHERMAN,</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
@@ -11059,13 +11031,13 @@
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>63043</t>
+          <t>62684</t>
         </is>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr">
         <is>
-          <t>1966</t>
+          <t>1968</t>
         </is>
       </c>
       <c r="K113" t="inlineStr"/>
@@ -11140,70 +11112,66 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>YURGEC</t>
+          <t>CROCKETT</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>ERICA T.</t>
+          <t>CASETTA</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Applicant</t>
+          <t>Petitioner</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>#2 PINE DRIVE</t>
+          <t>1153 FOREST HOME DR</t>
         </is>
       </c>
       <c r="E114" t="inlineStr"/>
       <c r="F114" t="inlineStr">
         <is>
-          <t>SHERMAN,</t>
+          <t>SAINT LOUIS,</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>IL</t>
+          <t>MO</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>62684</t>
+          <t>63137</t>
         </is>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr">
         <is>
-          <t>1968</t>
+          <t>1956</t>
         </is>
       </c>
       <c r="K114" t="inlineStr"/>
       <c r="L114" t="inlineStr">
         <is>
-          <t>OPEL KATHERINE LEE</t>
+          <t>HARRY VENUS VALINE</t>
         </is>
       </c>
       <c r="M114" t="inlineStr">
         <is>
-          <t>Attorney for Applicant</t>
+          <t>Attorney for Petitioner</t>
         </is>
       </c>
       <c r="N114" t="inlineStr">
         <is>
-          <t>15TH FLOOR</t>
-        </is>
-      </c>
-      <c r="O114" t="inlineStr">
-        <is>
-          <t>600 WASHINGTON AVENUE</t>
-        </is>
-      </c>
+          <t>7515 DELMAR BOULEVARD</t>
+        </is>
+      </c>
+      <c r="O114" t="inlineStr"/>
       <c r="P114" t="inlineStr">
         <is>
-          <t>ST. LOUIS,</t>
+          <t>SAINT LOUIS,</t>
         </is>
       </c>
       <c r="Q114" t="inlineStr">
@@ -11213,12 +11181,12 @@
       </c>
       <c r="R114" t="inlineStr">
         <is>
-          <t>63101-1313</t>
+          <t>63130</t>
         </is>
       </c>
       <c r="S114" t="inlineStr">
         <is>
-          <t>(314) 446-4209</t>
+          <t>(314) 367-1059</t>
         </is>
       </c>
       <c r="T114" t="inlineStr">
@@ -11229,17 +11197,17 @@
       <c r="U114" t="inlineStr"/>
       <c r="V114" t="inlineStr">
         <is>
-          <t>21SL-PR00036</t>
+          <t>21SL-PR00037</t>
         </is>
       </c>
       <c r="W114" t="inlineStr">
         <is>
-          <t>ADOLPH J. SCHMUCK, DECEASED</t>
+          <t>KYLIE K. CROCKETT, MINOR</t>
         </is>
       </c>
       <c r="X114" t="inlineStr">
         <is>
-          <t>PR Independent without Will</t>
+          <t>PR Guardianship - Minor</t>
         </is>
       </c>
       <c r="Y114" t="inlineStr">
@@ -11337,12 +11305,12 @@
       <c r="U115" t="inlineStr"/>
       <c r="V115" t="inlineStr">
         <is>
-          <t>21SL-PR00037</t>
+          <t>21SL-PR00038</t>
         </is>
       </c>
       <c r="W115" t="inlineStr">
         <is>
-          <t>KYLIE CROCKETT, MINOR</t>
+          <t>KHLOE R. CROCKETT, MINOR</t>
         </is>
       </c>
       <c r="X115" t="inlineStr">
@@ -11445,12 +11413,12 @@
       <c r="U116" t="inlineStr"/>
       <c r="V116" t="inlineStr">
         <is>
-          <t>21SL-PR00038</t>
+          <t>21SL-PR00039</t>
         </is>
       </c>
       <c r="W116" t="inlineStr">
         <is>
-          <t>KHLOE CROCKETT, MINOR</t>
+          <t>ZURI D. CROCKETT, MINOR</t>
         </is>
       </c>
       <c r="X116" t="inlineStr">
@@ -11553,12 +11521,12 @@
       <c r="U117" t="inlineStr"/>
       <c r="V117" t="inlineStr">
         <is>
-          <t>21SL-PR00039</t>
+          <t>21SL-PR00040</t>
         </is>
       </c>
       <c r="W117" t="inlineStr">
         <is>
-          <t>ZURI CROCKETT, MINOR</t>
+          <t>BLAZE C. CROCKETT, MINOR</t>
         </is>
       </c>
       <c r="X117" t="inlineStr">
@@ -11661,12 +11629,12 @@
       <c r="U118" t="inlineStr"/>
       <c r="V118" t="inlineStr">
         <is>
-          <t>21SL-PR00040</t>
+          <t>21SL-PR00042</t>
         </is>
       </c>
       <c r="W118" t="inlineStr">
         <is>
-          <t>BLAZE CROCKETT, MINOR</t>
+          <t>RYKER C. CROCKETT, MINOR</t>
         </is>
       </c>
       <c r="X118" t="inlineStr">
@@ -11684,22 +11652,22 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>CROCKETT</t>
+          <t>HINCH</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>CASETTA</t>
+          <t>JAMES A</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Petitioner</t>
+          <t>Decedent</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>1153 FOREST HOME DR</t>
+          <t>4911 MAFFIT PLACE</t>
         </is>
       </c>
       <c r="E119" t="inlineStr"/>
@@ -11715,52 +11683,28 @@
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>63137</t>
+          <t>63113</t>
         </is>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr">
         <is>
-          <t>1956</t>
-        </is>
-      </c>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>HARRY VENUS VALINE</t>
-        </is>
-      </c>
-      <c r="M119" t="inlineStr">
-        <is>
-          <t>Attorney for Petitioner</t>
-        </is>
-      </c>
-      <c r="N119" t="inlineStr">
-        <is>
-          <t>7515 DELMAR BOULEVARD</t>
-        </is>
-      </c>
+          <t>1993</t>
+        </is>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>08/15/2020</t>
+        </is>
+      </c>
+      <c r="L119" t="inlineStr"/>
+      <c r="M119" t="inlineStr"/>
+      <c r="N119" t="inlineStr"/>
       <c r="O119" t="inlineStr"/>
-      <c r="P119" t="inlineStr">
-        <is>
-          <t>SAINT LOUIS,</t>
-        </is>
-      </c>
-      <c r="Q119" t="inlineStr">
-        <is>
-          <t>MO</t>
-        </is>
-      </c>
-      <c r="R119" t="inlineStr">
-        <is>
-          <t>63130</t>
-        </is>
-      </c>
-      <c r="S119" t="inlineStr">
-        <is>
-          <t>(314) 367-1059</t>
-        </is>
-      </c>
+      <c r="P119" t="inlineStr"/>
+      <c r="Q119" t="inlineStr"/>
+      <c r="R119" t="inlineStr"/>
+      <c r="S119" t="inlineStr"/>
       <c r="T119" t="inlineStr">
         <is>
           <t>01/05/2021</t>
@@ -11769,17 +11713,17 @@
       <c r="U119" t="inlineStr"/>
       <c r="V119" t="inlineStr">
         <is>
-          <t>21SL-PR00042</t>
+          <t>21SL-PR00043</t>
         </is>
       </c>
       <c r="W119" t="inlineStr">
         <is>
-          <t>RYKER CROCKETT, MINOR</t>
+          <t>JAMES A. HINCH, DECEASED</t>
         </is>
       </c>
       <c r="X119" t="inlineStr">
         <is>
-          <t>PR Guardianship - Minor</t>
+          <t>PR Refusal of Letters-Creditor</t>
         </is>
       </c>
       <c r="Y119" t="inlineStr">
@@ -11797,17 +11741,17 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>JAMES A</t>
+          <t>LAJUANA</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Decedent</t>
+          <t>Creditor</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>4911 MAFFIT PLACE</t>
+          <t>4725 FETCHER ST</t>
         </is>
       </c>
       <c r="E120" t="inlineStr"/>
@@ -11823,20 +11767,12 @@
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>63113</t>
+          <t>63121</t>
         </is>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr">
-        <is>
-          <t>1993</t>
-        </is>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>08/15/2020</t>
-        </is>
-      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="inlineStr"/>
       <c r="M120" t="inlineStr"/>
       <c r="N120" t="inlineStr"/>
@@ -11876,28 +11812,28 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>HINCH</t>
+          <t>MORGAN</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>LAJUANA</t>
+          <t>ZULEIKA J</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Petitioner</t>
+          <t>Decedent</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>4725 FETCHER ST</t>
+          <t>9630 THEODOSIA AVENUE</t>
         </is>
       </c>
       <c r="E121" t="inlineStr"/>
       <c r="F121" t="inlineStr">
         <is>
-          <t>SAINT LOUIS,</t>
+          <t>OVERLAND,</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
@@ -11907,19 +11843,51 @@
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>63121</t>
+          <t>63114</t>
         </is>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="inlineStr"/>
-      <c r="N121" t="inlineStr"/>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>1922</t>
+        </is>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>07/28/2020</t>
+        </is>
+      </c>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>QUINN BRIAN G</t>
+        </is>
+      </c>
+      <c r="M121" t="inlineStr">
+        <is>
+          <t>Attorney for Petitioner</t>
+        </is>
+      </c>
+      <c r="N121" t="inlineStr">
+        <is>
+          <t>14611 MANCHESTER RD</t>
+        </is>
+      </c>
       <c r="O121" t="inlineStr"/>
-      <c r="P121" t="inlineStr"/>
-      <c r="Q121" t="inlineStr"/>
-      <c r="R121" t="inlineStr"/>
+      <c r="P121" t="inlineStr">
+        <is>
+          <t>MANCHESTER,</t>
+        </is>
+      </c>
+      <c r="Q121" t="inlineStr">
+        <is>
+          <t>MO</t>
+        </is>
+      </c>
+      <c r="R121" t="inlineStr">
+        <is>
+          <t>63011</t>
+        </is>
+      </c>
       <c r="S121" t="inlineStr"/>
       <c r="T121" t="inlineStr">
         <is>
@@ -11929,17 +11897,17 @@
       <c r="U121" t="inlineStr"/>
       <c r="V121" t="inlineStr">
         <is>
-          <t>21SL-PR00043</t>
+          <t>21SL-PR00044</t>
         </is>
       </c>
       <c r="W121" t="inlineStr">
         <is>
-          <t>JAMES A. HINCH, DECEASED</t>
+          <t>ZULEIKA J. MORGAN,  DECEASED</t>
         </is>
       </c>
       <c r="X121" t="inlineStr">
         <is>
-          <t>PR Refusal of Letters-Creditor</t>
+          <t>PR Small Est Affidavit w/Will</t>
         </is>
       </c>
       <c r="Y121" t="inlineStr">
@@ -11952,17 +11920,17 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>MORGAN</t>
+          <t>DIXON</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>ZULEIKA J</t>
+          <t>GLENNA A</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Decedent</t>
+          <t>Petitioner</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
@@ -11989,14 +11957,10 @@
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr">
         <is>
-          <t>1922</t>
-        </is>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>07/28/2020</t>
-        </is>
-      </c>
+          <t>1950</t>
+        </is>
+      </c>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="inlineStr">
         <is>
           <t>QUINN BRIAN G</t>
@@ -12070,7 +12034,7 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Petitioner</t>
+          <t>Heir</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
@@ -12101,37 +12065,13 @@
         </is>
       </c>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>QUINN BRIAN G</t>
-        </is>
-      </c>
-      <c r="M123" t="inlineStr">
-        <is>
-          <t>Attorney for Petitioner</t>
-        </is>
-      </c>
-      <c r="N123" t="inlineStr">
-        <is>
-          <t>14611 MANCHESTER RD</t>
-        </is>
-      </c>
+      <c r="L123" t="inlineStr"/>
+      <c r="M123" t="inlineStr"/>
+      <c r="N123" t="inlineStr"/>
       <c r="O123" t="inlineStr"/>
-      <c r="P123" t="inlineStr">
-        <is>
-          <t>MANCHESTER,</t>
-        </is>
-      </c>
-      <c r="Q123" t="inlineStr">
-        <is>
-          <t>MO</t>
-        </is>
-      </c>
-      <c r="R123" t="inlineStr">
-        <is>
-          <t>63011</t>
-        </is>
-      </c>
+      <c r="P123" t="inlineStr"/>
+      <c r="Q123" t="inlineStr"/>
+      <c r="R123" t="inlineStr"/>
       <c r="S123" t="inlineStr"/>
       <c r="T123" t="inlineStr">
         <is>
@@ -12164,12 +12104,12 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>DIXON</t>
+          <t>MORGAN</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>GLENNA A</t>
+          <t>TIMOTHY P</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -12201,7 +12141,7 @@
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr">
         <is>
-          <t>1950</t>
+          <t>1956</t>
         </is>
       </c>
       <c r="K124" t="inlineStr"/>
@@ -12244,28 +12184,32 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>MORGAN</t>
+          <t>TOOKE</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>TIMOTHY P</t>
+          <t>THOMAS H.</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Heir</t>
+          <t>Decedent</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>9630 THEODOSIA AVENUE</t>
-        </is>
-      </c>
-      <c r="E125" t="inlineStr"/>
+          <t>213 SOUTH WOODS MILL ROAD</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>#4201</t>
+        </is>
+      </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>OVERLAND,</t>
+          <t>CHESTERFIELD,</t>
         </is>
       </c>
       <c r="G125" t="inlineStr">
@@ -12275,16 +12219,20 @@
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>63114</t>
+          <t>63017</t>
         </is>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr">
         <is>
-          <t>1956</t>
-        </is>
-      </c>
-      <c r="K125" t="inlineStr"/>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>11/17/2020</t>
+        </is>
+      </c>
       <c r="L125" t="inlineStr"/>
       <c r="M125" t="inlineStr"/>
       <c r="N125" t="inlineStr"/>
@@ -12295,23 +12243,23 @@
       <c r="S125" t="inlineStr"/>
       <c r="T125" t="inlineStr">
         <is>
-          <t>01/05/2021</t>
+          <t>01/06/2021</t>
         </is>
       </c>
       <c r="U125" t="inlineStr"/>
       <c r="V125" t="inlineStr">
         <is>
-          <t>21SL-PR00044</t>
+          <t>21SL-PR00045</t>
         </is>
       </c>
       <c r="W125" t="inlineStr">
         <is>
-          <t>ZULEIKA J. MORGAN,  DECEASED</t>
+          <t>THOMAS H. TOOKE, DECEASED</t>
         </is>
       </c>
       <c r="X125" t="inlineStr">
         <is>
-          <t>PR Small Est Affidavit w/Will</t>
+          <t>PR Independent with Will</t>
         </is>
       </c>
       <c r="Y125" t="inlineStr">
@@ -12329,57 +12277,77 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>THOMAS H.</t>
+          <t>ANNE</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Decedent</t>
+          <t>Co-Personal Representative</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>213 SOUTH WOODS MILL ROAD</t>
-        </is>
-      </c>
-      <c r="E126" t="inlineStr">
-        <is>
-          <t>#4201</t>
-        </is>
-      </c>
+          <t>107 HILL TOP ROAD</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr"/>
       <c r="F126" t="inlineStr">
         <is>
-          <t>CHESTERFIELD,</t>
+          <t>SILVER SPRING,</t>
         </is>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>MO</t>
+          <t>MD</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>63017</t>
+          <t>20910</t>
         </is>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr">
         <is>
-          <t>2020</t>
-        </is>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>11/17/2020</t>
-        </is>
-      </c>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="inlineStr"/>
-      <c r="N126" t="inlineStr"/>
-      <c r="O126" t="inlineStr"/>
-      <c r="P126" t="inlineStr"/>
-      <c r="Q126" t="inlineStr"/>
-      <c r="R126" t="inlineStr"/>
+          <t>1946</t>
+        </is>
+      </c>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>KIRCHNER ABBI H.</t>
+        </is>
+      </c>
+      <c r="M126" t="inlineStr">
+        <is>
+          <t>Atty for Personal Representatv</t>
+        </is>
+      </c>
+      <c r="N126" t="inlineStr">
+        <is>
+          <t>7701 FORSYTHE BLVD</t>
+        </is>
+      </c>
+      <c r="O126" t="inlineStr">
+        <is>
+          <t>SUITE 500</t>
+        </is>
+      </c>
+      <c r="P126" t="inlineStr">
+        <is>
+          <t>ST LOUIS,</t>
+        </is>
+      </c>
+      <c r="Q126" t="inlineStr">
+        <is>
+          <t>MO</t>
+        </is>
+      </c>
+      <c r="R126" t="inlineStr">
+        <is>
+          <t>63105</t>
+        </is>
+      </c>
       <c r="S126" t="inlineStr"/>
       <c r="T126" t="inlineStr">
         <is>
@@ -12412,12 +12380,12 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>TOOKE</t>
+          <t>HENDERSON</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>ANNE</t>
+          <t>BARBARA P.</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -12427,29 +12395,29 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>107 HILL TOP ROAD</t>
+          <t>13038 OLD FARM DRIVE</t>
         </is>
       </c>
       <c r="E127" t="inlineStr"/>
       <c r="F127" t="inlineStr">
         <is>
-          <t>SILVER SPRING,</t>
+          <t>ST. LOUIS,</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>MD</t>
+          <t>MO</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>20910</t>
+          <t>63146</t>
         </is>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr">
         <is>
-          <t>1946</t>
+          <t>1954</t>
         </is>
       </c>
       <c r="K127" t="inlineStr"/>
@@ -12520,82 +12488,54 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>HENDERSON</t>
+          <t>KING</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>BARBARA P.</t>
+          <t>LYNNE</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Co-Personal Representative</t>
+          <t>Heir</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>13038 OLD FARM DRIVE</t>
+          <t>8725 CRYSTAL MOUNTAIN ROAD</t>
         </is>
       </c>
       <c r="E128" t="inlineStr"/>
       <c r="F128" t="inlineStr">
         <is>
-          <t>ST. LOUIS,</t>
+          <t>EMMITSBURG,</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>MO</t>
+          <t>MD</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>63146</t>
+          <t>21727</t>
         </is>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr">
         <is>
-          <t>1954</t>
+          <t>1952</t>
         </is>
       </c>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>KIRCHNER ABBI H.</t>
-        </is>
-      </c>
-      <c r="M128" t="inlineStr">
-        <is>
-          <t>Atty for Personal Representatv</t>
-        </is>
-      </c>
-      <c r="N128" t="inlineStr">
-        <is>
-          <t>7701 FORSYTHE BLVD</t>
-        </is>
-      </c>
-      <c r="O128" t="inlineStr">
-        <is>
-          <t>SUITE 500</t>
-        </is>
-      </c>
-      <c r="P128" t="inlineStr">
-        <is>
-          <t>ST LOUIS,</t>
-        </is>
-      </c>
-      <c r="Q128" t="inlineStr">
-        <is>
-          <t>MO</t>
-        </is>
-      </c>
-      <c r="R128" t="inlineStr">
-        <is>
-          <t>63105</t>
-        </is>
-      </c>
+      <c r="L128" t="inlineStr"/>
+      <c r="M128" t="inlineStr"/>
+      <c r="N128" t="inlineStr"/>
+      <c r="O128" t="inlineStr"/>
+      <c r="P128" t="inlineStr"/>
+      <c r="Q128" t="inlineStr"/>
+      <c r="R128" t="inlineStr"/>
       <c r="S128" t="inlineStr"/>
       <c r="T128" t="inlineStr">
         <is>
@@ -12628,12 +12568,12 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>KING</t>
+          <t>LANGEVIN</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>LYNNE</t>
+          <t>APRIL</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -12643,13 +12583,13 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>8725 CRYSTAL MOUNTAIN ROAD</t>
+          <t>9046 SAFFROM LANE</t>
         </is>
       </c>
       <c r="E129" t="inlineStr"/>
       <c r="F129" t="inlineStr">
         <is>
-          <t>EMMITSBURG,</t>
+          <t>SILVER SPRINGS,</t>
         </is>
       </c>
       <c r="G129" t="inlineStr">
@@ -12659,13 +12599,13 @@
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>21727</t>
+          <t>20901</t>
         </is>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr">
         <is>
-          <t>1952</t>
+          <t>1954</t>
         </is>
       </c>
       <c r="K129" t="inlineStr"/>
@@ -12708,38 +12648,38 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>LANGEVIN</t>
+          <t>HENDERSON</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>APRIL</t>
+          <t>BARBARA P.</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Heir</t>
+          <t>Designated Resident Agent</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>9046 SAFFROM LANE</t>
+          <t>13038 OLD FARM DRIVE</t>
         </is>
       </c>
       <c r="E130" t="inlineStr"/>
       <c r="F130" t="inlineStr">
         <is>
-          <t>SILVER SPRINGS,</t>
+          <t>ST. LOUIS,</t>
         </is>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>MD</t>
+          <t>MO</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>20901</t>
+          <t>63146</t>
         </is>
       </c>
       <c r="I130" t="inlineStr"/>
@@ -12749,13 +12689,41 @@
         </is>
       </c>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="inlineStr"/>
-      <c r="N130" t="inlineStr"/>
-      <c r="O130" t="inlineStr"/>
-      <c r="P130" t="inlineStr"/>
-      <c r="Q130" t="inlineStr"/>
-      <c r="R130" t="inlineStr"/>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>KIRCHNER ABBI H.</t>
+        </is>
+      </c>
+      <c r="M130" t="inlineStr">
+        <is>
+          <t>Atty for Personal Representatv</t>
+        </is>
+      </c>
+      <c r="N130" t="inlineStr">
+        <is>
+          <t>7701 FORSYTHE BLVD</t>
+        </is>
+      </c>
+      <c r="O130" t="inlineStr">
+        <is>
+          <t>SUITE 500</t>
+        </is>
+      </c>
+      <c r="P130" t="inlineStr">
+        <is>
+          <t>ST LOUIS,</t>
+        </is>
+      </c>
+      <c r="Q130" t="inlineStr">
+        <is>
+          <t>MO</t>
+        </is>
+      </c>
+      <c r="R130" t="inlineStr">
+        <is>
+          <t>63105</t>
+        </is>
+      </c>
       <c r="S130" t="inlineStr"/>
       <c r="T130" t="inlineStr">
         <is>
@@ -12788,28 +12756,28 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>HENDERSON</t>
+          <t>FREEMAN</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>BARBARA P.</t>
+          <t>SUE SCOTT</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Designated Resident Agent</t>
+          <t>Decedent</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>13038 OLD FARM DRIVE</t>
+          <t>9916 REAVIS ROAD</t>
         </is>
       </c>
       <c r="E131" t="inlineStr"/>
       <c r="F131" t="inlineStr">
         <is>
-          <t>ST. LOUIS,</t>
+          <t>SAINT LOUIS,</t>
         </is>
       </c>
       <c r="G131" t="inlineStr">
@@ -12819,34 +12787,38 @@
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>63146</t>
+          <t>63123</t>
         </is>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr">
         <is>
-          <t>1954</t>
-        </is>
-      </c>
-      <c r="K131" t="inlineStr"/>
+          <t>1929</t>
+        </is>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>10/01/2020</t>
+        </is>
+      </c>
       <c r="L131" t="inlineStr">
         <is>
-          <t>KIRCHNER ABBI H.</t>
+          <t>BREIG-WARREN ELIZABETH</t>
         </is>
       </c>
       <c r="M131" t="inlineStr">
         <is>
-          <t>Atty for Personal Representatv</t>
+          <t>Attorney for Other Party</t>
         </is>
       </c>
       <c r="N131" t="inlineStr">
         <is>
-          <t>7701 FORSYTHE BLVD</t>
+          <t>DILL, BAMVAKAIS AND OKEEFE PC</t>
         </is>
       </c>
       <c r="O131" t="inlineStr">
         <is>
-          <t>SUITE 500</t>
+          <t>9939 GRAVOIS ROAD</t>
         </is>
       </c>
       <c r="P131" t="inlineStr">
@@ -12861,10 +12833,14 @@
       </c>
       <c r="R131" t="inlineStr">
         <is>
-          <t>63105</t>
-        </is>
-      </c>
-      <c r="S131" t="inlineStr"/>
+          <t>63123</t>
+        </is>
+      </c>
+      <c r="S131" t="inlineStr">
+        <is>
+          <t>(314) 631-0200</t>
+        </is>
+      </c>
       <c r="T131" t="inlineStr">
         <is>
           <t>01/06/2021</t>
@@ -12873,17 +12849,17 @@
       <c r="U131" t="inlineStr"/>
       <c r="V131" t="inlineStr">
         <is>
-          <t>21SL-PR00045</t>
+          <t>21SL-PR00046</t>
         </is>
       </c>
       <c r="W131" t="inlineStr">
         <is>
-          <t>THOMAS H. TOOKE, DECEASED</t>
+          <t>SUE SCOTT FREEMAN, DECEASED</t>
         </is>
       </c>
       <c r="X131" t="inlineStr">
         <is>
-          <t>PR Independent with Will</t>
+          <t>PR Will Admitted or Rejected</t>
         </is>
       </c>
       <c r="Y131" t="inlineStr">
@@ -12896,12 +12872,12 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>FREEMAN</t>
+          <t>GIESSMAN</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>SUE SCOTT</t>
+          <t>ARTHUR C. II</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -12911,13 +12887,13 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>9916 REAVIS ROAD</t>
+          <t>12817 BRIGHTON WOODS DRIVE</t>
         </is>
       </c>
       <c r="E132" t="inlineStr"/>
       <c r="F132" t="inlineStr">
         <is>
-          <t>SAINT LOUIS,</t>
+          <t>ST. LOUIS,</t>
         </is>
       </c>
       <c r="G132" t="inlineStr">
@@ -12927,60 +12903,28 @@
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>63123</t>
+          <t>63131</t>
         </is>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr">
         <is>
-          <t>1929</t>
+          <t>1949</t>
         </is>
       </c>
       <c r="K132" t="inlineStr">
         <is>
-          <t>10/01/2020</t>
-        </is>
-      </c>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>BREIG-WARREN ELIZABETH</t>
-        </is>
-      </c>
-      <c r="M132" t="inlineStr">
-        <is>
-          <t>Attorney for Other Party</t>
-        </is>
-      </c>
-      <c r="N132" t="inlineStr">
-        <is>
-          <t>DILL, BAMVAKAIS AND OKEEFE PC</t>
-        </is>
-      </c>
-      <c r="O132" t="inlineStr">
-        <is>
-          <t>9939 GRAVOIS ROAD</t>
-        </is>
-      </c>
-      <c r="P132" t="inlineStr">
-        <is>
-          <t>ST LOUIS,</t>
-        </is>
-      </c>
-      <c r="Q132" t="inlineStr">
-        <is>
-          <t>MO</t>
-        </is>
-      </c>
-      <c r="R132" t="inlineStr">
-        <is>
-          <t>63123</t>
-        </is>
-      </c>
-      <c r="S132" t="inlineStr">
-        <is>
-          <t>(314) 631-0200</t>
-        </is>
-      </c>
+          <t>03/29/2020</t>
+        </is>
+      </c>
+      <c r="L132" t="inlineStr"/>
+      <c r="M132" t="inlineStr"/>
+      <c r="N132" t="inlineStr"/>
+      <c r="O132" t="inlineStr"/>
+      <c r="P132" t="inlineStr"/>
+      <c r="Q132" t="inlineStr"/>
+      <c r="R132" t="inlineStr"/>
+      <c r="S132" t="inlineStr"/>
       <c r="T132" t="inlineStr">
         <is>
           <t>01/06/2021</t>
@@ -12989,17 +12933,17 @@
       <c r="U132" t="inlineStr"/>
       <c r="V132" t="inlineStr">
         <is>
-          <t>21SL-PR00046</t>
+          <t>21SL-PR00047</t>
         </is>
       </c>
       <c r="W132" t="inlineStr">
         <is>
-          <t>SUE SCOTT FREEMAN, DECEASED</t>
+          <t>ARTHUR C. GIESSMAN,DECEASED</t>
         </is>
       </c>
       <c r="X132" t="inlineStr">
         <is>
-          <t>PR Will Admitted or Rejected</t>
+          <t>PR Small Est Affidavit w/Will</t>
         </is>
       </c>
       <c r="Y132" t="inlineStr">
@@ -13017,12 +12961,12 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>ARTHUR C. II</t>
+          <t>JAN M.</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Decedent</t>
+          <t>Affiant</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
@@ -13049,14 +12993,10 @@
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr">
         <is>
-          <t>1949</t>
-        </is>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>03/29/2020</t>
-        </is>
-      </c>
+          <t>1953</t>
+        </is>
+      </c>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="inlineStr">
         <is>
           <t>YEAGLIN TIMOTHY D</t>
@@ -13128,28 +13068,28 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>GIESSMAN</t>
+          <t>LIKELY</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>JAN M.</t>
+          <t>DOROTHY H.</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Affiant</t>
+          <t>Decedent</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>12817 BRIGHTON WOODS DRIVE</t>
+          <t>1024 WOODBINE DRIVE</t>
         </is>
       </c>
       <c r="E134" t="inlineStr"/>
       <c r="F134" t="inlineStr">
         <is>
-          <t>ST. LOUIS,</t>
+          <t>SAINT LOUIS,</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
@@ -13159,56 +13099,28 @@
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>63131</t>
+          <t>63126</t>
         </is>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr">
         <is>
-          <t>1953</t>
-        </is>
-      </c>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>YEAGLIN TIMOTHY D</t>
-        </is>
-      </c>
-      <c r="M134" t="inlineStr">
-        <is>
-          <t>Attorney for Affiant</t>
-        </is>
-      </c>
-      <c r="N134" t="inlineStr">
-        <is>
-          <t>600 WASHINGTON AVENUE</t>
-        </is>
-      </c>
-      <c r="O134" t="inlineStr">
-        <is>
-          <t>SUITE 2500</t>
-        </is>
-      </c>
-      <c r="P134" t="inlineStr">
-        <is>
-          <t>SAINT LOUIS,</t>
-        </is>
-      </c>
-      <c r="Q134" t="inlineStr">
-        <is>
-          <t>MO</t>
-        </is>
-      </c>
-      <c r="R134" t="inlineStr">
-        <is>
-          <t>63101</t>
-        </is>
-      </c>
-      <c r="S134" t="inlineStr">
-        <is>
-          <t>(314) 444-7600</t>
-        </is>
-      </c>
+          <t>1925</t>
+        </is>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>11/16/2020</t>
+        </is>
+      </c>
+      <c r="L134" t="inlineStr"/>
+      <c r="M134" t="inlineStr"/>
+      <c r="N134" t="inlineStr"/>
+      <c r="O134" t="inlineStr"/>
+      <c r="P134" t="inlineStr"/>
+      <c r="Q134" t="inlineStr"/>
+      <c r="R134" t="inlineStr"/>
+      <c r="S134" t="inlineStr"/>
       <c r="T134" t="inlineStr">
         <is>
           <t>01/06/2021</t>
@@ -13217,17 +13129,17 @@
       <c r="U134" t="inlineStr"/>
       <c r="V134" t="inlineStr">
         <is>
-          <t>21SL-PR00047</t>
+          <t>21SL-PR00048</t>
         </is>
       </c>
       <c r="W134" t="inlineStr">
         <is>
-          <t>ARTHUR C. GIESSMAN,DECEASED</t>
+          <t>DOROTHY H. LIKELY, DECEASED</t>
         </is>
       </c>
       <c r="X134" t="inlineStr">
         <is>
-          <t>PR Small Est Affidavit w/Will</t>
+          <t>PR Independent with Will</t>
         </is>
       </c>
       <c r="Y134" t="inlineStr">
@@ -13245,12 +13157,12 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>DOROTHY H.</t>
+          <t>DIANA L.</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Decedent</t>
+          <t>Co-Personal Representative</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
@@ -13261,7 +13173,7 @@
       <c r="E135" t="inlineStr"/>
       <c r="F135" t="inlineStr">
         <is>
-          <t>SAINT LOUIS,</t>
+          <t>ST. LOUIS,</t>
         </is>
       </c>
       <c r="G135" t="inlineStr">
@@ -13277,22 +13189,50 @@
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr">
         <is>
-          <t>1925</t>
-        </is>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>11/16/2020</t>
-        </is>
-      </c>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="inlineStr"/>
-      <c r="N135" t="inlineStr"/>
-      <c r="O135" t="inlineStr"/>
-      <c r="P135" t="inlineStr"/>
-      <c r="Q135" t="inlineStr"/>
-      <c r="R135" t="inlineStr"/>
-      <c r="S135" t="inlineStr"/>
+          <t>1946</t>
+        </is>
+      </c>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>FERNANDEZ M. BRIGID</t>
+        </is>
+      </c>
+      <c r="M135" t="inlineStr">
+        <is>
+          <t>Atty for Personal Representatv</t>
+        </is>
+      </c>
+      <c r="N135" t="inlineStr">
+        <is>
+          <t>13205 MANCHESTER RD</t>
+        </is>
+      </c>
+      <c r="O135" t="inlineStr">
+        <is>
+          <t>SUITE 210</t>
+        </is>
+      </c>
+      <c r="P135" t="inlineStr">
+        <is>
+          <t>ST LOUIS,</t>
+        </is>
+      </c>
+      <c r="Q135" t="inlineStr">
+        <is>
+          <t>MO</t>
+        </is>
+      </c>
+      <c r="R135" t="inlineStr">
+        <is>
+          <t>63131</t>
+        </is>
+      </c>
+      <c r="S135" t="inlineStr">
+        <is>
+          <t>(314) 328-0700</t>
+        </is>
+      </c>
       <c r="T135" t="inlineStr">
         <is>
           <t>01/06/2021</t>
@@ -13329,7 +13269,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>DIANA L.</t>
+          <t>DAVID B.</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -13339,13 +13279,13 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>1024 WOODBINE DRIVE</t>
+          <t>112 BOULDER DRIVE</t>
         </is>
       </c>
       <c r="E136" t="inlineStr"/>
       <c r="F136" t="inlineStr">
         <is>
-          <t>ST. LOUIS,</t>
+          <t>IRONTON,</t>
         </is>
       </c>
       <c r="G136" t="inlineStr">
@@ -13355,13 +13295,13 @@
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>63126</t>
+          <t>63650</t>
         </is>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr">
         <is>
-          <t>1946</t>
+          <t>1949</t>
         </is>
       </c>
       <c r="K136" t="inlineStr"/>
@@ -13436,38 +13376,38 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>LIKELY</t>
+          <t>RAY</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>DAVID B.</t>
+          <t>JOAN M</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Co-Personal Representative</t>
+          <t>Heir</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>112 BOULDER DRIVE</t>
+          <t>110 DEER RUN STRUT</t>
         </is>
       </c>
       <c r="E137" t="inlineStr"/>
       <c r="F137" t="inlineStr">
         <is>
-          <t>IRONTON,</t>
+          <t>ENTERPRISE,</t>
         </is>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>MO</t>
+          <t>AL</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>63650</t>
+          <t>36330</t>
         </is>
       </c>
       <c r="I137" t="inlineStr"/>
@@ -13477,46 +13417,14 @@
         </is>
       </c>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>FERNANDEZ M. BRIGID</t>
-        </is>
-      </c>
-      <c r="M137" t="inlineStr">
-        <is>
-          <t>Atty for Personal Representatv</t>
-        </is>
-      </c>
-      <c r="N137" t="inlineStr">
-        <is>
-          <t>13205 MANCHESTER RD</t>
-        </is>
-      </c>
-      <c r="O137" t="inlineStr">
-        <is>
-          <t>SUITE 210</t>
-        </is>
-      </c>
-      <c r="P137" t="inlineStr">
-        <is>
-          <t>ST LOUIS,</t>
-        </is>
-      </c>
-      <c r="Q137" t="inlineStr">
-        <is>
-          <t>MO</t>
-        </is>
-      </c>
-      <c r="R137" t="inlineStr">
-        <is>
-          <t>63131</t>
-        </is>
-      </c>
-      <c r="S137" t="inlineStr">
-        <is>
-          <t>(314) 328-0700</t>
-        </is>
-      </c>
+      <c r="L137" t="inlineStr"/>
+      <c r="M137" t="inlineStr"/>
+      <c r="N137" t="inlineStr"/>
+      <c r="O137" t="inlineStr"/>
+      <c r="P137" t="inlineStr"/>
+      <c r="Q137" t="inlineStr"/>
+      <c r="R137" t="inlineStr"/>
+      <c r="S137" t="inlineStr"/>
       <c r="T137" t="inlineStr">
         <is>
           <t>01/06/2021</t>
@@ -13548,12 +13456,12 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>RAY</t>
+          <t>SWANK</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>JOAN M</t>
+          <t>LESLIE E</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -13563,31 +13471,27 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>110 DEER RUN STRUT</t>
+          <t>2155 BANDTAIL COURT</t>
         </is>
       </c>
       <c r="E138" t="inlineStr"/>
       <c r="F138" t="inlineStr">
         <is>
-          <t>ENTERPRISE,</t>
+          <t>CEDAR CITY,</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>AL</t>
+          <t>UT</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>36330</t>
+          <t>84721</t>
         </is>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr">
-        <is>
-          <t>1949</t>
-        </is>
-      </c>
+      <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
       <c r="L138" t="inlineStr"/>
       <c r="M138" t="inlineStr"/>
@@ -13628,42 +13532,46 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>SWANK</t>
+          <t>BRYNDA</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>LESLIE E</t>
+          <t>WILLIAM F.</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Heir</t>
+          <t>Decedent</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>2155 BANDTAIL COURT</t>
+          <t>6735 ROUGEMOUNT BRANCH DRIVE</t>
         </is>
       </c>
       <c r="E139" t="inlineStr"/>
       <c r="F139" t="inlineStr">
         <is>
-          <t>CEDAR CITY,</t>
+          <t>ST LOUIS,</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>UT</t>
+          <t>MO</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>84721</t>
+          <t>63129</t>
         </is>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
+      <c r="J139" t="inlineStr">
+        <is>
+          <t>1931</t>
+        </is>
+      </c>
       <c r="K139" t="inlineStr"/>
       <c r="L139" t="inlineStr"/>
       <c r="M139" t="inlineStr"/>
@@ -13681,17 +13589,17 @@
       <c r="U139" t="inlineStr"/>
       <c r="V139" t="inlineStr">
         <is>
-          <t>21SL-PR00048</t>
+          <t>21SL-PR00049</t>
         </is>
       </c>
       <c r="W139" t="inlineStr">
         <is>
-          <t>DOROTHY H. LIKELY, DECEASED</t>
+          <t>WILLIAM F. BRYNDA, DECEASED</t>
         </is>
       </c>
       <c r="X139" t="inlineStr">
         <is>
-          <t>PR Independent with Will</t>
+          <t>PR Will Admitted or Rejected</t>
         </is>
       </c>
       <c r="Y139" t="inlineStr">
@@ -13709,17 +13617,17 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>WILLIAM F</t>
+          <t>WILLIAM G.</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>Decedent</t>
+          <t>Petitioner</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>6735 ROUGEMOUNT BRANCH DRIVE</t>
+          <t>2735 TOWNE OAKS DRIVE</t>
         </is>
       </c>
       <c r="E140" t="inlineStr"/>
@@ -13741,7 +13649,7 @@
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr">
         <is>
-          <t>1931</t>
+          <t>1952</t>
         </is>
       </c>
       <c r="K140" t="inlineStr"/>
@@ -13752,7 +13660,7 @@
       </c>
       <c r="M140" t="inlineStr">
         <is>
-          <t>Attorney for Applicant</t>
+          <t>Attorney for Petitioner</t>
         </is>
       </c>
       <c r="N140" t="inlineStr">
@@ -13794,7 +13702,7 @@
       </c>
       <c r="W140" t="inlineStr">
         <is>
-          <t>WILLIAM BRYNDA, DECEASED</t>
+          <t>WILLIAM F. BRYNDA, DECEASED</t>
         </is>
       </c>
       <c r="X140" t="inlineStr">
@@ -13812,28 +13720,28 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>BRYNDA</t>
+          <t>LIPSITZ</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>WILLIAM G</t>
+          <t>MARTIN M</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Applicant</t>
+          <t>Attorney and Personal Rep</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>2735 TOWNE OAKS DRIVE</t>
+          <t>906 OLIVE STREET, SUITE 400</t>
         </is>
       </c>
       <c r="E141" t="inlineStr"/>
       <c r="F141" t="inlineStr">
         <is>
-          <t>ST LOUIS,</t>
+          <t>ST. LOUIS,</t>
         </is>
       </c>
       <c r="G141" t="inlineStr">
@@ -13843,52 +13751,24 @@
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>63129</t>
+          <t>63101</t>
         </is>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr">
         <is>
-          <t>1952</t>
+          <t>1934</t>
         </is>
       </c>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>CHAMBERLIN CAROLINE POLSTER</t>
-        </is>
-      </c>
-      <c r="M141" t="inlineStr">
-        <is>
-          <t>Attorney for Applicant</t>
-        </is>
-      </c>
-      <c r="N141" t="inlineStr">
-        <is>
-          <t>108 WEST ADAMS</t>
-        </is>
-      </c>
+      <c r="L141" t="inlineStr"/>
+      <c r="M141" t="inlineStr"/>
+      <c r="N141" t="inlineStr"/>
       <c r="O141" t="inlineStr"/>
-      <c r="P141" t="inlineStr">
-        <is>
-          <t>KIRKWOOD,</t>
-        </is>
-      </c>
-      <c r="Q141" t="inlineStr">
-        <is>
-          <t>MO</t>
-        </is>
-      </c>
-      <c r="R141" t="inlineStr">
-        <is>
-          <t>63122</t>
-        </is>
-      </c>
-      <c r="S141" t="inlineStr">
-        <is>
-          <t>(314) 698-2499</t>
-        </is>
-      </c>
+      <c r="P141" t="inlineStr"/>
+      <c r="Q141" t="inlineStr"/>
+      <c r="R141" t="inlineStr"/>
+      <c r="S141" t="inlineStr"/>
       <c r="T141" t="inlineStr">
         <is>
           <t>01/06/2021</t>
@@ -13897,17 +13777,17 @@
       <c r="U141" t="inlineStr"/>
       <c r="V141" t="inlineStr">
         <is>
-          <t>21SL-PR00049</t>
+          <t>21SL-PR00050</t>
         </is>
       </c>
       <c r="W141" t="inlineStr">
         <is>
-          <t>WILLIAM BRYNDA, DECEASED</t>
+          <t>JULIE BROMEIER, DECEASED (ADV)</t>
         </is>
       </c>
       <c r="X141" t="inlineStr">
         <is>
-          <t>PR Will Admitted or Rejected</t>
+          <t>PR Miscellaneous Probate-Other</t>
         </is>
       </c>
       <c r="Y141" t="inlineStr">
@@ -13920,28 +13800,28 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>LIPSITZ</t>
+          <t>BROMEIER</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>MARTIN M</t>
+          <t>JULIE</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Attorney and Personal Rep</t>
+          <t>Decedent</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>906 OLIVE STREET, SUITE 400</t>
+          <t>4409 THICKET DRIVE</t>
         </is>
       </c>
       <c r="E142" t="inlineStr"/>
       <c r="F142" t="inlineStr">
         <is>
-          <t>SAINT LOUIS,</t>
+          <t>ST. LOUIS,</t>
         </is>
       </c>
       <c r="G142" t="inlineStr">
@@ -13951,23 +13831,51 @@
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>63101</t>
+          <t>63129</t>
         </is>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr">
         <is>
-          <t>1934</t>
-        </is>
-      </c>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="inlineStr"/>
-      <c r="N142" t="inlineStr"/>
+          <t>1928</t>
+        </is>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>08/05/2019</t>
+        </is>
+      </c>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>LIPSITZ MARTIN M</t>
+        </is>
+      </c>
+      <c r="M142" t="inlineStr">
+        <is>
+          <t>Attorney and Personal Rep</t>
+        </is>
+      </c>
+      <c r="N142" t="inlineStr">
+        <is>
+          <t>906 OLIVE STREET, SUITE 400</t>
+        </is>
+      </c>
       <c r="O142" t="inlineStr"/>
-      <c r="P142" t="inlineStr"/>
-      <c r="Q142" t="inlineStr"/>
-      <c r="R142" t="inlineStr"/>
+      <c r="P142" t="inlineStr">
+        <is>
+          <t>ST. LOUIS,</t>
+        </is>
+      </c>
+      <c r="Q142" t="inlineStr">
+        <is>
+          <t>MO</t>
+        </is>
+      </c>
+      <c r="R142" t="inlineStr">
+        <is>
+          <t>63101</t>
+        </is>
+      </c>
       <c r="S142" t="inlineStr"/>
       <c r="T142" t="inlineStr">
         <is>
@@ -14005,17 +13913,17 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>JULIE</t>
+          <t>JAMES</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Decedent</t>
+          <t>Respondent</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>4409 THICKET DRIVE</t>
+          <t>509 LITTLE BROADWAY STREET</t>
         </is>
       </c>
       <c r="E143" t="inlineStr"/>
@@ -14031,51 +13939,19 @@
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>63129</t>
+          <t>63125</t>
         </is>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr">
-        <is>
-          <t>1928</t>
-        </is>
-      </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>08/05/2019</t>
-        </is>
-      </c>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>LIPSITZ MARTIN M</t>
-        </is>
-      </c>
-      <c r="M143" t="inlineStr">
-        <is>
-          <t>Attorney and Personal Rep</t>
-        </is>
-      </c>
-      <c r="N143" t="inlineStr">
-        <is>
-          <t>906 OLIVE STREET, SUITE 400</t>
-        </is>
-      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr"/>
+      <c r="M143" t="inlineStr"/>
+      <c r="N143" t="inlineStr"/>
       <c r="O143" t="inlineStr"/>
-      <c r="P143" t="inlineStr">
-        <is>
-          <t>SAINT LOUIS,</t>
-        </is>
-      </c>
-      <c r="Q143" t="inlineStr">
-        <is>
-          <t>MO</t>
-        </is>
-      </c>
-      <c r="R143" t="inlineStr">
-        <is>
-          <t>63101</t>
-        </is>
-      </c>
+      <c r="P143" t="inlineStr"/>
+      <c r="Q143" t="inlineStr"/>
+      <c r="R143" t="inlineStr"/>
       <c r="S143" t="inlineStr"/>
       <c r="T143" t="inlineStr">
         <is>
@@ -14113,7 +13989,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>JAMES</t>
+          <t>KENNETH</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -14123,7 +13999,7 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>509 LITTLE BROADWAY STREET</t>
+          <t>4409 THICKET DRIVE</t>
         </is>
       </c>
       <c r="E144" t="inlineStr"/>
@@ -14139,7 +14015,7 @@
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>63125</t>
+          <t>63129</t>
         </is>
       </c>
       <c r="I144" t="inlineStr"/>
@@ -14184,28 +14060,28 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>BROMEIER</t>
+          <t>COCHRAN</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>KENNETH</t>
+          <t>SCOTT</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Respondent</t>
+          <t>Petitioner</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>4409 THICKET DRIVE</t>
+          <t>1009 SAVONNE COURT</t>
         </is>
       </c>
       <c r="E145" t="inlineStr"/>
       <c r="F145" t="inlineStr">
         <is>
-          <t>ST. LOUIS,</t>
+          <t>CHESTERFIELD,</t>
         </is>
       </c>
       <c r="G145" t="inlineStr">
@@ -14215,19 +14091,51 @@
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>63129</t>
+          <t>63005</t>
         </is>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
+      <c r="J145" t="inlineStr">
+        <is>
+          <t>1972</t>
+        </is>
+      </c>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="inlineStr"/>
-      <c r="N145" t="inlineStr"/>
-      <c r="O145" t="inlineStr"/>
-      <c r="P145" t="inlineStr"/>
-      <c r="Q145" t="inlineStr"/>
-      <c r="R145" t="inlineStr"/>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>SHAUL KATHLEEN E.</t>
+        </is>
+      </c>
+      <c r="M145" t="inlineStr">
+        <is>
+          <t>Attorney for Petitioner</t>
+        </is>
+      </c>
+      <c r="N145" t="inlineStr">
+        <is>
+          <t>7710 CARONDELET</t>
+        </is>
+      </c>
+      <c r="O145" t="inlineStr">
+        <is>
+          <t>SUITE 401</t>
+        </is>
+      </c>
+      <c r="P145" t="inlineStr">
+        <is>
+          <t>SAINT LOUIS,</t>
+        </is>
+      </c>
+      <c r="Q145" t="inlineStr">
+        <is>
+          <t>MO</t>
+        </is>
+      </c>
+      <c r="R145" t="inlineStr">
+        <is>
+          <t>63105</t>
+        </is>
+      </c>
       <c r="S145" t="inlineStr"/>
       <c r="T145" t="inlineStr">
         <is>
@@ -14237,17 +14145,17 @@
       <c r="U145" t="inlineStr"/>
       <c r="V145" t="inlineStr">
         <is>
-          <t>21SL-PR00050</t>
+          <t>21SL-PR00052</t>
         </is>
       </c>
       <c r="W145" t="inlineStr">
         <is>
-          <t>JULIE BROMEIER, DECEASED (ADV)</t>
+          <t>GRACE COCHRAN, RESPONDENT</t>
         </is>
       </c>
       <c r="X145" t="inlineStr">
         <is>
-          <t>PR Miscellaneous Probate-Other</t>
+          <t>PR Guardianship - Adult</t>
         </is>
       </c>
       <c r="Y145" t="inlineStr">
@@ -14265,7 +14173,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>SCOTT</t>
+          <t>JENNIFER</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -14373,12 +14281,12 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>JENNIFER</t>
+          <t>GRACE</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Petitioner</t>
+          <t>Respondent</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
@@ -14405,45 +14313,17 @@
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr">
         <is>
-          <t>1972</t>
+          <t>2003</t>
         </is>
       </c>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>SHAUL KATHLEEN E.</t>
-        </is>
-      </c>
-      <c r="M147" t="inlineStr">
-        <is>
-          <t>Attorney for Petitioner</t>
-        </is>
-      </c>
-      <c r="N147" t="inlineStr">
-        <is>
-          <t>7710 CARONDELET</t>
-        </is>
-      </c>
-      <c r="O147" t="inlineStr">
-        <is>
-          <t>SUITE 401</t>
-        </is>
-      </c>
-      <c r="P147" t="inlineStr">
-        <is>
-          <t>SAINT LOUIS,</t>
-        </is>
-      </c>
-      <c r="Q147" t="inlineStr">
-        <is>
-          <t>MO</t>
-        </is>
-      </c>
-      <c r="R147" t="inlineStr">
-        <is>
-          <t>63105</t>
-        </is>
-      </c>
+      <c r="L147" t="inlineStr"/>
+      <c r="M147" t="inlineStr"/>
+      <c r="N147" t="inlineStr"/>
+      <c r="O147" t="inlineStr"/>
+      <c r="P147" t="inlineStr"/>
+      <c r="Q147" t="inlineStr"/>
+      <c r="R147" t="inlineStr"/>
       <c r="S147" t="inlineStr"/>
       <c r="T147" t="inlineStr">
         <is>
@@ -14476,55 +14356,87 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>COCHRAN</t>
+          <t>KANESHIRO</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>GRACE</t>
+          <t>JANE COHEN</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>Respondent</t>
+          <t>Petitioner</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>1009 SAVONNE COURT</t>
+          <t>4143 NOHO ROAD</t>
         </is>
       </c>
       <c r="E148" t="inlineStr"/>
       <c r="F148" t="inlineStr">
         <is>
-          <t>CHESTERFIELD,</t>
+          <t>KOLOA,</t>
         </is>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>MO</t>
+          <t>HI</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>63005</t>
+          <t>96756-9629</t>
         </is>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr">
         <is>
-          <t>2003</t>
+          <t>1953</t>
         </is>
       </c>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="inlineStr"/>
-      <c r="N148" t="inlineStr"/>
-      <c r="O148" t="inlineStr"/>
-      <c r="P148" t="inlineStr"/>
-      <c r="Q148" t="inlineStr"/>
-      <c r="R148" t="inlineStr"/>
-      <c r="S148" t="inlineStr"/>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>YAWITZ RICHARD A.</t>
+        </is>
+      </c>
+      <c r="M148" t="inlineStr">
+        <is>
+          <t>Attorney for Petitioner</t>
+        </is>
+      </c>
+      <c r="N148" t="inlineStr">
+        <is>
+          <t>130 S. BEMISTON</t>
+        </is>
+      </c>
+      <c r="O148" t="inlineStr">
+        <is>
+          <t>STE. 200</t>
+        </is>
+      </c>
+      <c r="P148" t="inlineStr">
+        <is>
+          <t>SAINT LOUIS,</t>
+        </is>
+      </c>
+      <c r="Q148" t="inlineStr">
+        <is>
+          <t>MO</t>
+        </is>
+      </c>
+      <c r="R148" t="inlineStr">
+        <is>
+          <t>63105</t>
+        </is>
+      </c>
+      <c r="S148" t="inlineStr">
+        <is>
+          <t>(314) 725-8789</t>
+        </is>
+      </c>
       <c r="T148" t="inlineStr">
         <is>
           <t>01/06/2021</t>
@@ -14533,17 +14445,17 @@
       <c r="U148" t="inlineStr"/>
       <c r="V148" t="inlineStr">
         <is>
-          <t>21SL-PR00052</t>
+          <t>21SL-PR00053</t>
         </is>
       </c>
       <c r="W148" t="inlineStr">
         <is>
-          <t>GRACE COCHRAN, RESPONDENT</t>
+          <t>CHARLES D. COHEN, DECEASED</t>
         </is>
       </c>
       <c r="X148" t="inlineStr">
         <is>
-          <t>PR Guardianship - Adult</t>
+          <t>PR Will Admitted or Rejected</t>
         </is>
       </c>
       <c r="Y148" t="inlineStr">
@@ -14556,87 +14468,63 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>KANESHIRO</t>
+          <t>COHEN</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>JANE COHEN</t>
+          <t>CHARLES D.</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Petitioner</t>
+          <t>Decedent</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>4143 NOHO ROAD</t>
-        </is>
-      </c>
-      <c r="E149" t="inlineStr"/>
+          <t>200 S BRENTWOOD BLVD.</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>16D</t>
+        </is>
+      </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>KOLOA,</t>
+          <t>CLAYTON,</t>
         </is>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>HI</t>
+          <t>MO</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>96756-9629</t>
+          <t>63105</t>
         </is>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr">
         <is>
-          <t>1953</t>
-        </is>
-      </c>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>YAWITZ RICHARD A.</t>
-        </is>
-      </c>
-      <c r="M149" t="inlineStr">
-        <is>
-          <t>Attorney for Petitioner</t>
-        </is>
-      </c>
-      <c r="N149" t="inlineStr">
-        <is>
-          <t>130 S. BEMISTON</t>
-        </is>
-      </c>
-      <c r="O149" t="inlineStr">
-        <is>
-          <t>STE. 200</t>
-        </is>
-      </c>
-      <c r="P149" t="inlineStr">
-        <is>
-          <t>SAINT LOUIS,</t>
-        </is>
-      </c>
-      <c r="Q149" t="inlineStr">
-        <is>
-          <t>MO</t>
-        </is>
-      </c>
-      <c r="R149" t="inlineStr">
-        <is>
-          <t>63105</t>
-        </is>
-      </c>
-      <c r="S149" t="inlineStr">
-        <is>
-          <t>(314) 725-8789</t>
-        </is>
-      </c>
+          <t>1926</t>
+        </is>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>12/23/2020</t>
+        </is>
+      </c>
+      <c r="L149" t="inlineStr"/>
+      <c r="M149" t="inlineStr"/>
+      <c r="N149" t="inlineStr"/>
+      <c r="O149" t="inlineStr"/>
+      <c r="P149" t="inlineStr"/>
+      <c r="Q149" t="inlineStr"/>
+      <c r="R149" t="inlineStr"/>
+      <c r="S149" t="inlineStr"/>
       <c r="T149" t="inlineStr">
         <is>
           <t>01/06/2021</t>
@@ -14668,32 +14556,28 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>COHEN</t>
+          <t>PONDER</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>CHARLES D.</t>
+          <t>MATTHEW R.</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Decedent</t>
+          <t>Affiant</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>200 S BRENTWOOD BLVD.</t>
-        </is>
-      </c>
-      <c r="E150" t="inlineStr">
-        <is>
-          <t>16D</t>
-        </is>
-      </c>
+          <t>364 AMBER BLUFF</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr"/>
       <c r="F150" t="inlineStr">
         <is>
-          <t>CLAYTON,</t>
+          <t>IMPERIAL,</t>
         </is>
       </c>
       <c r="G150" t="inlineStr">
@@ -14703,28 +14587,56 @@
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>63105</t>
+          <t>63052</t>
         </is>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr">
         <is>
-          <t>1926</t>
-        </is>
-      </c>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>12/23/2020</t>
-        </is>
-      </c>
-      <c r="L150" t="inlineStr"/>
-      <c r="M150" t="inlineStr"/>
-      <c r="N150" t="inlineStr"/>
-      <c r="O150" t="inlineStr"/>
-      <c r="P150" t="inlineStr"/>
-      <c r="Q150" t="inlineStr"/>
-      <c r="R150" t="inlineStr"/>
-      <c r="S150" t="inlineStr"/>
+          <t>1981</t>
+        </is>
+      </c>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>TUCKER SHERILYN JO</t>
+        </is>
+      </c>
+      <c r="M150" t="inlineStr">
+        <is>
+          <t>Attorney for Affiant</t>
+        </is>
+      </c>
+      <c r="N150" t="inlineStr">
+        <is>
+          <t>400 CHESTERFIELD CENTER</t>
+        </is>
+      </c>
+      <c r="O150" t="inlineStr">
+        <is>
+          <t>SUITE 400</t>
+        </is>
+      </c>
+      <c r="P150" t="inlineStr">
+        <is>
+          <t>CHESTERFIELD,</t>
+        </is>
+      </c>
+      <c r="Q150" t="inlineStr">
+        <is>
+          <t>MO</t>
+        </is>
+      </c>
+      <c r="R150" t="inlineStr">
+        <is>
+          <t>63017</t>
+        </is>
+      </c>
+      <c r="S150" t="inlineStr">
+        <is>
+          <t>(314) 332-0011</t>
+        </is>
+      </c>
       <c r="T150" t="inlineStr">
         <is>
           <t>01/06/2021</t>
@@ -14733,17 +14645,17 @@
       <c r="U150" t="inlineStr"/>
       <c r="V150" t="inlineStr">
         <is>
-          <t>21SL-PR00053</t>
+          <t>21SL-PR00054</t>
         </is>
       </c>
       <c r="W150" t="inlineStr">
         <is>
-          <t>CHARLES D. COHEN, DECEASED</t>
+          <t>MAUREEN GAIL PONDER, DECEASED</t>
         </is>
       </c>
       <c r="X150" t="inlineStr">
         <is>
-          <t>PR Will Admitted or Rejected</t>
+          <t>PR Small Est Affidavit w/o Wil</t>
         </is>
       </c>
       <c r="Y150" t="inlineStr">
@@ -14756,70 +14668,58 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>PONDER</t>
+          <t>FROMENTON</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>MATTHEW R.</t>
+          <t>CLIVE M</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>Affiant</t>
-        </is>
-      </c>
-      <c r="D151" t="inlineStr">
-        <is>
-          <t>364 AMBER BLUFF</t>
-        </is>
-      </c>
+          <t>Decedent</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr"/>
       <c r="E151" t="inlineStr"/>
-      <c r="F151" t="inlineStr">
-        <is>
-          <t>IMPERIAL,</t>
-        </is>
-      </c>
-      <c r="G151" t="inlineStr">
-        <is>
-          <t>MO</t>
-        </is>
-      </c>
-      <c r="H151" t="inlineStr">
-        <is>
-          <t>63052</t>
-        </is>
-      </c>
+      <c r="F151" t="inlineStr"/>
+      <c r="G151" t="inlineStr"/>
+      <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr">
         <is>
-          <t>1981</t>
-        </is>
-      </c>
-      <c r="K151" t="inlineStr"/>
+          <t>1944</t>
+        </is>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>10/18/2020</t>
+        </is>
+      </c>
       <c r="L151" t="inlineStr">
         <is>
-          <t>TUCKER SHERILYN JO</t>
+          <t>FERNANDEZ M. BRIGID</t>
         </is>
       </c>
       <c r="M151" t="inlineStr">
         <is>
-          <t>Attorney for Affiant</t>
+          <t>Attorney for Petitioner</t>
         </is>
       </c>
       <c r="N151" t="inlineStr">
         <is>
-          <t>400 CHESTERFIELD CENTER</t>
+          <t>13205 MANCHESTER RD</t>
         </is>
       </c>
       <c r="O151" t="inlineStr">
         <is>
-          <t>SUITE 400</t>
+          <t>SUITE 210</t>
         </is>
       </c>
       <c r="P151" t="inlineStr">
         <is>
-          <t>CHESTERFIELD,</t>
+          <t>ST LOUIS,</t>
         </is>
       </c>
       <c r="Q151" t="inlineStr">
@@ -14829,12 +14729,12 @@
       </c>
       <c r="R151" t="inlineStr">
         <is>
-          <t>63017</t>
+          <t>63131</t>
         </is>
       </c>
       <c r="S151" t="inlineStr">
         <is>
-          <t>(314) 332-0011</t>
+          <t>(314) 328-0700</t>
         </is>
       </c>
       <c r="T151" t="inlineStr">
@@ -14845,17 +14745,17 @@
       <c r="U151" t="inlineStr"/>
       <c r="V151" t="inlineStr">
         <is>
-          <t>21SL-PR00054</t>
+          <t>21SL-PR00056</t>
         </is>
       </c>
       <c r="W151" t="inlineStr">
         <is>
-          <t>MAUREEN GAIL PONDER, DECEASED</t>
+          <t>CLIVE M. FROMENTON, DECEASED</t>
         </is>
       </c>
       <c r="X151" t="inlineStr">
         <is>
-          <t>PR Small Est Affidavit w/o Wil</t>
+          <t>PR Will Admitted or Rejected</t>
         </is>
       </c>
       <c r="Y151" t="inlineStr">
@@ -14873,30 +14773,42 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>CLIVE M</t>
+          <t>HOLLY</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Decedent</t>
-        </is>
-      </c>
-      <c r="D152" t="inlineStr"/>
+          <t>Petitioner</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>16427 PORT OF NANTUCKET DRIVE</t>
+        </is>
+      </c>
       <c r="E152" t="inlineStr"/>
-      <c r="F152" t="inlineStr"/>
-      <c r="G152" t="inlineStr"/>
-      <c r="H152" t="inlineStr"/>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>GROVER,</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>MO</t>
+        </is>
+      </c>
+      <c r="H152" t="inlineStr">
+        <is>
+          <t>63040</t>
+        </is>
+      </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr">
         <is>
-          <t>1944</t>
-        </is>
-      </c>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>10/18/2020</t>
-        </is>
-      </c>
+          <t>1973</t>
+        </is>
+      </c>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="inlineStr">
         <is>
           <t>FERNANDEZ M. BRIGID</t>
@@ -14973,12 +14885,12 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>HOLLY</t>
+          <t>KATHLEEN A</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>Petitioner</t>
+          <t>Heir</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
@@ -15003,52 +14915,16 @@
         </is>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr">
-        <is>
-          <t>1973</t>
-        </is>
-      </c>
+      <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>FERNANDEZ M. BRIGID</t>
-        </is>
-      </c>
-      <c r="M153" t="inlineStr">
-        <is>
-          <t>Attorney for Petitioner</t>
-        </is>
-      </c>
-      <c r="N153" t="inlineStr">
-        <is>
-          <t>13205 MANCHESTER RD</t>
-        </is>
-      </c>
-      <c r="O153" t="inlineStr">
-        <is>
-          <t>SUITE 210</t>
-        </is>
-      </c>
-      <c r="P153" t="inlineStr">
-        <is>
-          <t>ST LOUIS,</t>
-        </is>
-      </c>
-      <c r="Q153" t="inlineStr">
-        <is>
-          <t>MO</t>
-        </is>
-      </c>
-      <c r="R153" t="inlineStr">
-        <is>
-          <t>63131</t>
-        </is>
-      </c>
-      <c r="S153" t="inlineStr">
-        <is>
-          <t>(314) 328-0700</t>
-        </is>
-      </c>
+      <c r="L153" t="inlineStr"/>
+      <c r="M153" t="inlineStr"/>
+      <c r="N153" t="inlineStr"/>
+      <c r="O153" t="inlineStr"/>
+      <c r="P153" t="inlineStr"/>
+      <c r="Q153" t="inlineStr"/>
+      <c r="R153" t="inlineStr"/>
+      <c r="S153" t="inlineStr"/>
       <c r="T153" t="inlineStr">
         <is>
           <t>01/06/2021</t>
@@ -15080,28 +14956,28 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>FROMENTON</t>
+          <t>SMITH</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>KATHLEEN A</t>
+          <t>CAROL B</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Heir</t>
+          <t>Decedent</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>16427 PORT OF NANTUCKET DRIVE</t>
+          <t>7221 BERKRIDGE DRIVE</t>
         </is>
       </c>
       <c r="E154" t="inlineStr"/>
       <c r="F154" t="inlineStr">
         <is>
-          <t>GROVER,</t>
+          <t>ST LOUIS,</t>
         </is>
       </c>
       <c r="G154" t="inlineStr">
@@ -15111,19 +14987,51 @@
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>63040</t>
+          <t>63042</t>
         </is>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
+      <c r="J154" t="inlineStr">
+        <is>
+          <t>1953</t>
+        </is>
+      </c>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
-      <c r="M154" t="inlineStr"/>
-      <c r="N154" t="inlineStr"/>
-      <c r="O154" t="inlineStr"/>
-      <c r="P154" t="inlineStr"/>
-      <c r="Q154" t="inlineStr"/>
-      <c r="R154" t="inlineStr"/>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>COLE EILEEN</t>
+        </is>
+      </c>
+      <c r="M154" t="inlineStr">
+        <is>
+          <t>Attorney for Petitioner</t>
+        </is>
+      </c>
+      <c r="N154" t="inlineStr">
+        <is>
+          <t>8780 Big Bend Boulevard</t>
+        </is>
+      </c>
+      <c r="O154" t="inlineStr">
+        <is>
+          <t>SUITE G</t>
+        </is>
+      </c>
+      <c r="P154" t="inlineStr">
+        <is>
+          <t>ST LOUIS,</t>
+        </is>
+      </c>
+      <c r="Q154" t="inlineStr">
+        <is>
+          <t>MO</t>
+        </is>
+      </c>
+      <c r="R154" t="inlineStr">
+        <is>
+          <t>63119</t>
+        </is>
+      </c>
       <c r="S154" t="inlineStr"/>
       <c r="T154" t="inlineStr">
         <is>
@@ -15133,17 +15041,17 @@
       <c r="U154" t="inlineStr"/>
       <c r="V154" t="inlineStr">
         <is>
-          <t>21SL-PR00056</t>
+          <t>21SL-PR00057</t>
         </is>
       </c>
       <c r="W154" t="inlineStr">
         <is>
-          <t>CLIVE M. FROMENTON, DECEASED</t>
+          <t>CAROL B SMITH, DECEASED</t>
         </is>
       </c>
       <c r="X154" t="inlineStr">
         <is>
-          <t>PR Will Admitted or Rejected</t>
+          <t>PR Independent without Will</t>
         </is>
       </c>
       <c r="Y154" t="inlineStr">
@@ -15161,23 +15069,23 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>CAROL B</t>
+          <t>MICHAEL A</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>Decedent</t>
+          <t>Heir</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>7221 BERKRIDGE DRIVE</t>
+          <t>2804 BROWN RD</t>
         </is>
       </c>
       <c r="E155" t="inlineStr"/>
       <c r="F155" t="inlineStr">
         <is>
-          <t>ST LOUIS,</t>
+          <t>OVERLAND,</t>
         </is>
       </c>
       <c r="G155" t="inlineStr">
@@ -15187,51 +15095,23 @@
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>63042</t>
+          <t>63114</t>
         </is>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr">
         <is>
-          <t>1953</t>
+          <t>1956</t>
         </is>
       </c>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>COLE EILEEN</t>
-        </is>
-      </c>
-      <c r="M155" t="inlineStr">
-        <is>
-          <t>Attorney for Petitioner</t>
-        </is>
-      </c>
-      <c r="N155" t="inlineStr">
-        <is>
-          <t>8780 Big Bend Boulevard</t>
-        </is>
-      </c>
-      <c r="O155" t="inlineStr">
-        <is>
-          <t>SUITE G</t>
-        </is>
-      </c>
-      <c r="P155" t="inlineStr">
-        <is>
-          <t>ST LOUIS,</t>
-        </is>
-      </c>
-      <c r="Q155" t="inlineStr">
-        <is>
-          <t>MO</t>
-        </is>
-      </c>
-      <c r="R155" t="inlineStr">
-        <is>
-          <t>63119</t>
-        </is>
-      </c>
+      <c r="L155" t="inlineStr"/>
+      <c r="M155" t="inlineStr"/>
+      <c r="N155" t="inlineStr"/>
+      <c r="O155" t="inlineStr"/>
+      <c r="P155" t="inlineStr"/>
+      <c r="Q155" t="inlineStr"/>
+      <c r="R155" t="inlineStr"/>
       <c r="S155" t="inlineStr"/>
       <c r="T155" t="inlineStr">
         <is>
@@ -15269,7 +15149,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>MICHAEL A</t>
+          <t>BRENETTA A</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -15279,13 +15159,13 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>2804 BROWN RD</t>
+          <t>8606 MORNING AIR CIRCLE</t>
         </is>
       </c>
       <c r="E156" t="inlineStr"/>
       <c r="F156" t="inlineStr">
         <is>
-          <t>OVERLAND,</t>
+          <t>ST LOUIS,</t>
         </is>
       </c>
       <c r="G156" t="inlineStr">
@@ -15295,13 +15175,13 @@
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>63114</t>
+          <t>63042</t>
         </is>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr">
         <is>
-          <t>1956</t>
+          <t>1959</t>
         </is>
       </c>
       <c r="K156" t="inlineStr"/>
@@ -15349,23 +15229,23 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>BRENETTA A</t>
+          <t>SHARON</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>Heir</t>
+          <t>Petitioner</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>8606 MORNING AIR CIRCLE</t>
+          <t>2804 BROWN RD</t>
         </is>
       </c>
       <c r="E157" t="inlineStr"/>
       <c r="F157" t="inlineStr">
         <is>
-          <t>ST LOUIS,</t>
+          <t>SAINT LOUIS,</t>
         </is>
       </c>
       <c r="G157" t="inlineStr">
@@ -15375,7 +15255,7 @@
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>63042</t>
+          <t>63114</t>
         </is>
       </c>
       <c r="I157" t="inlineStr"/>
@@ -15385,13 +15265,41 @@
         </is>
       </c>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
-      <c r="M157" t="inlineStr"/>
-      <c r="N157" t="inlineStr"/>
-      <c r="O157" t="inlineStr"/>
-      <c r="P157" t="inlineStr"/>
-      <c r="Q157" t="inlineStr"/>
-      <c r="R157" t="inlineStr"/>
+      <c r="L157" t="inlineStr">
+        <is>
+          <t>COLE EILEEN</t>
+        </is>
+      </c>
+      <c r="M157" t="inlineStr">
+        <is>
+          <t>Attorney for Petitioner</t>
+        </is>
+      </c>
+      <c r="N157" t="inlineStr">
+        <is>
+          <t>8780 Big Bend Boulevard</t>
+        </is>
+      </c>
+      <c r="O157" t="inlineStr">
+        <is>
+          <t>SUITE G</t>
+        </is>
+      </c>
+      <c r="P157" t="inlineStr">
+        <is>
+          <t>ST LOUIS,</t>
+        </is>
+      </c>
+      <c r="Q157" t="inlineStr">
+        <is>
+          <t>MO</t>
+        </is>
+      </c>
+      <c r="R157" t="inlineStr">
+        <is>
+          <t>63119</t>
+        </is>
+      </c>
       <c r="S157" t="inlineStr"/>
       <c r="T157" t="inlineStr">
         <is>
@@ -15424,28 +15332,28 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>SMITH</t>
+          <t>WILEY</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>SHARON</t>
+          <t>LINDA ANNE</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Petitioner</t>
+          <t>Decedent</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>2804 BROWN RD</t>
+          <t>13754 LA CONTE CT.</t>
         </is>
       </c>
       <c r="E158" t="inlineStr"/>
       <c r="F158" t="inlineStr">
         <is>
-          <t>SAINT LOUIS,</t>
+          <t>ST. LOUIS,</t>
         </is>
       </c>
       <c r="G158" t="inlineStr">
@@ -15455,51 +15363,27 @@
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>63114</t>
+          <t>63128</t>
         </is>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr">
         <is>
-          <t>1959</t>
-        </is>
-      </c>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>COLE EILEEN</t>
-        </is>
-      </c>
-      <c r="M158" t="inlineStr">
-        <is>
-          <t>Attorney for Petitioner</t>
-        </is>
-      </c>
-      <c r="N158" t="inlineStr">
-        <is>
-          <t>8780 Big Bend Boulevard</t>
-        </is>
-      </c>
-      <c r="O158" t="inlineStr">
-        <is>
-          <t>SUITE G</t>
-        </is>
-      </c>
-      <c r="P158" t="inlineStr">
-        <is>
-          <t>ST LOUIS,</t>
-        </is>
-      </c>
-      <c r="Q158" t="inlineStr">
-        <is>
-          <t>MO</t>
-        </is>
-      </c>
-      <c r="R158" t="inlineStr">
-        <is>
-          <t>63119</t>
-        </is>
-      </c>
+          <t>1947</t>
+        </is>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>11/23/2020</t>
+        </is>
+      </c>
+      <c r="L158" t="inlineStr"/>
+      <c r="M158" t="inlineStr"/>
+      <c r="N158" t="inlineStr"/>
+      <c r="O158" t="inlineStr"/>
+      <c r="P158" t="inlineStr"/>
+      <c r="Q158" t="inlineStr"/>
+      <c r="R158" t="inlineStr"/>
       <c r="S158" t="inlineStr"/>
       <c r="T158" t="inlineStr">
         <is>
@@ -15509,12 +15393,12 @@
       <c r="U158" t="inlineStr"/>
       <c r="V158" t="inlineStr">
         <is>
-          <t>21SL-PR00057</t>
+          <t>21SL-PR00058</t>
         </is>
       </c>
       <c r="W158" t="inlineStr">
         <is>
-          <t>CAROL B SMITH, DECEASED</t>
+          <t>LINDA ANNE WILEY, DECEASED</t>
         </is>
       </c>
       <c r="X158" t="inlineStr">
@@ -15532,51 +15416,47 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>WILEY</t>
+          <t>ENGA</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>LINDA ANNE</t>
+          <t>JESSICA</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>Decedent</t>
+          <t>Indep. Personal Representative</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>13754 LA CONTE CT.</t>
+          <t>272 PYRITE TERRACE</t>
         </is>
       </c>
       <c r="E159" t="inlineStr"/>
       <c r="F159" t="inlineStr">
         <is>
-          <t>ST. LOUIS,</t>
+          <t>COLORADO SPRINGS,</t>
         </is>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>MO</t>
+          <t>CO</t>
         </is>
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>63128</t>
+          <t>80905</t>
         </is>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr">
         <is>
-          <t>1947</t>
-        </is>
-      </c>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>11/23/2020</t>
-        </is>
-      </c>
+          <t>1972</t>
+        </is>
+      </c>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="inlineStr">
         <is>
           <t>DISABATO TED DANIEL</t>
@@ -15584,7 +15464,7 @@
       </c>
       <c r="M159" t="inlineStr">
         <is>
-          <t>Attorney for Petitioner</t>
+          <t>Atty for Personal Representatv</t>
         </is>
       </c>
       <c r="N159" t="inlineStr">
@@ -15644,66 +15524,58 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>ENGA</t>
+          <t>MOORE</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>JESSICA</t>
+          <t>SHIRLEY</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>Petitioner</t>
-        </is>
-      </c>
-      <c r="D160" t="inlineStr">
-        <is>
-          <t>272 PYRITE TERRACE</t>
-        </is>
-      </c>
+          <t>Decedent</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr"/>
       <c r="E160" t="inlineStr"/>
-      <c r="F160" t="inlineStr">
-        <is>
-          <t>COLORADO SPRINGS,</t>
-        </is>
-      </c>
-      <c r="G160" t="inlineStr">
-        <is>
-          <t>CO</t>
-        </is>
-      </c>
-      <c r="H160" t="inlineStr">
-        <is>
-          <t>80905</t>
-        </is>
-      </c>
+      <c r="F160" t="inlineStr"/>
+      <c r="G160" t="inlineStr"/>
+      <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr">
         <is>
-          <t>1972</t>
-        </is>
-      </c>
-      <c r="K160" t="inlineStr"/>
+          <t>1938</t>
+        </is>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>10/06/2019</t>
+        </is>
+      </c>
       <c r="L160" t="inlineStr">
         <is>
-          <t>DISABATO TED DANIEL</t>
+          <t>BROWN MARTHA C</t>
         </is>
       </c>
       <c r="M160" t="inlineStr">
         <is>
-          <t>Attorney for Petitioner</t>
+          <t>Attorney for Affiant</t>
         </is>
       </c>
       <c r="N160" t="inlineStr">
         <is>
-          <t>4509 LEMAY FERRY ROAD</t>
-        </is>
-      </c>
-      <c r="O160" t="inlineStr"/>
+          <t>473 N. Kirkwood Road</t>
+        </is>
+      </c>
+      <c r="O160" t="inlineStr">
+        <is>
+          <t>2ND FLOOR</t>
+        </is>
+      </c>
       <c r="P160" t="inlineStr">
         <is>
-          <t>ST. LOUIS,</t>
+          <t>KIRKWOOD,</t>
         </is>
       </c>
       <c r="Q160" t="inlineStr">
@@ -15713,14 +15585,10 @@
       </c>
       <c r="R160" t="inlineStr">
         <is>
-          <t>63129</t>
-        </is>
-      </c>
-      <c r="S160" t="inlineStr">
-        <is>
-          <t>(314) 276-1318</t>
-        </is>
-      </c>
+          <t>63122</t>
+        </is>
+      </c>
+      <c r="S160" t="inlineStr"/>
       <c r="T160" t="inlineStr">
         <is>
           <t>01/06/2021</t>
@@ -15729,17 +15597,17 @@
       <c r="U160" t="inlineStr"/>
       <c r="V160" t="inlineStr">
         <is>
-          <t>21SL-PR00058</t>
+          <t>21SL-PR00059</t>
         </is>
       </c>
       <c r="W160" t="inlineStr">
         <is>
-          <t>LINDA ANNE WILEY, DECEASED</t>
+          <t>SHIRLEY MOORE, DECEASED</t>
         </is>
       </c>
       <c r="X160" t="inlineStr">
         <is>
-          <t>PR Independent without Will</t>
+          <t>PR Small Est Affidavit w/o Wil</t>
         </is>
       </c>
       <c r="Y160" t="inlineStr">
@@ -15757,30 +15625,42 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>SHIRLEY</t>
+          <t>QUINCY HUSTON</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>Decedent</t>
-        </is>
-      </c>
-      <c r="D161" t="inlineStr"/>
+          <t>Affiant</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>2542 RHAPSODY LANE</t>
+        </is>
+      </c>
       <c r="E161" t="inlineStr"/>
-      <c r="F161" t="inlineStr"/>
-      <c r="G161" t="inlineStr"/>
-      <c r="H161" t="inlineStr"/>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>FLORISSANT,</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>MO</t>
+        </is>
+      </c>
+      <c r="H161" t="inlineStr">
+        <is>
+          <t>63031</t>
+        </is>
+      </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr">
         <is>
-          <t>1938</t>
-        </is>
-      </c>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>10/06/2019</t>
-        </is>
-      </c>
+          <t>1932</t>
+        </is>
+      </c>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="inlineStr">
         <is>
           <t>BROWN MARTHA C</t>
@@ -15848,17 +15728,17 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>MOORE</t>
+          <t>COOPER</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>QUINCY HUSTON</t>
+          <t>TERRY</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>Affiant</t>
+          <t>Heir</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
@@ -15885,45 +15765,17 @@
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr">
         <is>
-          <t>1932</t>
+          <t>1963</t>
         </is>
       </c>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>BROWN MARTHA C</t>
-        </is>
-      </c>
-      <c r="M162" t="inlineStr">
-        <is>
-          <t>Attorney for Affiant</t>
-        </is>
-      </c>
-      <c r="N162" t="inlineStr">
-        <is>
-          <t>473 N. Kirkwood Road</t>
-        </is>
-      </c>
-      <c r="O162" t="inlineStr">
-        <is>
-          <t>2ND FLOOR</t>
-        </is>
-      </c>
-      <c r="P162" t="inlineStr">
-        <is>
-          <t>KIRKWOOD,</t>
-        </is>
-      </c>
-      <c r="Q162" t="inlineStr">
-        <is>
-          <t>MO</t>
-        </is>
-      </c>
-      <c r="R162" t="inlineStr">
-        <is>
-          <t>63122</t>
-        </is>
-      </c>
+      <c r="L162" t="inlineStr"/>
+      <c r="M162" t="inlineStr"/>
+      <c r="N162" t="inlineStr"/>
+      <c r="O162" t="inlineStr"/>
+      <c r="P162" t="inlineStr"/>
+      <c r="Q162" t="inlineStr"/>
+      <c r="R162" t="inlineStr"/>
       <c r="S162" t="inlineStr"/>
       <c r="T162" t="inlineStr">
         <is>
@@ -15956,12 +15808,12 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>COOPER</t>
+          <t>BRUCE</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>TERRY</t>
+          <t>TINA</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -15971,7 +15823,7 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>2542 RHAPSODY LANE</t>
+          <t>129 RHINECARTEN DRIVE</t>
         </is>
       </c>
       <c r="E163" t="inlineStr"/>
@@ -15993,7 +15845,7 @@
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr">
         <is>
-          <t>1963</t>
+          <t>1964</t>
         </is>
       </c>
       <c r="K163" t="inlineStr"/>
@@ -16036,28 +15888,28 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>BRUCE</t>
+          <t>SCHALLER</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>TINA</t>
+          <t>PATRICA ANN</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>Heir</t>
+          <t>Applicant</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>129 RHINECARTEN DRIVE</t>
+          <t>5792 KARAMER DRIVE</t>
         </is>
       </c>
       <c r="E164" t="inlineStr"/>
       <c r="F164" t="inlineStr">
         <is>
-          <t>FLORISSANT,</t>
+          <t>SAINT LOUIS,</t>
         </is>
       </c>
       <c r="G164" t="inlineStr">
@@ -16067,24 +15919,56 @@
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>63031</t>
+          <t>63128-4430</t>
         </is>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr">
         <is>
-          <t>1964</t>
+          <t>1950</t>
         </is>
       </c>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
-      <c r="M164" t="inlineStr"/>
-      <c r="N164" t="inlineStr"/>
-      <c r="O164" t="inlineStr"/>
-      <c r="P164" t="inlineStr"/>
-      <c r="Q164" t="inlineStr"/>
-      <c r="R164" t="inlineStr"/>
-      <c r="S164" t="inlineStr"/>
+      <c r="L164" t="inlineStr">
+        <is>
+          <t>KEYES RICHARD J</t>
+        </is>
+      </c>
+      <c r="M164" t="inlineStr">
+        <is>
+          <t>Attorney for Applicant</t>
+        </is>
+      </c>
+      <c r="N164" t="inlineStr">
+        <is>
+          <t>12300 OLD TESSON ROAD</t>
+        </is>
+      </c>
+      <c r="O164" t="inlineStr">
+        <is>
+          <t>SUITE 100-B</t>
+        </is>
+      </c>
+      <c r="P164" t="inlineStr">
+        <is>
+          <t>SAINT LOUIS,</t>
+        </is>
+      </c>
+      <c r="Q164" t="inlineStr">
+        <is>
+          <t>MO</t>
+        </is>
+      </c>
+      <c r="R164" t="inlineStr">
+        <is>
+          <t>63128</t>
+        </is>
+      </c>
+      <c r="S164" t="inlineStr">
+        <is>
+          <t>(314) 843-7633</t>
+        </is>
+      </c>
       <c r="T164" t="inlineStr">
         <is>
           <t>01/06/2021</t>
@@ -16093,17 +15977,17 @@
       <c r="U164" t="inlineStr"/>
       <c r="V164" t="inlineStr">
         <is>
-          <t>21SL-PR00059</t>
+          <t>21SL-PR00060</t>
         </is>
       </c>
       <c r="W164" t="inlineStr">
         <is>
-          <t>SHIRLEY MOORE, DECEASED</t>
+          <t>MARY MAYBERRY, DECEASED</t>
         </is>
       </c>
       <c r="X164" t="inlineStr">
         <is>
-          <t>PR Small Est Affidavit w/o Wil</t>
+          <t>PR Small Est Affidavit w/Will</t>
         </is>
       </c>
       <c r="Y164" t="inlineStr">
@@ -16121,17 +16005,17 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>PATRICA ANN</t>
+          <t>PATRICIA ANN</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>Applicant</t>
+          <t>Devisee</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>5792 KARAMER DRIVE</t>
+          <t>5792 KARAMAR DRIVE</t>
         </is>
       </c>
       <c r="E165" t="inlineStr"/>
@@ -16151,52 +16035,16 @@
         </is>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr">
-        <is>
-          <t>1950</t>
-        </is>
-      </c>
+      <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr">
-        <is>
-          <t>KEYES RICHARD J</t>
-        </is>
-      </c>
-      <c r="M165" t="inlineStr">
-        <is>
-          <t>Attorney for Applicant</t>
-        </is>
-      </c>
-      <c r="N165" t="inlineStr">
-        <is>
-          <t>12300 OLD TESSON ROAD</t>
-        </is>
-      </c>
-      <c r="O165" t="inlineStr">
-        <is>
-          <t>SUITE 100-B</t>
-        </is>
-      </c>
-      <c r="P165" t="inlineStr">
-        <is>
-          <t>SAINT LOUIS,</t>
-        </is>
-      </c>
-      <c r="Q165" t="inlineStr">
-        <is>
-          <t>MO</t>
-        </is>
-      </c>
-      <c r="R165" t="inlineStr">
-        <is>
-          <t>63128</t>
-        </is>
-      </c>
-      <c r="S165" t="inlineStr">
-        <is>
-          <t>(314) 843-7633</t>
-        </is>
-      </c>
+      <c r="L165" t="inlineStr"/>
+      <c r="M165" t="inlineStr"/>
+      <c r="N165" t="inlineStr"/>
+      <c r="O165" t="inlineStr"/>
+      <c r="P165" t="inlineStr"/>
+      <c r="Q165" t="inlineStr"/>
+      <c r="R165" t="inlineStr"/>
+      <c r="S165" t="inlineStr"/>
       <c r="T165" t="inlineStr">
         <is>
           <t>01/06/2021</t>
@@ -16228,12 +16076,12 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>SCHALLER</t>
+          <t>GRAH</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>PATRICIA ANN</t>
+          <t>JACQUELINE MARIE</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -16243,13 +16091,13 @@
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>5792 KARAMAR DRIVE</t>
+          <t>2132 MEADOW VALLEY DRIVE</t>
         </is>
       </c>
       <c r="E166" t="inlineStr"/>
       <c r="F166" t="inlineStr">
         <is>
-          <t>SAINT LOUIS,</t>
+          <t>INNSBROOK,</t>
         </is>
       </c>
       <c r="G166" t="inlineStr">
@@ -16259,7 +16107,7 @@
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>63128-4430</t>
+          <t>63390-6524</t>
         </is>
       </c>
       <c r="I166" t="inlineStr"/>
@@ -16304,28 +16152,32 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>GRAH</t>
+          <t>MAYBERRY</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>JACQUELINE MARIE</t>
+          <t>MARY MADELINE</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>Devisee</t>
+          <t>Decedent</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>2132 MEADOW VALLEY DRIVE</t>
-        </is>
-      </c>
-      <c r="E167" t="inlineStr"/>
+          <t>12335 WEST BEND</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>APARTMENT 136</t>
+        </is>
+      </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>INNSBROOK,</t>
+          <t>SAINT LOUIS,</t>
         </is>
       </c>
       <c r="G167" t="inlineStr">
@@ -16335,12 +16187,20 @@
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>63390-6524</t>
+          <t>63128</t>
         </is>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+      <c r="J167" t="inlineStr">
+        <is>
+          <t>1927</t>
+        </is>
+      </c>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>11/11/2020</t>
+        </is>
+      </c>
       <c r="L167" t="inlineStr"/>
       <c r="M167" t="inlineStr"/>
       <c r="N167" t="inlineStr"/>
@@ -16380,32 +16240,28 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>MAYBERRY</t>
+          <t>ANTONACCI</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>MARY MADELINE</t>
+          <t>GIANNI KESSLER</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>Decedent</t>
+          <t>Respondent</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>12335 WEST BEND</t>
-        </is>
-      </c>
-      <c r="E168" t="inlineStr">
-        <is>
-          <t>APARTMENT 136</t>
-        </is>
-      </c>
+          <t>5600 WICKERSHIRE LANE</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr"/>
       <c r="F168" t="inlineStr">
         <is>
-          <t>SAINT LOUIS,</t>
+          <t>ST. LOUIS,</t>
         </is>
       </c>
       <c r="G168" t="inlineStr">
@@ -16415,28 +16271,56 @@
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>63128</t>
+          <t>63129</t>
         </is>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr">
         <is>
-          <t>1927</t>
-        </is>
-      </c>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>11/11/2020</t>
-        </is>
-      </c>
-      <c r="L168" t="inlineStr"/>
-      <c r="M168" t="inlineStr"/>
-      <c r="N168" t="inlineStr"/>
-      <c r="O168" t="inlineStr"/>
-      <c r="P168" t="inlineStr"/>
-      <c r="Q168" t="inlineStr"/>
-      <c r="R168" t="inlineStr"/>
-      <c r="S168" t="inlineStr"/>
+          <t>2002</t>
+        </is>
+      </c>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="inlineStr">
+        <is>
+          <t>HUCK JAMES W.</t>
+        </is>
+      </c>
+      <c r="M168" t="inlineStr">
+        <is>
+          <t>Attorney for Respondent</t>
+        </is>
+      </c>
+      <c r="N168" t="inlineStr">
+        <is>
+          <t>11647 GRAVOIS ROAD</t>
+        </is>
+      </c>
+      <c r="O168" t="inlineStr">
+        <is>
+          <t>SUITE 100</t>
+        </is>
+      </c>
+      <c r="P168" t="inlineStr">
+        <is>
+          <t>SAINT LOUIS,</t>
+        </is>
+      </c>
+      <c r="Q168" t="inlineStr">
+        <is>
+          <t>MO</t>
+        </is>
+      </c>
+      <c r="R168" t="inlineStr">
+        <is>
+          <t>63126</t>
+        </is>
+      </c>
+      <c r="S168" t="inlineStr">
+        <is>
+          <t>(314) 842-7331</t>
+        </is>
+      </c>
       <c r="T168" t="inlineStr">
         <is>
           <t>01/06/2021</t>
@@ -16445,17 +16329,17 @@
       <c r="U168" t="inlineStr"/>
       <c r="V168" t="inlineStr">
         <is>
-          <t>21SL-PR00060</t>
+          <t>21SL-PR00061</t>
         </is>
       </c>
       <c r="W168" t="inlineStr">
         <is>
-          <t>MARY MAYBERRY, DECEASED</t>
+          <t>GIANNI KESSLER ANTONACCI, RESPONDENT</t>
         </is>
       </c>
       <c r="X168" t="inlineStr">
         <is>
-          <t>PR Small Est Affidavit w/Will</t>
+          <t>PR Guardian/Conserv - Adult</t>
         </is>
       </c>
       <c r="Y168" t="inlineStr">
@@ -16473,12 +16357,12 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>GIANNI KESSLER</t>
+          <t>LANCE ANTHONY</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>Respondent</t>
+          <t>Petitioner</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
@@ -16505,7 +16389,7 @@
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr">
         <is>
-          <t>2002</t>
+          <t>1971</t>
         </is>
       </c>
       <c r="K169" t="inlineStr"/>
@@ -16585,7 +16469,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>LANCE ANTHONY</t>
+          <t>SARA G.</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -16692,12 +16576,12 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>ANTONACCI</t>
+          <t>WHEELER-WILLIAMS</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>SARA G.</t>
+          <t>GAYLE</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -16707,13 +16591,13 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>5600 WICKERSHIRE LANE</t>
+          <t>7838 BLACKBERRY AVE</t>
         </is>
       </c>
       <c r="E171" t="inlineStr"/>
       <c r="F171" t="inlineStr">
         <is>
-          <t>ST. LOUIS,</t>
+          <t>UNIVERSITY CITY,</t>
         </is>
       </c>
       <c r="G171" t="inlineStr">
@@ -16723,19 +16607,19 @@
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>63129</t>
+          <t>63130</t>
         </is>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr">
         <is>
-          <t>1971</t>
+          <t>1957</t>
         </is>
       </c>
       <c r="K171" t="inlineStr"/>
       <c r="L171" t="inlineStr">
         <is>
-          <t>HUTKINS JOSHUA BRADLEY</t>
+          <t>HOLMES SYLVESTER DEVEREAUX</t>
         </is>
       </c>
       <c r="M171" t="inlineStr">
@@ -16745,34 +16629,26 @@
       </c>
       <c r="N171" t="inlineStr">
         <is>
-          <t>600 WASHINGTON AVENUE</t>
-        </is>
-      </c>
-      <c r="O171" t="inlineStr">
-        <is>
-          <t>15TH FLOOR</t>
-        </is>
-      </c>
+          <t>P O  BOX 736</t>
+        </is>
+      </c>
+      <c r="O171" t="inlineStr"/>
       <c r="P171" t="inlineStr">
         <is>
-          <t>SAINT LOUIS,</t>
+          <t>HOLLAND,</t>
         </is>
       </c>
       <c r="Q171" t="inlineStr">
         <is>
-          <t>MO</t>
+          <t>OH</t>
         </is>
       </c>
       <c r="R171" t="inlineStr">
         <is>
-          <t>63101</t>
-        </is>
-      </c>
-      <c r="S171" t="inlineStr">
-        <is>
-          <t>(314) 231-3332</t>
-        </is>
-      </c>
+          <t>43528</t>
+        </is>
+      </c>
+      <c r="S171" t="inlineStr"/>
       <c r="T171" t="inlineStr">
         <is>
           <t>01/06/2021</t>
@@ -16781,17 +16657,17 @@
       <c r="U171" t="inlineStr"/>
       <c r="V171" t="inlineStr">
         <is>
-          <t>21SL-PR00061</t>
+          <t>21SL-PR00065</t>
         </is>
       </c>
       <c r="W171" t="inlineStr">
         <is>
-          <t>GIANNI KESSLER ANTONACCI, RESPONDENT</t>
+          <t>CASE CREATED IN ERROR</t>
         </is>
       </c>
       <c r="X171" t="inlineStr">
         <is>
-          <t>PR Guardian/Conserv - Adult</t>
+          <t>PR Small Est Affidavit w/o Wil</t>
         </is>
       </c>
       <c r="Y171" t="inlineStr">
@@ -16804,28 +16680,28 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>WHEELER-WILLIAMS</t>
+          <t>JEFFRIE</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>GAYLE</t>
+          <t>MAXINE W.</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>Petitioner</t>
+          <t>Decedent</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>7838 BLACKBERRY AVE</t>
+          <t>410 E. SWON</t>
         </is>
       </c>
       <c r="E172" t="inlineStr"/>
       <c r="F172" t="inlineStr">
         <is>
-          <t>UNIVERSITY CITY,</t>
+          <t>ST. LOUIS,</t>
         </is>
       </c>
       <c r="G172" t="inlineStr">
@@ -16835,67 +16711,79 @@
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>63130</t>
+          <t>63119</t>
         </is>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr">
         <is>
-          <t>1957</t>
-        </is>
-      </c>
-      <c r="K172" t="inlineStr"/>
+          <t>1942</t>
+        </is>
+      </c>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>11/15/2020</t>
+        </is>
+      </c>
       <c r="L172" t="inlineStr">
         <is>
-          <t>HOLMES SYLVESTER DEVEREAUX</t>
+          <t>YEAGLIN TIMOTHY D</t>
         </is>
       </c>
       <c r="M172" t="inlineStr">
         <is>
-          <t>Attorney for Petitioner</t>
+          <t>Attorney for Affiant</t>
         </is>
       </c>
       <c r="N172" t="inlineStr">
         <is>
-          <t>P O  BOX 736</t>
-        </is>
-      </c>
-      <c r="O172" t="inlineStr"/>
+          <t>600 WASHINGTON AVENUE</t>
+        </is>
+      </c>
+      <c r="O172" t="inlineStr">
+        <is>
+          <t>SUITE 2500</t>
+        </is>
+      </c>
       <c r="P172" t="inlineStr">
         <is>
-          <t>HOLLAND,</t>
+          <t>SAINT LOUIS,</t>
         </is>
       </c>
       <c r="Q172" t="inlineStr">
         <is>
-          <t>OH</t>
+          <t>MO</t>
         </is>
       </c>
       <c r="R172" t="inlineStr">
         <is>
-          <t>43528</t>
-        </is>
-      </c>
-      <c r="S172" t="inlineStr"/>
+          <t>63101</t>
+        </is>
+      </c>
+      <c r="S172" t="inlineStr">
+        <is>
+          <t>(314) 444-7600</t>
+        </is>
+      </c>
       <c r="T172" t="inlineStr">
         <is>
-          <t>01/06/2021</t>
+          <t>01/07/2021</t>
         </is>
       </c>
       <c r="U172" t="inlineStr"/>
       <c r="V172" t="inlineStr">
         <is>
-          <t>21SL-PR00065</t>
+          <t>21SL-PR00062</t>
         </is>
       </c>
       <c r="W172" t="inlineStr">
         <is>
-          <t>BETTY M. WHEELER, DECEASED</t>
+          <t>MAXINE W. JEFFRIE, DECEASED</t>
         </is>
       </c>
       <c r="X172" t="inlineStr">
         <is>
-          <t>PR Small Est Affidavit w/o Wil</t>
+          <t>PR Small Est Affidavit w/Will</t>
         </is>
       </c>
       <c r="Y172" t="inlineStr">
@@ -16908,17 +16796,17 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>JEFFRIE</t>
+          <t>FLEMING</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>MAXINE W.</t>
+          <t>ANNE M.</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>Decedent</t>
+          <t>Affiant</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
@@ -16945,14 +16833,10 @@
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr">
         <is>
-          <t>1942</t>
-        </is>
-      </c>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>11/15/2020</t>
-        </is>
-      </c>
+          <t>1970</t>
+        </is>
+      </c>
+      <c r="K173" t="inlineStr"/>
       <c r="L173" t="inlineStr">
         <is>
           <t>YEAGLIN TIMOTHY D</t>
@@ -17024,28 +16908,28 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>FLEMING</t>
+          <t>DYE</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>ANNE M.</t>
+          <t>MALCOLM</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>Affiant</t>
+          <t>Decedent</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>410 E. SWON</t>
+          <t>331 RAND DRIVE</t>
         </is>
       </c>
       <c r="E174" t="inlineStr"/>
       <c r="F174" t="inlineStr">
         <is>
-          <t>ST. LOUIS,</t>
+          <t>FERGUSON,</t>
         </is>
       </c>
       <c r="G174" t="inlineStr">
@@ -17055,56 +16939,28 @@
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>63119</t>
+          <t>63135</t>
         </is>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr">
         <is>
-          <t>1970</t>
-        </is>
-      </c>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr">
-        <is>
-          <t>YEAGLIN TIMOTHY D</t>
-        </is>
-      </c>
-      <c r="M174" t="inlineStr">
-        <is>
-          <t>Attorney for Affiant</t>
-        </is>
-      </c>
-      <c r="N174" t="inlineStr">
-        <is>
-          <t>600 WASHINGTON AVENUE</t>
-        </is>
-      </c>
-      <c r="O174" t="inlineStr">
-        <is>
-          <t>SUITE 2500</t>
-        </is>
-      </c>
-      <c r="P174" t="inlineStr">
-        <is>
-          <t>SAINT LOUIS,</t>
-        </is>
-      </c>
-      <c r="Q174" t="inlineStr">
-        <is>
-          <t>MO</t>
-        </is>
-      </c>
-      <c r="R174" t="inlineStr">
-        <is>
-          <t>63101</t>
-        </is>
-      </c>
-      <c r="S174" t="inlineStr">
-        <is>
-          <t>(314) 444-7600</t>
-        </is>
-      </c>
+          <t>1933</t>
+        </is>
+      </c>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>01/02/2020</t>
+        </is>
+      </c>
+      <c r="L174" t="inlineStr"/>
+      <c r="M174" t="inlineStr"/>
+      <c r="N174" t="inlineStr"/>
+      <c r="O174" t="inlineStr"/>
+      <c r="P174" t="inlineStr"/>
+      <c r="Q174" t="inlineStr"/>
+      <c r="R174" t="inlineStr"/>
+      <c r="S174" t="inlineStr"/>
       <c r="T174" t="inlineStr">
         <is>
           <t>01/07/2021</t>
@@ -17113,17 +16969,17 @@
       <c r="U174" t="inlineStr"/>
       <c r="V174" t="inlineStr">
         <is>
-          <t>21SL-PR00062</t>
+          <t>21SL-PR00063</t>
         </is>
       </c>
       <c r="W174" t="inlineStr">
         <is>
-          <t>MAXINE W. JEFFRIE, DECEASED</t>
+          <t>MALCOLM DYE, DECEASED</t>
         </is>
       </c>
       <c r="X174" t="inlineStr">
         <is>
-          <t>PR Small Est Affidavit w/Will</t>
+          <t>PR Determination of Heirship</t>
         </is>
       </c>
       <c r="Y174" t="inlineStr">
@@ -17136,51 +16992,47 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>DYE</t>
+          <t>CONWELL</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>MALCOLM</t>
+          <t>JACKIE HOLMES</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>Decedent</t>
+          <t>Petitioner</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>331 RAND DRIVE</t>
+          <t>745 GARLAND DRIVE</t>
         </is>
       </c>
       <c r="E175" t="inlineStr"/>
       <c r="F175" t="inlineStr">
         <is>
-          <t>FERGUSON,</t>
+          <t>HERMITAGE,</t>
         </is>
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>MO</t>
+          <t>TN</t>
         </is>
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>63135</t>
+          <t>37076</t>
         </is>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr">
         <is>
-          <t>1933</t>
-        </is>
-      </c>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>01/02/2020</t>
-        </is>
-      </c>
+          <t>1971</t>
+        </is>
+      </c>
+      <c r="K175" t="inlineStr"/>
       <c r="L175" t="inlineStr">
         <is>
           <t>MENDELSON TOM P</t>
@@ -17248,66 +17100,70 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>CONWELL</t>
+          <t>MANNION</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>JACKIE HOLMES</t>
+          <t>MARGARET B.</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>Petitioner</t>
+          <t>Applicant</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>745 GARLAND DRIVE</t>
+          <t>8 FOX RUN LANE</t>
         </is>
       </c>
       <c r="E176" t="inlineStr"/>
       <c r="F176" t="inlineStr">
         <is>
-          <t>HERMITAGE,</t>
+          <t>FRONTENAC,</t>
         </is>
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>MO</t>
         </is>
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>37076</t>
+          <t>63131</t>
         </is>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr">
         <is>
-          <t>1971</t>
+          <t>1961</t>
         </is>
       </c>
       <c r="K176" t="inlineStr"/>
       <c r="L176" t="inlineStr">
         <is>
-          <t>MENDELSON TOM P</t>
+          <t>LEIBLE W. ROBERT</t>
         </is>
       </c>
       <c r="M176" t="inlineStr">
         <is>
-          <t>Attorney for Petitioner</t>
+          <t>Attorney for Other Party</t>
         </is>
       </c>
       <c r="N176" t="inlineStr">
         <is>
-          <t>2725 CLIFTON AVENUE</t>
-        </is>
-      </c>
-      <c r="O176" t="inlineStr"/>
+          <t>190 CARONDELET PLAZA</t>
+        </is>
+      </c>
+      <c r="O176" t="inlineStr">
+        <is>
+          <t>SUITE 600</t>
+        </is>
+      </c>
       <c r="P176" t="inlineStr">
         <is>
-          <t>ST. LOUIS,</t>
+          <t>CLAYTON,</t>
         </is>
       </c>
       <c r="Q176" t="inlineStr">
@@ -17317,14 +17173,10 @@
       </c>
       <c r="R176" t="inlineStr">
         <is>
-          <t>63139</t>
-        </is>
-      </c>
-      <c r="S176" t="inlineStr">
-        <is>
-          <t>(314) 645-2049</t>
-        </is>
-      </c>
+          <t>63105</t>
+        </is>
+      </c>
+      <c r="S176" t="inlineStr"/>
       <c r="T176" t="inlineStr">
         <is>
           <t>01/07/2021</t>
@@ -17333,17 +17185,17 @@
       <c r="U176" t="inlineStr"/>
       <c r="V176" t="inlineStr">
         <is>
-          <t>21SL-PR00063</t>
+          <t>21SL-PR00064</t>
         </is>
       </c>
       <c r="W176" t="inlineStr">
         <is>
-          <t>MALCOLM DYE, DECEASED</t>
+          <t>MARK K. MANNION, A/K/A, DECEASED</t>
         </is>
       </c>
       <c r="X176" t="inlineStr">
         <is>
-          <t>PR Determination of Heirship</t>
+          <t>PR Will Admitted or Rejected</t>
         </is>
       </c>
       <c r="Y176" t="inlineStr">
@@ -17361,12 +17213,12 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>MARGARET B.</t>
+          <t>MARK</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>Applicant</t>
+          <t>Decedent</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
@@ -17393,10 +17245,14 @@
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr">
         <is>
-          <t>1961</t>
-        </is>
-      </c>
-      <c r="K177" t="inlineStr"/>
+          <t>1958</t>
+        </is>
+      </c>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>11/12/2020</t>
+        </is>
+      </c>
       <c r="L177" t="inlineStr">
         <is>
           <t>LEIBLE W. ROBERT</t>
@@ -17464,12 +17320,12 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>MANNION</t>
+          <t>WILSON</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>MARK</t>
+          <t>MARTIN DALE</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -17479,13 +17335,13 @@
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>8 FOX RUN LANE</t>
+          <t>500 MONACO DRIVE</t>
         </is>
       </c>
       <c r="E178" t="inlineStr"/>
       <c r="F178" t="inlineStr">
         <is>
-          <t>FRONTENAC,</t>
+          <t>ST. LOUIS,</t>
         </is>
       </c>
       <c r="G178" t="inlineStr">
@@ -17495,55 +17351,27 @@
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>63131</t>
+          <t>63122</t>
         </is>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr">
         <is>
-          <t>1958</t>
+          <t>1961</t>
         </is>
       </c>
       <c r="K178" t="inlineStr">
         <is>
-          <t>11/12/2020</t>
-        </is>
-      </c>
-      <c r="L178" t="inlineStr">
-        <is>
-          <t>LEIBLE W. ROBERT</t>
-        </is>
-      </c>
-      <c r="M178" t="inlineStr">
-        <is>
-          <t>Attorney for Other Party</t>
-        </is>
-      </c>
-      <c r="N178" t="inlineStr">
-        <is>
-          <t>190 CARONDELET PLAZA</t>
-        </is>
-      </c>
-      <c r="O178" t="inlineStr">
-        <is>
-          <t>SUITE 600</t>
-        </is>
-      </c>
-      <c r="P178" t="inlineStr">
-        <is>
-          <t>CLAYTON,</t>
-        </is>
-      </c>
-      <c r="Q178" t="inlineStr">
-        <is>
-          <t>MO</t>
-        </is>
-      </c>
-      <c r="R178" t="inlineStr">
-        <is>
-          <t>63105</t>
-        </is>
-      </c>
+          <t>02/16/2020</t>
+        </is>
+      </c>
+      <c r="L178" t="inlineStr"/>
+      <c r="M178" t="inlineStr"/>
+      <c r="N178" t="inlineStr"/>
+      <c r="O178" t="inlineStr"/>
+      <c r="P178" t="inlineStr"/>
+      <c r="Q178" t="inlineStr"/>
+      <c r="R178" t="inlineStr"/>
       <c r="S178" t="inlineStr"/>
       <c r="T178" t="inlineStr">
         <is>
@@ -17553,17 +17381,17 @@
       <c r="U178" t="inlineStr"/>
       <c r="V178" t="inlineStr">
         <is>
-          <t>21SL-PR00064</t>
+          <t>21SL-PR00067</t>
         </is>
       </c>
       <c r="W178" t="inlineStr">
         <is>
-          <t>MARK K. MANNION, A/K/A, DECEASED</t>
+          <t>MARTIN DALE WILSON, DECEASED</t>
         </is>
       </c>
       <c r="X178" t="inlineStr">
         <is>
-          <t>PR Will Admitted or Rejected</t>
+          <t>PR Independent with Will</t>
         </is>
       </c>
       <c r="Y178" t="inlineStr">
@@ -17581,23 +17409,23 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>MARTIN DALE</t>
+          <t>BRENDAN M.</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>Decedent</t>
+          <t>Heir</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>500 MONACO DRIVE</t>
+          <t>9015 EAGER ROAD, APT 491</t>
         </is>
       </c>
       <c r="E179" t="inlineStr"/>
       <c r="F179" t="inlineStr">
         <is>
-          <t>ST. LOUIS,</t>
+          <t>RICHMOND HEIGHTS,</t>
         </is>
       </c>
       <c r="G179" t="inlineStr">
@@ -17607,20 +17435,16 @@
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>63122</t>
+          <t>63117</t>
         </is>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr">
         <is>
-          <t>1961</t>
-        </is>
-      </c>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>02/16/2020</t>
-        </is>
-      </c>
+          <t>1994</t>
+        </is>
+      </c>
+      <c r="K179" t="inlineStr"/>
       <c r="L179" t="inlineStr"/>
       <c r="M179" t="inlineStr"/>
       <c r="N179" t="inlineStr"/>
@@ -17670,7 +17494,7 @@
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>Heir</t>
+          <t>Petitioner</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
@@ -17701,14 +17525,42 @@
         </is>
       </c>
       <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
-      <c r="M180" t="inlineStr"/>
-      <c r="N180" t="inlineStr"/>
+      <c r="L180" t="inlineStr">
+        <is>
+          <t>BAKULA BRADLEY J.</t>
+        </is>
+      </c>
+      <c r="M180" t="inlineStr">
+        <is>
+          <t>Attorney for Petitioner</t>
+        </is>
+      </c>
+      <c r="N180" t="inlineStr">
+        <is>
+          <t>8011 CLAYTON RD. 3RD FL</t>
+        </is>
+      </c>
       <c r="O180" t="inlineStr"/>
-      <c r="P180" t="inlineStr"/>
-      <c r="Q180" t="inlineStr"/>
-      <c r="R180" t="inlineStr"/>
-      <c r="S180" t="inlineStr"/>
+      <c r="P180" t="inlineStr">
+        <is>
+          <t>ST. LOUIS,</t>
+        </is>
+      </c>
+      <c r="Q180" t="inlineStr">
+        <is>
+          <t>MO</t>
+        </is>
+      </c>
+      <c r="R180" t="inlineStr">
+        <is>
+          <t>63117-3388</t>
+        </is>
+      </c>
+      <c r="S180" t="inlineStr">
+        <is>
+          <t>(314) 727-7100</t>
+        </is>
+      </c>
       <c r="T180" t="inlineStr">
         <is>
           <t>01/07/2021</t>
@@ -17740,17 +17592,17 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>WILSON</t>
+          <t>MARTIN D. WILSON AND CAROLE J. WILSON LIVING TRUST</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>BRENDAN M.</t>
+          <t>TRUST</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>Petitioner</t>
+          <t>Devisee</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
@@ -17775,48 +17627,16 @@
         </is>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="inlineStr">
-        <is>
-          <t>1994</t>
-        </is>
-      </c>
+      <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr">
-        <is>
-          <t>BAKULA BRADLEY J.</t>
-        </is>
-      </c>
-      <c r="M181" t="inlineStr">
-        <is>
-          <t>Attorney for Petitioner</t>
-        </is>
-      </c>
-      <c r="N181" t="inlineStr">
-        <is>
-          <t>8011 CLAYTON RD. 3RD FL</t>
-        </is>
-      </c>
+      <c r="L181" t="inlineStr"/>
+      <c r="M181" t="inlineStr"/>
+      <c r="N181" t="inlineStr"/>
       <c r="O181" t="inlineStr"/>
-      <c r="P181" t="inlineStr">
-        <is>
-          <t>ST. LOUIS,</t>
-        </is>
-      </c>
-      <c r="Q181" t="inlineStr">
-        <is>
-          <t>MO</t>
-        </is>
-      </c>
-      <c r="R181" t="inlineStr">
-        <is>
-          <t>63117-3388</t>
-        </is>
-      </c>
-      <c r="S181" t="inlineStr">
-        <is>
-          <t>(314) 727-7100</t>
-        </is>
-      </c>
+      <c r="P181" t="inlineStr"/>
+      <c r="Q181" t="inlineStr"/>
+      <c r="R181" t="inlineStr"/>
+      <c r="S181" t="inlineStr"/>
       <c r="T181" t="inlineStr">
         <is>
           <t>01/07/2021</t>
@@ -17848,28 +17668,28 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>MARTIN D. WILSON AND CAROLE J. WILSON LIVING TRUST</t>
+          <t>PARKER</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>TRUST</t>
+          <t>JO ANN</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>Devisee</t>
+          <t>Decedent</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>9015 EAGER ROAD, APT 491</t>
+          <t>THREE MCKNIGHT PLACE</t>
         </is>
       </c>
       <c r="E182" t="inlineStr"/>
       <c r="F182" t="inlineStr">
         <is>
-          <t>RICHMOND HEIGHTS,</t>
+          <t>ST. LOUIS,</t>
         </is>
       </c>
       <c r="G182" t="inlineStr">
@@ -17879,20 +17699,60 @@
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>63117</t>
+          <t>63124</t>
         </is>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
-      <c r="M182" t="inlineStr"/>
-      <c r="N182" t="inlineStr"/>
-      <c r="O182" t="inlineStr"/>
-      <c r="P182" t="inlineStr"/>
-      <c r="Q182" t="inlineStr"/>
-      <c r="R182" t="inlineStr"/>
-      <c r="S182" t="inlineStr"/>
+      <c r="J182" t="inlineStr">
+        <is>
+          <t>1941</t>
+        </is>
+      </c>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>01/23/2020</t>
+        </is>
+      </c>
+      <c r="L182" t="inlineStr">
+        <is>
+          <t>ADAMS LISA M.</t>
+        </is>
+      </c>
+      <c r="M182" t="inlineStr">
+        <is>
+          <t>Attorney for Other Party</t>
+        </is>
+      </c>
+      <c r="N182" t="inlineStr">
+        <is>
+          <t>8182 MARYLAND AVE</t>
+        </is>
+      </c>
+      <c r="O182" t="inlineStr">
+        <is>
+          <t>15TH FLOOR</t>
+        </is>
+      </c>
+      <c r="P182" t="inlineStr">
+        <is>
+          <t>ST LOUIS,</t>
+        </is>
+      </c>
+      <c r="Q182" t="inlineStr">
+        <is>
+          <t>MO</t>
+        </is>
+      </c>
+      <c r="R182" t="inlineStr">
+        <is>
+          <t>63105</t>
+        </is>
+      </c>
+      <c r="S182" t="inlineStr">
+        <is>
+          <t>(314) 721-7701</t>
+        </is>
+      </c>
       <c r="T182" t="inlineStr">
         <is>
           <t>01/07/2021</t>
@@ -17901,17 +17761,17 @@
       <c r="U182" t="inlineStr"/>
       <c r="V182" t="inlineStr">
         <is>
-          <t>21SL-PR00067</t>
+          <t>21SL-PR00068</t>
         </is>
       </c>
       <c r="W182" t="inlineStr">
         <is>
-          <t>MARTIN DALE WILSON, DECEASED</t>
+          <t>JO ANN PARKER, AKA, DECEASED</t>
         </is>
       </c>
       <c r="X182" t="inlineStr">
         <is>
-          <t>PR Independent with Will</t>
+          <t>PR Refusal of Letters-Creditor</t>
         </is>
       </c>
       <c r="Y182" t="inlineStr">
@@ -17924,22 +17784,22 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>PARKER</t>
+          <t>TICE</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>JO ANN</t>
+          <t>NANCY PARKER</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>Decedent</t>
+          <t>Applicant</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>THREE MCKNIGHT PLACE</t>
+          <t>2301 PARKRIDGE AVENUE</t>
         </is>
       </c>
       <c r="E183" t="inlineStr"/>
@@ -17955,20 +17815,16 @@
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>63124</t>
+          <t>63144</t>
         </is>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr">
         <is>
-          <t>1941</t>
-        </is>
-      </c>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>01/23/2020</t>
-        </is>
-      </c>
+          <t>1967</t>
+        </is>
+      </c>
+      <c r="K183" t="inlineStr"/>
       <c r="L183" t="inlineStr">
         <is>
           <t>ADAMS LISA M.</t>
@@ -18040,28 +17896,28 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>TICE</t>
+          <t>TASZAREK</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>NANCY PARKER</t>
+          <t>DAVID E.</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>Applicant</t>
+          <t>Decedent</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>2301 PARKRIDGE AVENUE</t>
+          <t>12149 SUNNYCREST PL</t>
         </is>
       </c>
       <c r="E184" t="inlineStr"/>
       <c r="F184" t="inlineStr">
         <is>
-          <t>ST. LOUIS,</t>
+          <t>MARYLAND HEIGHTS,</t>
         </is>
       </c>
       <c r="G184" t="inlineStr">
@@ -18071,56 +17927,28 @@
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>63144</t>
+          <t>63043</t>
         </is>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr">
         <is>
-          <t>1967</t>
-        </is>
-      </c>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr">
-        <is>
-          <t>ADAMS LISA M.</t>
-        </is>
-      </c>
-      <c r="M184" t="inlineStr">
-        <is>
-          <t>Attorney for Other Party</t>
-        </is>
-      </c>
-      <c r="N184" t="inlineStr">
-        <is>
-          <t>8182 MARYLAND AVE</t>
-        </is>
-      </c>
-      <c r="O184" t="inlineStr">
-        <is>
-          <t>15TH FLOOR</t>
-        </is>
-      </c>
-      <c r="P184" t="inlineStr">
-        <is>
-          <t>ST LOUIS,</t>
-        </is>
-      </c>
-      <c r="Q184" t="inlineStr">
-        <is>
-          <t>MO</t>
-        </is>
-      </c>
-      <c r="R184" t="inlineStr">
-        <is>
-          <t>63105</t>
-        </is>
-      </c>
-      <c r="S184" t="inlineStr">
-        <is>
-          <t>(314) 721-7701</t>
-        </is>
-      </c>
+          <t>1965</t>
+        </is>
+      </c>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>01/21/2020</t>
+        </is>
+      </c>
+      <c r="L184" t="inlineStr"/>
+      <c r="M184" t="inlineStr"/>
+      <c r="N184" t="inlineStr"/>
+      <c r="O184" t="inlineStr"/>
+      <c r="P184" t="inlineStr"/>
+      <c r="Q184" t="inlineStr"/>
+      <c r="R184" t="inlineStr"/>
+      <c r="S184" t="inlineStr"/>
       <c r="T184" t="inlineStr">
         <is>
           <t>01/07/2021</t>
@@ -18129,17 +17957,17 @@
       <c r="U184" t="inlineStr"/>
       <c r="V184" t="inlineStr">
         <is>
-          <t>21SL-PR00068</t>
+          <t>21SL-PR00069</t>
         </is>
       </c>
       <c r="W184" t="inlineStr">
         <is>
-          <t>JO ANN PARKER, AKA, DECEASED</t>
+          <t>DAVID TASZAREK, A/K/A, DECEASED</t>
         </is>
       </c>
       <c r="X184" t="inlineStr">
         <is>
-          <t>PR Refusal of Letters-Creditor</t>
+          <t>PR Independent without Will</t>
         </is>
       </c>
       <c r="Y184" t="inlineStr">
@@ -18157,23 +17985,23 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>DAVID E.</t>
+          <t>KAITLIN ROSE</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>Decedent</t>
+          <t>Applicant</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>12149 SUNNYCREST PL</t>
+          <t>4922 DRESDEN WAY</t>
         </is>
       </c>
       <c r="E185" t="inlineStr"/>
       <c r="F185" t="inlineStr">
         <is>
-          <t>MARYLAND HEIGHTS,</t>
+          <t>ST. PETERS,</t>
         </is>
       </c>
       <c r="G185" t="inlineStr">
@@ -18183,28 +18011,52 @@
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>63043</t>
+          <t>63304</t>
         </is>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr">
         <is>
-          <t>1965</t>
-        </is>
-      </c>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>01/21/2020</t>
-        </is>
-      </c>
-      <c r="L185" t="inlineStr"/>
-      <c r="M185" t="inlineStr"/>
-      <c r="N185" t="inlineStr"/>
+          <t>1994</t>
+        </is>
+      </c>
+      <c r="K185" t="inlineStr"/>
+      <c r="L185" t="inlineStr">
+        <is>
+          <t>JACOBS MITCHELL D</t>
+        </is>
+      </c>
+      <c r="M185" t="inlineStr">
+        <is>
+          <t>Attorney for Applicant</t>
+        </is>
+      </c>
+      <c r="N185" t="inlineStr">
+        <is>
+          <t>918 N MCKNIGHT RD</t>
+        </is>
+      </c>
       <c r="O185" t="inlineStr"/>
-      <c r="P185" t="inlineStr"/>
-      <c r="Q185" t="inlineStr"/>
-      <c r="R185" t="inlineStr"/>
-      <c r="S185" t="inlineStr"/>
+      <c r="P185" t="inlineStr">
+        <is>
+          <t>ST. LOUIS,</t>
+        </is>
+      </c>
+      <c r="Q185" t="inlineStr">
+        <is>
+          <t>MO</t>
+        </is>
+      </c>
+      <c r="R185" t="inlineStr">
+        <is>
+          <t>63132</t>
+        </is>
+      </c>
+      <c r="S185" t="inlineStr">
+        <is>
+          <t>(314) 942-7995</t>
+        </is>
+      </c>
       <c r="T185" t="inlineStr">
         <is>
           <t>01/07/2021</t>
@@ -18236,28 +18088,28 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>TASZAREK</t>
+          <t>KELLNER</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>KAITLIN ROSE</t>
+          <t>QUINN</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>Applicant</t>
+          <t>Affiant</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>4922 DRESDEN WAY</t>
+          <t>2035 AVON DR</t>
         </is>
       </c>
       <c r="E186" t="inlineStr"/>
       <c r="F186" t="inlineStr">
         <is>
-          <t>ST. PETERS,</t>
+          <t>FLORISSANT,</t>
         </is>
       </c>
       <c r="G186" t="inlineStr">
@@ -18267,35 +18119,39 @@
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>63304</t>
+          <t>63033</t>
         </is>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr">
         <is>
-          <t>1994</t>
+          <t>1963</t>
         </is>
       </c>
       <c r="K186" t="inlineStr"/>
       <c r="L186" t="inlineStr">
         <is>
-          <t>JACOBS MITCHELL D</t>
+          <t>VILLAREAL LISA GAYLE</t>
         </is>
       </c>
       <c r="M186" t="inlineStr">
         <is>
-          <t>Attorney for Applicant</t>
+          <t>Attorney for Affiant</t>
         </is>
       </c>
       <c r="N186" t="inlineStr">
         <is>
-          <t>918 N MCKNIGHT RD</t>
-        </is>
-      </c>
-      <c r="O186" t="inlineStr"/>
+          <t>2333 GRISSOM DR</t>
+        </is>
+      </c>
+      <c r="O186" t="inlineStr">
+        <is>
+          <t>SUITE 107</t>
+        </is>
+      </c>
       <c r="P186" t="inlineStr">
         <is>
-          <t>ST. LOUIS,</t>
+          <t>ST LOUIS,</t>
         </is>
       </c>
       <c r="Q186" t="inlineStr">
@@ -18305,12 +18161,12 @@
       </c>
       <c r="R186" t="inlineStr">
         <is>
-          <t>63132</t>
+          <t>63146</t>
         </is>
       </c>
       <c r="S186" t="inlineStr">
         <is>
-          <t>(314) 942-7995</t>
+          <t>(314) 518-1581</t>
         </is>
       </c>
       <c r="T186" t="inlineStr">
@@ -18321,17 +18177,17 @@
       <c r="U186" t="inlineStr"/>
       <c r="V186" t="inlineStr">
         <is>
-          <t>21SL-PR00069</t>
+          <t>21SL-PR00070</t>
         </is>
       </c>
       <c r="W186" t="inlineStr">
         <is>
-          <t>DAVID TASZAREK, A/K/A, DECEASED</t>
+          <t>CHRISTIE KAY KELLNER, DECEASED</t>
         </is>
       </c>
       <c r="X186" t="inlineStr">
         <is>
-          <t>PR Independent without Will</t>
+          <t>PR Small Est Affidavit w/Will</t>
         </is>
       </c>
       <c r="Y186" t="inlineStr">
@@ -18354,7 +18210,7 @@
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>Affiant</t>
+          <t>Devisee</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
@@ -18385,46 +18241,14 @@
         </is>
       </c>
       <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr">
-        <is>
-          <t>VILLAREAL LISA GAYLE</t>
-        </is>
-      </c>
-      <c r="M187" t="inlineStr">
-        <is>
-          <t>Attorney for Affiant</t>
-        </is>
-      </c>
-      <c r="N187" t="inlineStr">
-        <is>
-          <t>2333 GRISSOM DR</t>
-        </is>
-      </c>
-      <c r="O187" t="inlineStr">
-        <is>
-          <t>SUITE 107</t>
-        </is>
-      </c>
-      <c r="P187" t="inlineStr">
-        <is>
-          <t>ST LOUIS,</t>
-        </is>
-      </c>
-      <c r="Q187" t="inlineStr">
-        <is>
-          <t>MO</t>
-        </is>
-      </c>
-      <c r="R187" t="inlineStr">
-        <is>
-          <t>63146</t>
-        </is>
-      </c>
-      <c r="S187" t="inlineStr">
-        <is>
-          <t>(314) 518-1581</t>
-        </is>
-      </c>
+      <c r="L187" t="inlineStr"/>
+      <c r="M187" t="inlineStr"/>
+      <c r="N187" t="inlineStr"/>
+      <c r="O187" t="inlineStr"/>
+      <c r="P187" t="inlineStr"/>
+      <c r="Q187" t="inlineStr"/>
+      <c r="R187" t="inlineStr"/>
+      <c r="S187" t="inlineStr"/>
       <c r="T187" t="inlineStr">
         <is>
           <t>01/07/2021</t>
@@ -18461,7 +18285,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>QUINN</t>
+          <t>MIKE</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -18471,29 +18295,29 @@
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>2035 AVON DR</t>
+          <t>2115 CHARLES</t>
         </is>
       </c>
       <c r="E188" t="inlineStr"/>
       <c r="F188" t="inlineStr">
         <is>
-          <t>FLORISSANT,</t>
+          <t>FREMONT,</t>
         </is>
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>MO</t>
+          <t>NE</t>
         </is>
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>63033</t>
+          <t>68025</t>
         </is>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr">
         <is>
-          <t>1963</t>
+          <t>1953</t>
         </is>
       </c>
       <c r="K188" t="inlineStr"/>
@@ -18541,42 +18365,46 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>MIKE</t>
+          <t>CHRISTIE KAY</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>Devisee</t>
+          <t>Decedent</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>2115 CHARLES</t>
+          <t>936 CHARBONIER ROAD</t>
         </is>
       </c>
       <c r="E189" t="inlineStr"/>
       <c r="F189" t="inlineStr">
         <is>
-          <t>FREMONT,</t>
+          <t>FLORISSANT,</t>
         </is>
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>NE</t>
+          <t>MO</t>
         </is>
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>68025</t>
+          <t>63031</t>
         </is>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr">
         <is>
-          <t>1953</t>
-        </is>
-      </c>
-      <c r="K189" t="inlineStr"/>
+          <t>1949</t>
+        </is>
+      </c>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>01/08/2020</t>
+        </is>
+      </c>
       <c r="L189" t="inlineStr"/>
       <c r="M189" t="inlineStr"/>
       <c r="N189" t="inlineStr"/>
@@ -18616,12 +18444,12 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>KELLNER</t>
+          <t>AYRES</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>CHRISTIE KAY</t>
+          <t>MARILEE MAUDE</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -18631,13 +18459,13 @@
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>936 CHARBONIER ROAD</t>
+          <t>1928 STEDMAN COURT</t>
         </is>
       </c>
       <c r="E190" t="inlineStr"/>
       <c r="F190" t="inlineStr">
         <is>
-          <t>FLORISSANT,</t>
+          <t>OVERLAND,</t>
         </is>
       </c>
       <c r="G190" t="inlineStr">
@@ -18647,28 +18475,60 @@
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>63031</t>
+          <t>63114</t>
         </is>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr">
         <is>
-          <t>1949</t>
+          <t>1943</t>
         </is>
       </c>
       <c r="K190" t="inlineStr">
         <is>
-          <t>01/08/2020</t>
-        </is>
-      </c>
-      <c r="L190" t="inlineStr"/>
-      <c r="M190" t="inlineStr"/>
-      <c r="N190" t="inlineStr"/>
-      <c r="O190" t="inlineStr"/>
-      <c r="P190" t="inlineStr"/>
-      <c r="Q190" t="inlineStr"/>
-      <c r="R190" t="inlineStr"/>
-      <c r="S190" t="inlineStr"/>
+          <t>09/29/2020</t>
+        </is>
+      </c>
+      <c r="L190" t="inlineStr">
+        <is>
+          <t>DUDA THOMAS A.</t>
+        </is>
+      </c>
+      <c r="M190" t="inlineStr">
+        <is>
+          <t>Attorney for Other Party</t>
+        </is>
+      </c>
+      <c r="N190" t="inlineStr">
+        <is>
+          <t>7733 FORSYTH</t>
+        </is>
+      </c>
+      <c r="O190" t="inlineStr">
+        <is>
+          <t>4TH FLOOR</t>
+        </is>
+      </c>
+      <c r="P190" t="inlineStr">
+        <is>
+          <t>ST. LOUIS,</t>
+        </is>
+      </c>
+      <c r="Q190" t="inlineStr">
+        <is>
+          <t>MO</t>
+        </is>
+      </c>
+      <c r="R190" t="inlineStr">
+        <is>
+          <t>63105</t>
+        </is>
+      </c>
+      <c r="S190" t="inlineStr">
+        <is>
+          <t>(314) 726-6868</t>
+        </is>
+      </c>
       <c r="T190" t="inlineStr">
         <is>
           <t>01/07/2021</t>
@@ -18677,17 +18537,17 @@
       <c r="U190" t="inlineStr"/>
       <c r="V190" t="inlineStr">
         <is>
-          <t>21SL-PR00070</t>
+          <t>21SL-PR00071</t>
         </is>
       </c>
       <c r="W190" t="inlineStr">
         <is>
-          <t>CHRISTIE KAY KELLNER, DECEASED</t>
+          <t>MARILEE MAUDE AYRES,  DECEASED</t>
         </is>
       </c>
       <c r="X190" t="inlineStr">
         <is>
-          <t>PR Small Est Affidavit w/Will</t>
+          <t>Will Filed Only - Deceased</t>
         </is>
       </c>
       <c r="Y190" t="inlineStr">
@@ -18700,12 +18560,12 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>AYRES</t>
+          <t>GOEBEL</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>MARILEE MAUDE</t>
+          <t>FRANCES LOUISE</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -18715,13 +18575,17 @@
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>1928 STEDMAN COURT</t>
-        </is>
-      </c>
-      <c r="E191" t="inlineStr"/>
+          <t>2535 OAKMONT TERRACE</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>PAT. 327</t>
+        </is>
+      </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>OVERLAND,</t>
+          <t>ST. LOUIS,</t>
         </is>
       </c>
       <c r="G191" t="inlineStr">
@@ -18731,23 +18595,23 @@
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>63114</t>
+          <t>63129</t>
         </is>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr">
         <is>
-          <t>1943</t>
+          <t>1927</t>
         </is>
       </c>
       <c r="K191" t="inlineStr">
         <is>
-          <t>09/29/2020</t>
+          <t>11/19/2020</t>
         </is>
       </c>
       <c r="L191" t="inlineStr">
         <is>
-          <t>DUDA THOMAS A.</t>
+          <t>ORTMAN THADDEUS CHRISTOPHER</t>
         </is>
       </c>
       <c r="M191" t="inlineStr">
@@ -18757,17 +18621,17 @@
       </c>
       <c r="N191" t="inlineStr">
         <is>
-          <t>7733 FORSYTH</t>
+          <t>5518 TELEGRAPH ROAD</t>
         </is>
       </c>
       <c r="O191" t="inlineStr">
         <is>
-          <t>4TH FLOOR</t>
+          <t>SUITE 101</t>
         </is>
       </c>
       <c r="P191" t="inlineStr">
         <is>
-          <t>ST. LOUIS,</t>
+          <t>SAINT LOUIS,</t>
         </is>
       </c>
       <c r="Q191" t="inlineStr">
@@ -18777,14 +18641,10 @@
       </c>
       <c r="R191" t="inlineStr">
         <is>
-          <t>63105</t>
-        </is>
-      </c>
-      <c r="S191" t="inlineStr">
-        <is>
-          <t>(314) 726-6868</t>
-        </is>
-      </c>
+          <t>63129</t>
+        </is>
+      </c>
+      <c r="S191" t="inlineStr"/>
       <c r="T191" t="inlineStr">
         <is>
           <t>01/07/2021</t>
@@ -18793,12 +18653,12 @@
       <c r="U191" t="inlineStr"/>
       <c r="V191" t="inlineStr">
         <is>
-          <t>21SL-PR00071</t>
+          <t>21SL-PR00072</t>
         </is>
       </c>
       <c r="W191" t="inlineStr">
         <is>
-          <t>MARILEE MAUDE AYRES,  DECEASED</t>
+          <t>FRANCES LOUISE GOEBEL,  DECEASED</t>
         </is>
       </c>
       <c r="X191" t="inlineStr">
@@ -18816,12 +18676,12 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>GOEBEL</t>
+          <t>HODGE</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>FRANCES LOUISE</t>
+          <t>KENNETH R.</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -18831,17 +18691,13 @@
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>2535 OAKMONT TERRACE</t>
-        </is>
-      </c>
-      <c r="E192" t="inlineStr">
-        <is>
-          <t>PAT. 327</t>
-        </is>
-      </c>
+          <t>410 ALGONQUIN PLACE</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr"/>
       <c r="F192" t="inlineStr">
         <is>
-          <t>ST. LOUIS,</t>
+          <t>WEBSTER GROVES,</t>
         </is>
       </c>
       <c r="G192" t="inlineStr">
@@ -18851,55 +18707,27 @@
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>63129</t>
+          <t>63119</t>
         </is>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr">
         <is>
-          <t>1927</t>
+          <t>1936</t>
         </is>
       </c>
       <c r="K192" t="inlineStr">
         <is>
-          <t>11/19/2020</t>
-        </is>
-      </c>
-      <c r="L192" t="inlineStr">
-        <is>
-          <t>ORTMAN THADDEUS CHRISTOPHER</t>
-        </is>
-      </c>
-      <c r="M192" t="inlineStr">
-        <is>
-          <t>Attorney for Other Party</t>
-        </is>
-      </c>
-      <c r="N192" t="inlineStr">
-        <is>
-          <t>5518 TELEGRAPH ROAD</t>
-        </is>
-      </c>
-      <c r="O192" t="inlineStr">
-        <is>
-          <t>SUITE 101</t>
-        </is>
-      </c>
-      <c r="P192" t="inlineStr">
-        <is>
-          <t>SAINT LOUIS,</t>
-        </is>
-      </c>
-      <c r="Q192" t="inlineStr">
-        <is>
-          <t>MO</t>
-        </is>
-      </c>
-      <c r="R192" t="inlineStr">
-        <is>
-          <t>63129</t>
-        </is>
-      </c>
+          <t>10/14/2020</t>
+        </is>
+      </c>
+      <c r="L192" t="inlineStr"/>
+      <c r="M192" t="inlineStr"/>
+      <c r="N192" t="inlineStr"/>
+      <c r="O192" t="inlineStr"/>
+      <c r="P192" t="inlineStr"/>
+      <c r="Q192" t="inlineStr"/>
+      <c r="R192" t="inlineStr"/>
       <c r="S192" t="inlineStr"/>
       <c r="T192" t="inlineStr">
         <is>
@@ -18909,17 +18737,17 @@
       <c r="U192" t="inlineStr"/>
       <c r="V192" t="inlineStr">
         <is>
-          <t>21SL-PR00072</t>
+          <t>21SL-PR00073</t>
         </is>
       </c>
       <c r="W192" t="inlineStr">
         <is>
-          <t>FRANCES LOUISE GOEBEL,  DECEASED</t>
+          <t>KENNETH R. HODGE, A/K/A, DECEASED</t>
         </is>
       </c>
       <c r="X192" t="inlineStr">
         <is>
-          <t>Will Filed Only - Deceased</t>
+          <t>PR Small Est Affidavit w/Will</t>
         </is>
       </c>
       <c r="Y192" t="inlineStr">
@@ -18937,12 +18765,12 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>KENNETH R.</t>
+          <t>VANCE C.</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>Decedent</t>
+          <t>Affiant</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
@@ -18969,14 +18797,10 @@
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr">
         <is>
-          <t>1936</t>
-        </is>
-      </c>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>10/14/2020</t>
-        </is>
-      </c>
+          <t>1943</t>
+        </is>
+      </c>
+      <c r="K193" t="inlineStr"/>
       <c r="L193" t="inlineStr">
         <is>
           <t>LEGGAT ROBERT B. JR.</t>
@@ -18984,7 +18808,7 @@
       </c>
       <c r="M193" t="inlineStr">
         <is>
-          <t>Atty for Personal Representatv</t>
+          <t>Attorney for Affiant</t>
         </is>
       </c>
       <c r="N193" t="inlineStr">
@@ -19053,12 +18877,12 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>VANCE C.</t>
+          <t>VANCE</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>Affiant</t>
+          <t>Applicant</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
@@ -19089,46 +18913,14 @@
         </is>
       </c>
       <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr">
-        <is>
-          <t>LEGGAT ROBERT B. JR.</t>
-        </is>
-      </c>
-      <c r="M194" t="inlineStr">
-        <is>
-          <t>Atty for Personal Representatv</t>
-        </is>
-      </c>
-      <c r="N194" t="inlineStr">
-        <is>
-          <t>112 SOUTH HANLEY</t>
-        </is>
-      </c>
-      <c r="O194" t="inlineStr">
-        <is>
-          <t>SECOND FLOOR</t>
-        </is>
-      </c>
-      <c r="P194" t="inlineStr">
-        <is>
-          <t>CLAYTON,</t>
-        </is>
-      </c>
-      <c r="Q194" t="inlineStr">
-        <is>
-          <t>MO</t>
-        </is>
-      </c>
-      <c r="R194" t="inlineStr">
-        <is>
-          <t>63105</t>
-        </is>
-      </c>
-      <c r="S194" t="inlineStr">
-        <is>
-          <t>(314) 726-2800</t>
-        </is>
-      </c>
+      <c r="L194" t="inlineStr"/>
+      <c r="M194" t="inlineStr"/>
+      <c r="N194" t="inlineStr"/>
+      <c r="O194" t="inlineStr"/>
+      <c r="P194" t="inlineStr"/>
+      <c r="Q194" t="inlineStr"/>
+      <c r="R194" t="inlineStr"/>
+      <c r="S194" t="inlineStr"/>
       <c r="T194" t="inlineStr">
         <is>
           <t>01/07/2021</t>
@@ -19160,28 +18952,28 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>HODGE</t>
+          <t>BALTZ</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>VANCE</t>
+          <t>DELPHINE DIANE</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>Applicant</t>
+          <t>Decedent</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>410 ALGONQUIN PLACE</t>
+          <t>9525 MURIEL AVE.</t>
         </is>
       </c>
       <c r="E195" t="inlineStr"/>
       <c r="F195" t="inlineStr">
         <is>
-          <t>WEBSTER GROVES,</t>
+          <t>ST. LOUIS,</t>
         </is>
       </c>
       <c r="G195" t="inlineStr">
@@ -19191,39 +18983,43 @@
       </c>
       <c r="H195" t="inlineStr">
         <is>
-          <t>63119</t>
+          <t>63114</t>
         </is>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr">
         <is>
-          <t>1943</t>
-        </is>
-      </c>
-      <c r="K195" t="inlineStr"/>
+          <t>1942</t>
+        </is>
+      </c>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>08/30/2019</t>
+        </is>
+      </c>
       <c r="L195" t="inlineStr">
         <is>
-          <t>LEGGAT ROBERT B. JR.</t>
+          <t>METHOT CHANTAL BERNADETTE</t>
         </is>
       </c>
       <c r="M195" t="inlineStr">
         <is>
-          <t>Atty for Personal Representatv</t>
+          <t>Attorney for Heir</t>
         </is>
       </c>
       <c r="N195" t="inlineStr">
         <is>
-          <t>112 SOUTH HANLEY</t>
+          <t>321 WEST PORT PLAZA DR</t>
         </is>
       </c>
       <c r="O195" t="inlineStr">
         <is>
-          <t>SECOND FLOOR</t>
+          <t>SUITE 201</t>
         </is>
       </c>
       <c r="P195" t="inlineStr">
         <is>
-          <t>CLAYTON,</t>
+          <t>ST. LOUIS,</t>
         </is>
       </c>
       <c r="Q195" t="inlineStr">
@@ -19233,12 +19029,12 @@
       </c>
       <c r="R195" t="inlineStr">
         <is>
-          <t>63105</t>
+          <t>63146</t>
         </is>
       </c>
       <c r="S195" t="inlineStr">
         <is>
-          <t>(314) 726-2800</t>
+          <t>(314) 499-8174</t>
         </is>
       </c>
       <c r="T195" t="inlineStr">
@@ -19249,17 +19045,17 @@
       <c r="U195" t="inlineStr"/>
       <c r="V195" t="inlineStr">
         <is>
-          <t>21SL-PR00073</t>
+          <t>21SL-PR00074</t>
         </is>
       </c>
       <c r="W195" t="inlineStr">
         <is>
-          <t>KENNETH R. HODGE, A/K/A, DECEASED</t>
+          <t>DELPHINE DIANE BALTZ,  DECEASED</t>
         </is>
       </c>
       <c r="X195" t="inlineStr">
         <is>
-          <t>PR Small Est Affidavit w/Will</t>
+          <t>PR Determination of Heirship</t>
         </is>
       </c>
       <c r="Y195" t="inlineStr">
@@ -19272,28 +19068,32 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>HODGE</t>
+          <t>ZIGLER</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>VANCE</t>
+          <t>BONNIE</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>Personal Representative</t>
+          <t>Heir</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>410 ALGONQUIN PLACE</t>
-        </is>
-      </c>
-      <c r="E196" t="inlineStr"/>
+          <t>C/O 321 W. PORT PLAZA DR.</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>STE. 201</t>
+        </is>
+      </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>WEBSTER GROVES,</t>
+          <t>ST. LOUIS,</t>
         </is>
       </c>
       <c r="G196" t="inlineStr">
@@ -19303,39 +19103,35 @@
       </c>
       <c r="H196" t="inlineStr">
         <is>
-          <t>63119</t>
+          <t>63146</t>
         </is>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="inlineStr">
-        <is>
-          <t>1943</t>
-        </is>
-      </c>
+      <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr"/>
       <c r="L196" t="inlineStr">
         <is>
-          <t>LEGGAT ROBERT B. JR.</t>
+          <t>METHOT CHANTAL BERNADETTE</t>
         </is>
       </c>
       <c r="M196" t="inlineStr">
         <is>
-          <t>Atty for Personal Representatv</t>
+          <t>Attorney for Heir</t>
         </is>
       </c>
       <c r="N196" t="inlineStr">
         <is>
-          <t>112 SOUTH HANLEY</t>
+          <t>321 WEST PORT PLAZA DR</t>
         </is>
       </c>
       <c r="O196" t="inlineStr">
         <is>
-          <t>SECOND FLOOR</t>
+          <t>SUITE 201</t>
         </is>
       </c>
       <c r="P196" t="inlineStr">
         <is>
-          <t>CLAYTON,</t>
+          <t>ST. LOUIS,</t>
         </is>
       </c>
       <c r="Q196" t="inlineStr">
@@ -19345,12 +19141,12 @@
       </c>
       <c r="R196" t="inlineStr">
         <is>
-          <t>63105</t>
+          <t>63146</t>
         </is>
       </c>
       <c r="S196" t="inlineStr">
         <is>
-          <t>(314) 726-2800</t>
+          <t>(314) 499-8174</t>
         </is>
       </c>
       <c r="T196" t="inlineStr">
@@ -19361,17 +19157,17 @@
       <c r="U196" t="inlineStr"/>
       <c r="V196" t="inlineStr">
         <is>
-          <t>21SL-PR00073</t>
+          <t>21SL-PR00074</t>
         </is>
       </c>
       <c r="W196" t="inlineStr">
         <is>
-          <t>KENNETH R. HODGE, A/K/A, DECEASED</t>
+          <t>DELPHINE DIANE BALTZ,  DECEASED</t>
         </is>
       </c>
       <c r="X196" t="inlineStr">
         <is>
-          <t>PR Small Est Affidavit w/Will</t>
+          <t>PR Determination of Heirship</t>
         </is>
       </c>
       <c r="Y196" t="inlineStr">
@@ -19384,12 +19180,12 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>BALTZ</t>
+          <t>GRANDSTAFF</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>DELPHINE DIANE</t>
+          <t>PETER JOHN</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -19399,7 +19195,7 @@
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>9525 MURIEL AVE.</t>
+          <t>2 SOMME CT.</t>
         </is>
       </c>
       <c r="E197" t="inlineStr"/>
@@ -19415,7 +19211,7 @@
       </c>
       <c r="H197" t="inlineStr">
         <is>
-          <t>63114</t>
+          <t>63021</t>
         </is>
       </c>
       <c r="I197" t="inlineStr"/>
@@ -19426,49 +19222,17 @@
       </c>
       <c r="K197" t="inlineStr">
         <is>
-          <t>08/30/2019</t>
-        </is>
-      </c>
-      <c r="L197" t="inlineStr">
-        <is>
-          <t>METHOT CHANTAL BERNADETTE</t>
-        </is>
-      </c>
-      <c r="M197" t="inlineStr">
-        <is>
-          <t>Attorney for Heir</t>
-        </is>
-      </c>
-      <c r="N197" t="inlineStr">
-        <is>
-          <t>321 WEST PORT PLAZA DR</t>
-        </is>
-      </c>
-      <c r="O197" t="inlineStr">
-        <is>
-          <t>SUITE 201</t>
-        </is>
-      </c>
-      <c r="P197" t="inlineStr">
-        <is>
-          <t>ST. LOUIS,</t>
-        </is>
-      </c>
-      <c r="Q197" t="inlineStr">
-        <is>
-          <t>MO</t>
-        </is>
-      </c>
-      <c r="R197" t="inlineStr">
-        <is>
-          <t>63146</t>
-        </is>
-      </c>
-      <c r="S197" t="inlineStr">
-        <is>
-          <t>(314) 499-8174</t>
-        </is>
-      </c>
+          <t>12/14/2020</t>
+        </is>
+      </c>
+      <c r="L197" t="inlineStr"/>
+      <c r="M197" t="inlineStr"/>
+      <c r="N197" t="inlineStr"/>
+      <c r="O197" t="inlineStr"/>
+      <c r="P197" t="inlineStr"/>
+      <c r="Q197" t="inlineStr"/>
+      <c r="R197" t="inlineStr"/>
+      <c r="S197" t="inlineStr"/>
       <c r="T197" t="inlineStr">
         <is>
           <t>01/07/2021</t>
@@ -19477,17 +19241,17 @@
       <c r="U197" t="inlineStr"/>
       <c r="V197" t="inlineStr">
         <is>
-          <t>21SL-PR00074</t>
+          <t>21SL-PR00075</t>
         </is>
       </c>
       <c r="W197" t="inlineStr">
         <is>
-          <t>DELPHINE DIANE BALTZ,  DECEASED</t>
+          <t>PETER JOHN GRANDSTAFF, DECEASED</t>
         </is>
       </c>
       <c r="X197" t="inlineStr">
         <is>
-          <t>PR Determination of Heirship</t>
+          <t>PR Independent with Will</t>
         </is>
       </c>
       <c r="Y197" t="inlineStr">
@@ -19500,67 +19264,63 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>ZIGLER</t>
+          <t>GRANDSTAFF-RICE</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>BONNIE</t>
+          <t>EMILY ANN</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>Heir</t>
+          <t>Indep. Personal Representative</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>C/O 321 W. PORT PLAZA DR.</t>
-        </is>
-      </c>
-      <c r="E198" t="inlineStr">
-        <is>
-          <t>STE. 201</t>
-        </is>
-      </c>
+          <t>35 WARWICK ST.</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr"/>
       <c r="F198" t="inlineStr">
         <is>
-          <t>ST. LOUIS,</t>
+          <t>SOMERVILLE,</t>
         </is>
       </c>
       <c r="G198" t="inlineStr">
         <is>
-          <t>MO</t>
+          <t>MA</t>
         </is>
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>63146</t>
+          <t>02145</t>
         </is>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="inlineStr"/>
+      <c r="J198" t="inlineStr">
+        <is>
+          <t>1976</t>
+        </is>
+      </c>
       <c r="K198" t="inlineStr"/>
       <c r="L198" t="inlineStr">
         <is>
-          <t>METHOT CHANTAL BERNADETTE</t>
+          <t>ZORUMSKI ERIK CHARLES</t>
         </is>
       </c>
       <c r="M198" t="inlineStr">
         <is>
-          <t>Attorney for Heir</t>
+          <t>Atty for Personal Representatv</t>
         </is>
       </c>
       <c r="N198" t="inlineStr">
         <is>
-          <t>321 WEST PORT PLAZA DR</t>
-        </is>
-      </c>
-      <c r="O198" t="inlineStr">
-        <is>
-          <t>SUITE 201</t>
-        </is>
-      </c>
+          <t>4509 LEMAY FERRY RD.</t>
+        </is>
+      </c>
+      <c r="O198" t="inlineStr"/>
       <c r="P198" t="inlineStr">
         <is>
           <t>ST. LOUIS,</t>
@@ -19573,12 +19333,12 @@
       </c>
       <c r="R198" t="inlineStr">
         <is>
-          <t>63146</t>
+          <t>63129</t>
         </is>
       </c>
       <c r="S198" t="inlineStr">
         <is>
-          <t>(314) 499-8174</t>
+          <t>(314) 304-5087</t>
         </is>
       </c>
       <c r="T198" t="inlineStr">
@@ -19589,17 +19349,17 @@
       <c r="U198" t="inlineStr"/>
       <c r="V198" t="inlineStr">
         <is>
-          <t>21SL-PR00074</t>
+          <t>21SL-PR00075</t>
         </is>
       </c>
       <c r="W198" t="inlineStr">
         <is>
-          <t>DELPHINE DIANE BALTZ,  DECEASED</t>
+          <t>PETER JOHN GRANDSTAFF, DECEASED</t>
         </is>
       </c>
       <c r="X198" t="inlineStr">
         <is>
-          <t>PR Determination of Heirship</t>
+          <t>PR Independent with Will</t>
         </is>
       </c>
       <c r="Y198" t="inlineStr">
@@ -19617,12 +19377,12 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>PETER JOHN</t>
+          <t>EDWARD</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>Decedent</t>
+          <t>Devisee</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
@@ -19647,16 +19407,8 @@
         </is>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="inlineStr">
-        <is>
-          <t>1942</t>
-        </is>
-      </c>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>12/14/2020</t>
-        </is>
-      </c>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr"/>
       <c r="L199" t="inlineStr"/>
       <c r="M199" t="inlineStr"/>
       <c r="N199" t="inlineStr"/>
@@ -19696,83 +19448,51 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>GRANDSTAFF-RICE</t>
+          <t>GRANDSTAFF</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>EMILY ANN</t>
+          <t>JAMES</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>Indep. Personal Representative</t>
+          <t>Devisee</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>35 WARWICK ST.</t>
+          <t>2 LE TOUR DR.</t>
         </is>
       </c>
       <c r="E200" t="inlineStr"/>
       <c r="F200" t="inlineStr">
         <is>
-          <t>SOMERVILLE,</t>
+          <t>ST. LOUIS,</t>
         </is>
       </c>
       <c r="G200" t="inlineStr">
         <is>
-          <t>MA</t>
+          <t>MO</t>
         </is>
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>02145</t>
+          <t>63021</t>
         </is>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="inlineStr">
-        <is>
-          <t>1976</t>
-        </is>
-      </c>
+      <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr">
-        <is>
-          <t>ZORUMSKI ERIK CHARLES</t>
-        </is>
-      </c>
-      <c r="M200" t="inlineStr">
-        <is>
-          <t>Atty for Personal Representatv</t>
-        </is>
-      </c>
-      <c r="N200" t="inlineStr">
-        <is>
-          <t>4509 LEMAY FERRY RD.</t>
-        </is>
-      </c>
+      <c r="L200" t="inlineStr"/>
+      <c r="M200" t="inlineStr"/>
+      <c r="N200" t="inlineStr"/>
       <c r="O200" t="inlineStr"/>
-      <c r="P200" t="inlineStr">
-        <is>
-          <t>ST. LOUIS,</t>
-        </is>
-      </c>
-      <c r="Q200" t="inlineStr">
-        <is>
-          <t>MO</t>
-        </is>
-      </c>
-      <c r="R200" t="inlineStr">
-        <is>
-          <t>63129</t>
-        </is>
-      </c>
-      <c r="S200" t="inlineStr">
-        <is>
-          <t>(314) 304-5087</t>
-        </is>
-      </c>
+      <c r="P200" t="inlineStr"/>
+      <c r="Q200" t="inlineStr"/>
+      <c r="R200" t="inlineStr"/>
+      <c r="S200" t="inlineStr"/>
       <c r="T200" t="inlineStr">
         <is>
           <t>01/07/2021</t>
@@ -19804,28 +19524,28 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>GRANDSTAFF</t>
+          <t>EBERHARDT</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>EDWARD</t>
+          <t>JACQUELINE L</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>Devisee</t>
+          <t>Decedent</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>2 SOMME CT.</t>
+          <t>10907 CONCORD CIRCLE DRIVE</t>
         </is>
       </c>
       <c r="E201" t="inlineStr"/>
       <c r="F201" t="inlineStr">
         <is>
-          <t>ST. LOUIS,</t>
+          <t>SAINT LOUIS,</t>
         </is>
       </c>
       <c r="G201" t="inlineStr">
@@ -19835,12 +19555,20 @@
       </c>
       <c r="H201" t="inlineStr">
         <is>
-          <t>63021</t>
+          <t>63123</t>
         </is>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
+      <c r="J201" t="inlineStr">
+        <is>
+          <t>1927</t>
+        </is>
+      </c>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>11/18/2020</t>
+        </is>
+      </c>
       <c r="L201" t="inlineStr"/>
       <c r="M201" t="inlineStr"/>
       <c r="N201" t="inlineStr"/>
@@ -19857,17 +19585,17 @@
       <c r="U201" t="inlineStr"/>
       <c r="V201" t="inlineStr">
         <is>
-          <t>21SL-PR00075</t>
+          <t>21SL-PR00076</t>
         </is>
       </c>
       <c r="W201" t="inlineStr">
         <is>
-          <t>PETER JOHN GRANDSTAFF, DECEASED</t>
+          <t>JACQUELINE L. EBERHARDT, DECEASED</t>
         </is>
       </c>
       <c r="X201" t="inlineStr">
         <is>
-          <t>PR Independent with Will</t>
+          <t>PR Small Est Affidavit w/Will</t>
         </is>
       </c>
       <c r="Y201" t="inlineStr">
@@ -19880,22 +19608,22 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>GRANDSTAFF</t>
+          <t>CASSANI</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>JAMES</t>
+          <t>JANET S</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>Devisee</t>
+          <t>Affiant</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>2 LE TOUR DR.</t>
+          <t>7304 SUTHERLAND AVE</t>
         </is>
       </c>
       <c r="E202" t="inlineStr"/>
@@ -19911,20 +19639,56 @@
       </c>
       <c r="H202" t="inlineStr">
         <is>
-          <t>63021</t>
+          <t>63119</t>
         </is>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="inlineStr"/>
+      <c r="J202" t="inlineStr">
+        <is>
+          <t>1957</t>
+        </is>
+      </c>
       <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr"/>
-      <c r="M202" t="inlineStr"/>
-      <c r="N202" t="inlineStr"/>
-      <c r="O202" t="inlineStr"/>
-      <c r="P202" t="inlineStr"/>
-      <c r="Q202" t="inlineStr"/>
-      <c r="R202" t="inlineStr"/>
-      <c r="S202" t="inlineStr"/>
+      <c r="L202" t="inlineStr">
+        <is>
+          <t>GIOIA MARY J</t>
+        </is>
+      </c>
+      <c r="M202" t="inlineStr">
+        <is>
+          <t>Attorney for Affiant</t>
+        </is>
+      </c>
+      <c r="N202" t="inlineStr">
+        <is>
+          <t>SUITE 207</t>
+        </is>
+      </c>
+      <c r="O202" t="inlineStr">
+        <is>
+          <t>50 CRESTWOOD EXECUTIVE CENTER</t>
+        </is>
+      </c>
+      <c r="P202" t="inlineStr">
+        <is>
+          <t>SAINT LOUIS,</t>
+        </is>
+      </c>
+      <c r="Q202" t="inlineStr">
+        <is>
+          <t>MO</t>
+        </is>
+      </c>
+      <c r="R202" t="inlineStr">
+        <is>
+          <t>63126</t>
+        </is>
+      </c>
+      <c r="S202" t="inlineStr">
+        <is>
+          <t>(314) 843-2400</t>
+        </is>
+      </c>
       <c r="T202" t="inlineStr">
         <is>
           <t>01/07/2021</t>
@@ -19933,17 +19697,17 @@
       <c r="U202" t="inlineStr"/>
       <c r="V202" t="inlineStr">
         <is>
-          <t>21SL-PR00075</t>
+          <t>21SL-PR00076</t>
         </is>
       </c>
       <c r="W202" t="inlineStr">
         <is>
-          <t>PETER JOHN GRANDSTAFF, DECEASED</t>
+          <t>JACQUELINE L. EBERHARDT, DECEASED</t>
         </is>
       </c>
       <c r="X202" t="inlineStr">
         <is>
-          <t>PR Independent with Will</t>
+          <t>PR Small Est Affidavit w/Will</t>
         </is>
       </c>
       <c r="Y202" t="inlineStr">
@@ -19956,12 +19720,12 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>EBERHARDT</t>
+          <t>SCHNELL</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>JACQUELINE L</t>
+          <t>MARILYN D.</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -19971,7 +19735,7 @@
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>10907 CONCORD CIRCLE DRIVE</t>
+          <t>816 RICEWOOD DRIVE</t>
         </is>
       </c>
       <c r="E203" t="inlineStr"/>
@@ -19987,7 +19751,7 @@
       </c>
       <c r="H203" t="inlineStr">
         <is>
-          <t>63123</t>
+          <t>63129</t>
         </is>
       </c>
       <c r="I203" t="inlineStr"/>
@@ -19998,32 +19762,32 @@
       </c>
       <c r="K203" t="inlineStr">
         <is>
-          <t>11/18/2020</t>
+          <t>11/25/2020</t>
         </is>
       </c>
       <c r="L203" t="inlineStr">
         <is>
-          <t>GIOIA MARY J</t>
+          <t>STEVENS BRADFORD L</t>
         </is>
       </c>
       <c r="M203" t="inlineStr">
         <is>
-          <t>Attorney for Affiant</t>
+          <t>Attorney for Applicant</t>
         </is>
       </c>
       <c r="N203" t="inlineStr">
         <is>
-          <t>SUITE 207</t>
+          <t>1 NORTH BRENTWOOD BLVD</t>
         </is>
       </c>
       <c r="O203" t="inlineStr">
         <is>
-          <t>50 CRESTWOOD EXECUTIVE CENTER</t>
+          <t>SUITE 800</t>
         </is>
       </c>
       <c r="P203" t="inlineStr">
         <is>
-          <t>SAINT LOUIS,</t>
+          <t>CLAYTON,</t>
         </is>
       </c>
       <c r="Q203" t="inlineStr">
@@ -20033,14 +19797,10 @@
       </c>
       <c r="R203" t="inlineStr">
         <is>
-          <t>63126</t>
-        </is>
-      </c>
-      <c r="S203" t="inlineStr">
-        <is>
-          <t>(314) 843-2400</t>
-        </is>
-      </c>
+          <t>63105</t>
+        </is>
+      </c>
+      <c r="S203" t="inlineStr"/>
       <c r="T203" t="inlineStr">
         <is>
           <t>01/07/2021</t>
@@ -20049,17 +19809,17 @@
       <c r="U203" t="inlineStr"/>
       <c r="V203" t="inlineStr">
         <is>
-          <t>21SL-PR00076</t>
+          <t>21SL-PR00077</t>
         </is>
       </c>
       <c r="W203" t="inlineStr">
         <is>
-          <t>JACQUELINE L. EBERHARDT, DECEASED</t>
+          <t>MARILYN D. SCHNELL,  DECEASED</t>
         </is>
       </c>
       <c r="X203" t="inlineStr">
         <is>
-          <t>PR Small Est Affidavit w/Will</t>
+          <t>PR Will Admitted or Rejected</t>
         </is>
       </c>
       <c r="Y203" t="inlineStr">
@@ -20072,28 +19832,28 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>CASSANI</t>
+          <t>PAVELSKI</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>JANET S</t>
+          <t>SUZANNE RAE</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>Affiant</t>
+          <t>Applicant</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>7304 SUTHERLAND AVE</t>
+          <t>816 RICEWOOD DRIVE</t>
         </is>
       </c>
       <c r="E204" t="inlineStr"/>
       <c r="F204" t="inlineStr">
         <is>
-          <t>ST. LOUIS,</t>
+          <t>SAINT LOUIS,</t>
         </is>
       </c>
       <c r="G204" t="inlineStr">
@@ -20103,39 +19863,39 @@
       </c>
       <c r="H204" t="inlineStr">
         <is>
-          <t>63119</t>
+          <t>63129</t>
         </is>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr">
         <is>
-          <t>1957</t>
+          <t>1952</t>
         </is>
       </c>
       <c r="K204" t="inlineStr"/>
       <c r="L204" t="inlineStr">
         <is>
-          <t>GIOIA MARY J</t>
+          <t>STEVENS BRADFORD L</t>
         </is>
       </c>
       <c r="M204" t="inlineStr">
         <is>
-          <t>Attorney for Affiant</t>
+          <t>Attorney for Applicant</t>
         </is>
       </c>
       <c r="N204" t="inlineStr">
         <is>
-          <t>SUITE 207</t>
+          <t>1 NORTH BRENTWOOD BLVD</t>
         </is>
       </c>
       <c r="O204" t="inlineStr">
         <is>
-          <t>50 CRESTWOOD EXECUTIVE CENTER</t>
+          <t>SUITE 800</t>
         </is>
       </c>
       <c r="P204" t="inlineStr">
         <is>
-          <t>SAINT LOUIS,</t>
+          <t>CLAYTON,</t>
         </is>
       </c>
       <c r="Q204" t="inlineStr">
@@ -20145,14 +19905,10 @@
       </c>
       <c r="R204" t="inlineStr">
         <is>
-          <t>63126</t>
-        </is>
-      </c>
-      <c r="S204" t="inlineStr">
-        <is>
-          <t>(314) 843-2400</t>
-        </is>
-      </c>
+          <t>63105</t>
+        </is>
+      </c>
+      <c r="S204" t="inlineStr"/>
       <c r="T204" t="inlineStr">
         <is>
           <t>01/07/2021</t>
@@ -20161,17 +19917,17 @@
       <c r="U204" t="inlineStr"/>
       <c r="V204" t="inlineStr">
         <is>
-          <t>21SL-PR00076</t>
+          <t>21SL-PR00077</t>
         </is>
       </c>
       <c r="W204" t="inlineStr">
         <is>
-          <t>JACQUELINE L. EBERHARDT, DECEASED</t>
+          <t>MARILYN D. SCHNELL,  DECEASED</t>
         </is>
       </c>
       <c r="X204" t="inlineStr">
         <is>
-          <t>PR Small Est Affidavit w/Will</t>
+          <t>PR Will Admitted or Rejected</t>
         </is>
       </c>
       <c r="Y204" t="inlineStr">
@@ -20184,12 +19940,12 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>SCHNELL</t>
+          <t>CRAIG</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>MARILYN D.</t>
+          <t>PAMELA A.</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -20199,13 +19955,13 @@
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>816 RICEWOOD DRIVE</t>
+          <t>364 HAZEL AVENUE</t>
         </is>
       </c>
       <c r="E205" t="inlineStr"/>
       <c r="F205" t="inlineStr">
         <is>
-          <t>SAINT LOUIS,</t>
+          <t>WEBSTER GROVES,</t>
         </is>
       </c>
       <c r="G205" t="inlineStr">
@@ -20215,55 +19971,27 @@
       </c>
       <c r="H205" t="inlineStr">
         <is>
-          <t>63129</t>
+          <t>63119</t>
         </is>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr">
         <is>
-          <t>1927</t>
+          <t>1945</t>
         </is>
       </c>
       <c r="K205" t="inlineStr">
         <is>
-          <t>11/25/2020</t>
-        </is>
-      </c>
-      <c r="L205" t="inlineStr">
-        <is>
-          <t>STEVENS BRADFORD L</t>
-        </is>
-      </c>
-      <c r="M205" t="inlineStr">
-        <is>
-          <t>Attorney for Applicant</t>
-        </is>
-      </c>
-      <c r="N205" t="inlineStr">
-        <is>
-          <t>1 NORTH BRENTWOOD BLVD</t>
-        </is>
-      </c>
-      <c r="O205" t="inlineStr">
-        <is>
-          <t>SUITE 800</t>
-        </is>
-      </c>
-      <c r="P205" t="inlineStr">
-        <is>
-          <t>CLAYTON,</t>
-        </is>
-      </c>
-      <c r="Q205" t="inlineStr">
-        <is>
-          <t>MO</t>
-        </is>
-      </c>
-      <c r="R205" t="inlineStr">
-        <is>
-          <t>63105</t>
-        </is>
-      </c>
+          <t>06/02/2020</t>
+        </is>
+      </c>
+      <c r="L205" t="inlineStr"/>
+      <c r="M205" t="inlineStr"/>
+      <c r="N205" t="inlineStr"/>
+      <c r="O205" t="inlineStr"/>
+      <c r="P205" t="inlineStr"/>
+      <c r="Q205" t="inlineStr"/>
+      <c r="R205" t="inlineStr"/>
       <c r="S205" t="inlineStr"/>
       <c r="T205" t="inlineStr">
         <is>
@@ -20273,17 +20001,17 @@
       <c r="U205" t="inlineStr"/>
       <c r="V205" t="inlineStr">
         <is>
-          <t>21SL-PR00077</t>
+          <t>21SL-PR00078</t>
         </is>
       </c>
       <c r="W205" t="inlineStr">
         <is>
-          <t>MARILYN D. SCHNELL,  DECEASED</t>
+          <t>PAMELA A. CRAIG,  DECEASED</t>
         </is>
       </c>
       <c r="X205" t="inlineStr">
         <is>
-          <t>PR Will Admitted or Rejected</t>
+          <t>PR Independent with Will</t>
         </is>
       </c>
       <c r="Y205" t="inlineStr">
@@ -20296,28 +20024,28 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>PAVELSKI</t>
+          <t>CRAIG</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>SUZANNE RAE</t>
+          <t>THOMAS M</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>Applicant</t>
+          <t>Petitioner</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>816 RICEWOOD DRIVE</t>
+          <t>4990 LOUGHBOROUGH AVENUE</t>
         </is>
       </c>
       <c r="E206" t="inlineStr"/>
       <c r="F206" t="inlineStr">
         <is>
-          <t>SAINT LOUIS,</t>
+          <t>ST. LOUIS,</t>
         </is>
       </c>
       <c r="G206" t="inlineStr">
@@ -20327,39 +20055,35 @@
       </c>
       <c r="H206" t="inlineStr">
         <is>
-          <t>63129</t>
+          <t>63109</t>
         </is>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr">
         <is>
-          <t>1952</t>
+          <t>1973</t>
         </is>
       </c>
       <c r="K206" t="inlineStr"/>
       <c r="L206" t="inlineStr">
         <is>
-          <t>STEVENS BRADFORD L</t>
+          <t>ALSOP CHRISTINE A</t>
         </is>
       </c>
       <c r="M206" t="inlineStr">
         <is>
-          <t>Attorney for Applicant</t>
+          <t>Attorney for Petitioner</t>
         </is>
       </c>
       <c r="N206" t="inlineStr">
         <is>
-          <t>1 NORTH BRENTWOOD BLVD</t>
-        </is>
-      </c>
-      <c r="O206" t="inlineStr">
-        <is>
-          <t>SUITE 800</t>
-        </is>
-      </c>
+          <t>6654 CHIPPEWA STREET</t>
+        </is>
+      </c>
+      <c r="O206" t="inlineStr"/>
       <c r="P206" t="inlineStr">
         <is>
-          <t>CLAYTON,</t>
+          <t>ST LOUIS,</t>
         </is>
       </c>
       <c r="Q206" t="inlineStr">
@@ -20369,10 +20093,14 @@
       </c>
       <c r="R206" t="inlineStr">
         <is>
-          <t>63105</t>
-        </is>
-      </c>
-      <c r="S206" t="inlineStr"/>
+          <t>63109</t>
+        </is>
+      </c>
+      <c r="S206" t="inlineStr">
+        <is>
+          <t>(314) 644-3200</t>
+        </is>
+      </c>
       <c r="T206" t="inlineStr">
         <is>
           <t>01/07/2021</t>
@@ -20381,17 +20109,17 @@
       <c r="U206" t="inlineStr"/>
       <c r="V206" t="inlineStr">
         <is>
-          <t>21SL-PR00077</t>
+          <t>21SL-PR00078</t>
         </is>
       </c>
       <c r="W206" t="inlineStr">
         <is>
-          <t>MARILYN D. SCHNELL,  DECEASED</t>
+          <t>PAMELA A. CRAIG,  DECEASED</t>
         </is>
       </c>
       <c r="X206" t="inlineStr">
         <is>
-          <t>PR Will Admitted or Rejected</t>
+          <t>PR Independent with Will</t>
         </is>
       </c>
       <c r="Y206" t="inlineStr">
@@ -20404,12 +20132,12 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>CRAIG</t>
+          <t>BURCKE</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>PAMELA A.</t>
+          <t>JOHN B JR</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -20419,13 +20147,13 @@
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>364 HAZEL AVENUE</t>
+          <t>245 STEAMBOAT LANE</t>
         </is>
       </c>
       <c r="E207" t="inlineStr"/>
       <c r="F207" t="inlineStr">
         <is>
-          <t>WEBSTER GROVES,</t>
+          <t>BALLWIN,</t>
         </is>
       </c>
       <c r="G207" t="inlineStr">
@@ -20435,27 +20163,55 @@
       </c>
       <c r="H207" t="inlineStr">
         <is>
-          <t>63119</t>
+          <t>63021</t>
         </is>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr">
         <is>
-          <t>1945</t>
+          <t>1949</t>
         </is>
       </c>
       <c r="K207" t="inlineStr">
         <is>
-          <t>06/02/2020</t>
-        </is>
-      </c>
-      <c r="L207" t="inlineStr"/>
-      <c r="M207" t="inlineStr"/>
-      <c r="N207" t="inlineStr"/>
-      <c r="O207" t="inlineStr"/>
-      <c r="P207" t="inlineStr"/>
-      <c r="Q207" t="inlineStr"/>
-      <c r="R207" t="inlineStr"/>
+          <t>11/21/2020</t>
+        </is>
+      </c>
+      <c r="L207" t="inlineStr">
+        <is>
+          <t>BURCKE JOSEPH R.</t>
+        </is>
+      </c>
+      <c r="M207" t="inlineStr">
+        <is>
+          <t>Attorney for Petitioner</t>
+        </is>
+      </c>
+      <c r="N207" t="inlineStr">
+        <is>
+          <t>222 S. CENTRAL AVENUE</t>
+        </is>
+      </c>
+      <c r="O207" t="inlineStr">
+        <is>
+          <t>SUITE 600</t>
+        </is>
+      </c>
+      <c r="P207" t="inlineStr">
+        <is>
+          <t>CLAYTON,</t>
+        </is>
+      </c>
+      <c r="Q207" t="inlineStr">
+        <is>
+          <t>MO</t>
+        </is>
+      </c>
+      <c r="R207" t="inlineStr">
+        <is>
+          <t>63105</t>
+        </is>
+      </c>
       <c r="S207" t="inlineStr"/>
       <c r="T207" t="inlineStr">
         <is>
@@ -20465,17 +20221,17 @@
       <c r="U207" t="inlineStr"/>
       <c r="V207" t="inlineStr">
         <is>
-          <t>21SL-PR00078</t>
+          <t>21SL-PR00180</t>
         </is>
       </c>
       <c r="W207" t="inlineStr">
         <is>
-          <t>PAMELA A. CRAIG,  DECEASED</t>
+          <t>JOHN BERNARD BURCKE, JR.,  DECEASED</t>
         </is>
       </c>
       <c r="X207" t="inlineStr">
         <is>
-          <t>PR Independent with Will</t>
+          <t>PR Refusal of Letters-Spouse</t>
         </is>
       </c>
       <c r="Y207" t="inlineStr">
@@ -20488,12 +20244,12 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>CRAIG</t>
+          <t>BURCKE</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>THOMAS M</t>
+          <t>LINDA F</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -20503,13 +20259,13 @@
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>4990 LOUGHBOROUGH AVENUE</t>
+          <t>245 STEAMBOAT LANE</t>
         </is>
       </c>
       <c r="E208" t="inlineStr"/>
       <c r="F208" t="inlineStr">
         <is>
-          <t>ST. LOUIS,</t>
+          <t>BALLWIN,</t>
         </is>
       </c>
       <c r="G208" t="inlineStr">
@@ -20519,19 +20275,19 @@
       </c>
       <c r="H208" t="inlineStr">
         <is>
-          <t>63109</t>
+          <t>63021</t>
         </is>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr">
         <is>
-          <t>1973</t>
+          <t>1949</t>
         </is>
       </c>
       <c r="K208" t="inlineStr"/>
       <c r="L208" t="inlineStr">
         <is>
-          <t>ALSOP CHRISTINE A</t>
+          <t>BURCKE JOSEPH R.</t>
         </is>
       </c>
       <c r="M208" t="inlineStr">
@@ -20541,13 +20297,17 @@
       </c>
       <c r="N208" t="inlineStr">
         <is>
-          <t>6654 CHIPPEWA STREET</t>
-        </is>
-      </c>
-      <c r="O208" t="inlineStr"/>
+          <t>222 S. CENTRAL AVENUE</t>
+        </is>
+      </c>
+      <c r="O208" t="inlineStr">
+        <is>
+          <t>SUITE 600</t>
+        </is>
+      </c>
       <c r="P208" t="inlineStr">
         <is>
-          <t>ST LOUIS,</t>
+          <t>CLAYTON,</t>
         </is>
       </c>
       <c r="Q208" t="inlineStr">
@@ -20557,14 +20317,10 @@
       </c>
       <c r="R208" t="inlineStr">
         <is>
-          <t>63109</t>
-        </is>
-      </c>
-      <c r="S208" t="inlineStr">
-        <is>
-          <t>(314) 644-3200</t>
-        </is>
-      </c>
+          <t>63105</t>
+        </is>
+      </c>
+      <c r="S208" t="inlineStr"/>
       <c r="T208" t="inlineStr">
         <is>
           <t>01/07/2021</t>
@@ -20573,17 +20329,17 @@
       <c r="U208" t="inlineStr"/>
       <c r="V208" t="inlineStr">
         <is>
-          <t>21SL-PR00078</t>
+          <t>21SL-PR00180</t>
         </is>
       </c>
       <c r="W208" t="inlineStr">
         <is>
-          <t>PAMELA A. CRAIG,  DECEASED</t>
+          <t>JOHN BERNARD BURCKE, JR.,  DECEASED</t>
         </is>
       </c>
       <c r="X208" t="inlineStr">
         <is>
-          <t>PR Independent with Will</t>
+          <t>PR Refusal of Letters-Spouse</t>
         </is>
       </c>
       <c r="Y208" t="inlineStr">
@@ -20592,226 +20348,6 @@
         </is>
       </c>
       <c r="Z208" t="inlineStr"/>
-    </row>
-    <row r="209">
-      <c r="A209" t="inlineStr">
-        <is>
-          <t>BURCKE</t>
-        </is>
-      </c>
-      <c r="B209" t="inlineStr">
-        <is>
-          <t>JOHN B JR</t>
-        </is>
-      </c>
-      <c r="C209" t="inlineStr">
-        <is>
-          <t>Decedent</t>
-        </is>
-      </c>
-      <c r="D209" t="inlineStr">
-        <is>
-          <t>245 STEAMBOAT LANE</t>
-        </is>
-      </c>
-      <c r="E209" t="inlineStr"/>
-      <c r="F209" t="inlineStr">
-        <is>
-          <t>BALLWIN,</t>
-        </is>
-      </c>
-      <c r="G209" t="inlineStr">
-        <is>
-          <t>MO</t>
-        </is>
-      </c>
-      <c r="H209" t="inlineStr">
-        <is>
-          <t>63021</t>
-        </is>
-      </c>
-      <c r="I209" t="inlineStr"/>
-      <c r="J209" t="inlineStr">
-        <is>
-          <t>1949</t>
-        </is>
-      </c>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>11/21/2020</t>
-        </is>
-      </c>
-      <c r="L209" t="inlineStr">
-        <is>
-          <t>BURCKE JOSEPH R.</t>
-        </is>
-      </c>
-      <c r="M209" t="inlineStr">
-        <is>
-          <t>Attorney for Petitioner</t>
-        </is>
-      </c>
-      <c r="N209" t="inlineStr">
-        <is>
-          <t>222 S. CENTRAL AVENUE</t>
-        </is>
-      </c>
-      <c r="O209" t="inlineStr">
-        <is>
-          <t>SUITE 600</t>
-        </is>
-      </c>
-      <c r="P209" t="inlineStr">
-        <is>
-          <t>CLAYTON,</t>
-        </is>
-      </c>
-      <c r="Q209" t="inlineStr">
-        <is>
-          <t>MO</t>
-        </is>
-      </c>
-      <c r="R209" t="inlineStr">
-        <is>
-          <t>63105</t>
-        </is>
-      </c>
-      <c r="S209" t="inlineStr"/>
-      <c r="T209" t="inlineStr">
-        <is>
-          <t>01/07/2021</t>
-        </is>
-      </c>
-      <c r="U209" t="inlineStr"/>
-      <c r="V209" t="inlineStr">
-        <is>
-          <t>21SL-PR00180</t>
-        </is>
-      </c>
-      <c r="W209" t="inlineStr">
-        <is>
-          <t>JOHN BERNARD BURCKE, JR.,  DECEASED</t>
-        </is>
-      </c>
-      <c r="X209" t="inlineStr">
-        <is>
-          <t>PR Refusal of Letters-Spouse</t>
-        </is>
-      </c>
-      <c r="Y209" t="inlineStr">
-        <is>
-          <t>St Louis County</t>
-        </is>
-      </c>
-      <c r="Z209" t="inlineStr"/>
-    </row>
-    <row r="210">
-      <c r="A210" t="inlineStr">
-        <is>
-          <t>BURCKE</t>
-        </is>
-      </c>
-      <c r="B210" t="inlineStr">
-        <is>
-          <t>LINDA F</t>
-        </is>
-      </c>
-      <c r="C210" t="inlineStr">
-        <is>
-          <t>Petitioner</t>
-        </is>
-      </c>
-      <c r="D210" t="inlineStr">
-        <is>
-          <t>245 STEAMBOAT LANE</t>
-        </is>
-      </c>
-      <c r="E210" t="inlineStr"/>
-      <c r="F210" t="inlineStr">
-        <is>
-          <t>BALLWIN,</t>
-        </is>
-      </c>
-      <c r="G210" t="inlineStr">
-        <is>
-          <t>MO</t>
-        </is>
-      </c>
-      <c r="H210" t="inlineStr">
-        <is>
-          <t>63021</t>
-        </is>
-      </c>
-      <c r="I210" t="inlineStr"/>
-      <c r="J210" t="inlineStr">
-        <is>
-          <t>1949</t>
-        </is>
-      </c>
-      <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr">
-        <is>
-          <t>BURCKE JOSEPH R.</t>
-        </is>
-      </c>
-      <c r="M210" t="inlineStr">
-        <is>
-          <t>Attorney for Petitioner</t>
-        </is>
-      </c>
-      <c r="N210" t="inlineStr">
-        <is>
-          <t>222 S. CENTRAL AVENUE</t>
-        </is>
-      </c>
-      <c r="O210" t="inlineStr">
-        <is>
-          <t>SUITE 600</t>
-        </is>
-      </c>
-      <c r="P210" t="inlineStr">
-        <is>
-          <t>CLAYTON,</t>
-        </is>
-      </c>
-      <c r="Q210" t="inlineStr">
-        <is>
-          <t>MO</t>
-        </is>
-      </c>
-      <c r="R210" t="inlineStr">
-        <is>
-          <t>63105</t>
-        </is>
-      </c>
-      <c r="S210" t="inlineStr"/>
-      <c r="T210" t="inlineStr">
-        <is>
-          <t>01/07/2021</t>
-        </is>
-      </c>
-      <c r="U210" t="inlineStr"/>
-      <c r="V210" t="inlineStr">
-        <is>
-          <t>21SL-PR00180</t>
-        </is>
-      </c>
-      <c r="W210" t="inlineStr">
-        <is>
-          <t>JOHN BERNARD BURCKE, JR.,  DECEASED</t>
-        </is>
-      </c>
-      <c r="X210" t="inlineStr">
-        <is>
-          <t>PR Refusal of Letters-Spouse</t>
-        </is>
-      </c>
-      <c r="Y210" t="inlineStr">
-        <is>
-          <t>St Louis County</t>
-        </is>
-      </c>
-      <c r="Z210" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
